--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ford_Griffith\A_rabiei_genotyping\A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Ford_Griffith\A_rabiei_genotyping\A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{378BD25F-1D00-4F89-8F23-E1D39DB1D00E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EE7F5F-FA1A-4696-B141-A615CB4B61A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,13 @@
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
     <sheet name="submission_info" sheetId="5" r:id="rId2"/>
     <sheet name="missing_info" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Path_score" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="sample_haplotype_details" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="212">
   <si>
     <t>Isolate</t>
   </si>
@@ -629,13 +632,85 @@
   </si>
   <si>
     <t>Highly contaminated with bacterial DNA (~90%), low yield</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Reg5</t>
+  </si>
+  <si>
+    <t>Reg6</t>
+  </si>
+  <si>
+    <t>Reg3</t>
+  </si>
+  <si>
+    <t>Reg4</t>
+  </si>
+  <si>
+    <t>Reg2</t>
+  </si>
+  <si>
+    <t>ARH01</t>
+  </si>
+  <si>
+    <t>ARH02</t>
+  </si>
+  <si>
+    <t>ARH20</t>
+  </si>
+  <si>
+    <t>ARH14</t>
+  </si>
+  <si>
+    <t>ARH04</t>
+  </si>
+  <si>
+    <t>ARH09</t>
+  </si>
+  <si>
+    <t>Pathotype</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>PacBio</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>Illumina+PacBio</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Seamer</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +764,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -780,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -929,12 +1018,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1106,169 +1207,54 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{1570D574-0313-47FF-B72D-FD18F6F46147}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="41">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1662,6 +1648,164 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -1689,6 +1833,47 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF61D62C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2152,39 +2337,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:K41" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
-  <autoFilter ref="A1:K41" xr:uid="{97944944-AE00-4B8A-BBE3-A065049FC627}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+  <autoFilter ref="A1:L41" xr:uid="{97944944-AE00-4B8A-BBE3-A065049FC627}"/>
   <sortState ref="A2:K41">
     <sortCondition ref="A1:A61"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{9F84C422-8790-42EE-8A7B-89FD537EF716}" name="Collection_Year"/>
-    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Host Cultivar" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="ICC3996" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="Genesis090" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="HatTrick" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="Rating" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Pathogenicity" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Haplotype" dataDxfId="22"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{9F84C422-8790-42EE-8A7B-89FD537EF716}" name="Sequenced"/>
+    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:D64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
   <sortState ref="A10:D64">
     <sortCondition ref="C1:C64"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2208,6 +2394,35 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8DA541EA-FAE5-4437-83AF-0CEAA341F8B2}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
+  <autoFilter ref="A1:O41" xr:uid="{FAC11A3C-750F-4894-AAC6-4A2AFF050846}"/>
+  <sortState ref="A2:O41">
+    <sortCondition descending="1" ref="J2:J41"/>
+    <sortCondition descending="1" ref="D2:D41"/>
+    <sortCondition ref="C2:C41"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{245DA650-50C7-4E0E-B3D9-7C93838449C9}" name="Isolate"/>
+    <tableColumn id="2" xr3:uid="{F2045EC0-A24F-4FA1-A230-F46B871D5585}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{3D76ED84-A720-4C5E-92EB-16B17906D484}" name="State"/>
+    <tableColumn id="4" xr3:uid="{1D5FD36D-108F-4BC1-82A0-BF8D7FD21B01}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{2C42C1E2-C9E5-47D4-BD25-A005169F0A1E}" name="Host Cultivar"/>
+    <tableColumn id="6" xr3:uid="{37C8C4B5-2A8F-4D0F-BA74-F75F864050B6}" name="ICC3996"/>
+    <tableColumn id="7" xr3:uid="{C2D2B173-4C91-4D5A-BE44-36515E884D38}" name="Genesis090"/>
+    <tableColumn id="8" xr3:uid="{3CC0C94A-0A9F-43A9-934F-E66367581E3D}" name="HatTrick"/>
+    <tableColumn id="9" xr3:uid="{1EB818F1-39C6-48C6-97EC-1DF3C7E3C21A}" name="Rating"/>
+    <tableColumn id="10" xr3:uid="{72F59AAC-1F50-4683-9228-13A21D9EF8D9}" name="Pathogenicity"/>
+    <tableColumn id="11" xr3:uid="{40E9735E-E11E-4A45-BD52-1038F1DB43B5}" name="Sequenced"/>
+    <tableColumn id="12" xr3:uid="{FC3C6E63-D8F0-40FB-812E-8890FA26CAA5}" name="Host"/>
+    <tableColumn id="13" xr3:uid="{C454800D-9AE3-4DEC-AC5B-A8A9C705C89D}" name="Region"/>
+    <tableColumn id="14" xr3:uid="{A87669FA-8278-47AA-9C10-75FE908940D2}" name="Haplotype"/>
+    <tableColumn id="15" xr3:uid="{895BF36B-1899-47F1-87A9-B6EAA6D06C4F}" name="Pathotype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2534,27 +2749,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2588,8 +2804,11 @@
       <c r="K1" s="43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>32</v>
       </c>
@@ -2623,8 +2842,11 @@
       <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>74</v>
       </c>
@@ -2658,8 +2880,11 @@
       <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
@@ -2693,8 +2918,11 @@
       <c r="K4" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>41</v>
       </c>
@@ -2728,8 +2956,11 @@
       <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
@@ -2763,8 +2994,11 @@
       <c r="K6" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>35</v>
       </c>
@@ -2798,8 +3032,11 @@
       <c r="K7" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>27</v>
       </c>
@@ -2833,8 +3070,11 @@
       <c r="K8" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>99</v>
       </c>
@@ -2868,8 +3108,11 @@
       <c r="K9" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>75</v>
       </c>
@@ -2903,8 +3146,11 @@
       <c r="K10" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>92</v>
       </c>
@@ -2936,8 +3182,11 @@
         <v>4</v>
       </c>
       <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>76</v>
       </c>
@@ -2971,8 +3220,11 @@
       <c r="K12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>104</v>
       </c>
@@ -3006,8 +3258,11 @@
       <c r="K13" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>105</v>
       </c>
@@ -3041,8 +3296,11 @@
       <c r="K14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>113</v>
       </c>
@@ -3074,8 +3332,11 @@
         <v>3</v>
       </c>
       <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>97</v>
       </c>
@@ -3107,8 +3368,11 @@
         <v>3</v>
       </c>
       <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>77</v>
       </c>
@@ -3140,8 +3404,11 @@
         <v>3</v>
       </c>
       <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>142</v>
       </c>
@@ -3173,8 +3440,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>95</v>
       </c>
@@ -3206,8 +3476,11 @@
         <v>3</v>
       </c>
       <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>107</v>
       </c>
@@ -3239,8 +3512,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>84</v>
       </c>
@@ -3272,8 +3548,11 @@
         <v>4</v>
       </c>
       <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>47</v>
       </c>
@@ -3307,8 +3586,11 @@
       <c r="K22" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>72</v>
       </c>
@@ -3342,8 +3624,11 @@
       <c r="K23" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>71</v>
       </c>
@@ -3377,8 +3662,11 @@
       <c r="K24" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>23</v>
       </c>
@@ -3412,8 +3700,11 @@
       <c r="K25" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
@@ -3447,8 +3738,11 @@
       <c r="K26" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>25</v>
       </c>
@@ -3482,8 +3776,11 @@
       <c r="K27" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>38</v>
       </c>
@@ -3517,8 +3814,11 @@
       <c r="K28" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>78</v>
       </c>
@@ -3552,8 +3852,11 @@
       <c r="K29" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>29</v>
       </c>
@@ -3587,8 +3890,11 @@
       <c r="K30" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>34</v>
       </c>
@@ -3622,8 +3928,11 @@
       <c r="K31" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>22</v>
       </c>
@@ -3657,8 +3966,11 @@
       <c r="K32" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>101</v>
       </c>
@@ -3692,8 +4004,11 @@
       <c r="K33" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>143</v>
       </c>
@@ -3725,8 +4040,11 @@
         <v>1</v>
       </c>
       <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>85</v>
       </c>
@@ -3758,8 +4076,11 @@
         <v>4</v>
       </c>
       <c r="K35" s="8"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>109</v>
       </c>
@@ -3791,8 +4112,11 @@
         <v>0</v>
       </c>
       <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>93</v>
       </c>
@@ -3824,8 +4148,11 @@
         <v>3</v>
       </c>
       <c r="K37" s="8"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>114</v>
       </c>
@@ -3857,8 +4184,11 @@
         <v>0</v>
       </c>
       <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>98</v>
       </c>
@@ -3890,8 +4220,11 @@
         <v>3</v>
       </c>
       <c r="K39" s="8"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>89</v>
       </c>
@@ -3923,8 +4256,11 @@
         <v>4</v>
       </c>
       <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>91</v>
       </c>
@@ -3956,6 +4292,9 @@
         <v>4</v>
       </c>
       <c r="K41" s="8"/>
+      <c r="L41" s="14" t="s">
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J7">
@@ -4234,16 +4573,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E0CF27-4844-4778-BE81-C1AD7D7B71CA}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,6 +5540,110 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC3EC9-76DB-46F2-B4BF-295ABAA71DB2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="69" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="69">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69">
+        <v>0</v>
+      </c>
+      <c r="D2" s="69">
+        <v>1</v>
+      </c>
+      <c r="E2" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="69">
+        <v>0</v>
+      </c>
+      <c r="C3" s="69">
+        <v>0</v>
+      </c>
+      <c r="D3" s="69">
+        <v>1</v>
+      </c>
+      <c r="E3" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0</v>
+      </c>
+      <c r="C4" s="69">
+        <v>0</v>
+      </c>
+      <c r="D4" s="69">
+        <v>1</v>
+      </c>
+      <c r="E4" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="69">
+        <v>0</v>
+      </c>
+      <c r="C5" s="69">
+        <v>0</v>
+      </c>
+      <c r="D5" s="69">
+        <v>1</v>
+      </c>
+      <c r="E5" s="69">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -5210,18 +5653,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="10.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" style="24" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.42578125" style="24" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="24" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6408,7 +6851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -6684,7 +7127,2006 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2015</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2014</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>2017</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2017</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>189</v>
+      </c>
+      <c r="N14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>190</v>
+      </c>
+      <c r="N15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2015</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2015</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2015</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2015</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>190</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>2016</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2016</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>189</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2015</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2013</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2016</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>189</v>
+      </c>
+      <c r="N31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>189</v>
+      </c>
+      <c r="N32" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2015</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>2014</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>191</v>
+      </c>
+      <c r="N34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>2014</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35" t="s">
+        <v>194</v>
+      </c>
+      <c r="O35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>2017</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" t="s">
+        <v>201</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>2017</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s">
+        <v>201</v>
+      </c>
+      <c r="N37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>2017</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>201</v>
+      </c>
+      <c r="N38" t="s">
+        <v>201</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2017</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>201</v>
+      </c>
+      <c r="N39" t="s">
+        <v>201</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2015</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" t="s">
+        <v>189</v>
+      </c>
+      <c r="N40" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>2014</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>191</v>
+      </c>
+      <c r="N41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J2:J41">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:H41">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Moderate"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF58540B94450B45B7164CDCEF97F187" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d8dbd669b9ca3a74eb8709c213c647d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cc093d9-4f30-445e-9010-d0117c74656d" xmlns:ns3="ff1451eb-1820-42ab-a257-e0e71c4d4e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da50ea4e48985e64f93d7c2a3a9e6ff7" ns2:_="" ns3:_="">
     <xsd:import namespace="6cc093d9-4f30-445e-9010-d0117c74656d"/>
@@ -6849,22 +9291,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6cc093d9-4f30-445e-9010-d0117c74656d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB53F716-BD83-4083-9021-A1BA86EE45D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6D9C8C-AED0-4DD1-A485-921CF3EA82DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6881,29 +9333,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB53F716-BD83-4083-9021-A1BA86EE45D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6cc093d9-4f30-445e-9010-d0117c74656d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Ford_Griffith\A_rabiei_genotyping\A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
     <sheet name="Path_score" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
-    <sheet name="sample_haplotype_details" sheetId="8" r:id="rId7"/>
+    <sheet name="sample_haplotype_details" r:id="rId14" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="212">
   <si>
     <t>Isolate</t>
   </si>
@@ -710,6 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2757,17 +2758,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4579,10 +4580,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,8 +5550,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="69" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="69" width="11.0" collapsed="true"/>
+    <col min="2" max="16384" style="69" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5653,18 +5654,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" style="24" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.42578125" style="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="24" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="24" width="10.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="24" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="24" width="7.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="24" width="13.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="24" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="24" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="24" width="9.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="24" width="8.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="28" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="24" width="9.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="24" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7127,30 +7128,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O41"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7161,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
         <v>83</v>
@@ -7197,27 +7183,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2014.0</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -7225,46 +7211,46 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>5</v>
+      <c r="J2" t="n">
+        <v>1.0</v>
       </c>
       <c r="K2" t="s">
         <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -7272,43 +7258,43 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>5</v>
+      <c r="J3" t="n">
+        <v>2.0</v>
       </c>
       <c r="K3" t="s">
         <v>206</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -7319,46 +7305,46 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>5</v>
+      <c r="J4" t="n">
+        <v>4.0</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L4" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -7366,37 +7352,37 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>5</v>
+      <c r="J5" t="n">
+        <v>1.0</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -7408,98 +7394,98 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>4</v>
+      <c r="J6" t="n">
+        <v>4.0</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
       </c>
       <c r="K7" t="s">
         <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>2016</v>
+      <c r="D8" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -7507,28 +7493,28 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8">
-        <v>4</v>
+      <c r="J8" t="n">
+        <v>3.0</v>
       </c>
       <c r="K8" t="s">
         <v>206</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -7536,17 +7522,17 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>2015</v>
+      <c r="D9" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -7554,11 +7540,11 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9">
-        <v>4</v>
+      <c r="J9" t="n">
+        <v>2.0</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -7567,15 +7553,15 @@
         <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -7583,8 +7569,8 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>2015</v>
+      <c r="D10" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -7593,7 +7579,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
@@ -7601,11 +7587,11 @@
       <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10">
-        <v>4</v>
+      <c r="J10" t="n">
+        <v>3.0</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -7614,27 +7600,27 @@
         <v>189</v>
       </c>
       <c r="N10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>2014</v>
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -7648,37 +7634,37 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>4</v>
+      <c r="J11" t="n">
+        <v>4.0</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>2013</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -7687,7 +7673,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -7695,46 +7681,46 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12">
-        <v>4</v>
+      <c r="J12" t="n">
+        <v>3.0</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>2017</v>
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
@@ -7742,46 +7728,46 @@
       <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="n">
+        <v>1.0</v>
       </c>
       <c r="K13" t="s">
         <v>206</v>
       </c>
       <c r="L13" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>2017</v>
+      <c r="D14" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -7789,8 +7775,8 @@
       <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="n">
+        <v>1.0</v>
       </c>
       <c r="K14" t="s">
         <v>206</v>
@@ -7805,21 +7791,21 @@
         <v>194</v>
       </c>
       <c r="O14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>2016</v>
+        <v>15</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -7836,8 +7822,8 @@
       <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="n">
+        <v>3.0</v>
       </c>
       <c r="K15" t="s">
         <v>206</v>
@@ -7846,7 +7832,7 @@
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s">
         <v>194</v>
@@ -7855,18 +7841,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>2016</v>
+      <c r="D16" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
@@ -7883,8 +7869,8 @@
       <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="n">
+        <v>3.0</v>
       </c>
       <c r="K16" t="s">
         <v>206</v>
@@ -7893,92 +7879,92 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
+        <v>190</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
         <v>201</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N17" t="s">
         <v>201</v>
       </c>
-      <c r="O16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>2016</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>207</v>
-      </c>
-      <c r="L17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s">
-        <v>194</v>
-      </c>
       <c r="O17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>2016</v>
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0</v>
       </c>
       <c r="K18" t="s">
         <v>206</v>
@@ -7987,27 +7973,27 @@
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2015</v>
+        <v>13</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -8016,16 +8002,16 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="n">
+        <v>4.0</v>
       </c>
       <c r="K19" t="s">
         <v>206</v>
@@ -8040,39 +8026,39 @@
         <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>2015</v>
+        <v>15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
       </c>
       <c r="K20" t="s">
         <v>206</v>
@@ -8087,30 +8073,30 @@
         <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
-        <v>2015</v>
+      <c r="D21" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -8118,8 +8104,8 @@
       <c r="I21" t="s">
         <v>10</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="n">
+        <v>5.0</v>
       </c>
       <c r="K21" t="s">
         <v>206</v>
@@ -8134,21 +8120,21 @@
         <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22">
-        <v>2015</v>
+      <c r="D22" t="n">
+        <v>2013.0</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -8157,7 +8143,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -8165,37 +8151,37 @@
       <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="n">
+        <v>4.0</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23">
-        <v>2015</v>
+      <c r="D23" t="n">
+        <v>2013.0</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -8212,8 +8198,8 @@
       <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="n">
+        <v>3.0</v>
       </c>
       <c r="K23" t="s">
         <v>206</v>
@@ -8231,24 +8217,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>2015</v>
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2013.0</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -8259,37 +8245,37 @@
       <c r="I24" t="s">
         <v>10</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="n">
+        <v>2.0</v>
       </c>
       <c r="K24" t="s">
         <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s">
         <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25">
-        <v>2013</v>
+      <c r="D25" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -8306,8 +8292,8 @@
       <c r="I25" t="s">
         <v>10</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="n">
+        <v>3.0</v>
       </c>
       <c r="K25" t="s">
         <v>206</v>
@@ -8316,33 +8302,33 @@
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>2016</v>
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -8353,43 +8339,43 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="J26">
-        <v>2</v>
+      <c r="J26" t="n">
+        <v>3.0</v>
       </c>
       <c r="K26" t="s">
         <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>2016</v>
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -8400,8 +8386,8 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27">
-        <v>2</v>
+      <c r="J27" t="n">
+        <v>3.0</v>
       </c>
       <c r="K27" t="s">
         <v>206</v>
@@ -8410,33 +8396,33 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>2015</v>
+        <v>8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E28" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -8447,8 +8433,8 @@
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="J28">
-        <v>2</v>
+      <c r="J28" t="n">
+        <v>3.0</v>
       </c>
       <c r="K28" t="s">
         <v>206</v>
@@ -8463,27 +8449,27 @@
         <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
-        <v>2013</v>
+      <c r="D29" t="n">
+        <v>2015.0</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -8494,8 +8480,8 @@
       <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="J29">
-        <v>2</v>
+      <c r="J29" t="n">
+        <v>3.0</v>
       </c>
       <c r="K29" t="s">
         <v>206</v>
@@ -8510,21 +8496,21 @@
         <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30">
-        <v>2016</v>
+      <c r="D30" t="n">
+        <v>2014.0</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -8541,40 +8527,40 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
-      <c r="J30">
-        <v>1</v>
+      <c r="J30" t="n">
+        <v>1.0</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s">
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>2016</v>
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2014.0</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -8583,51 +8569,51 @@
         <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0</v>
       </c>
       <c r="K31" t="s">
         <v>206</v>
       </c>
       <c r="L31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s">
         <v>194</v>
       </c>
       <c r="O31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>2016</v>
+        <v>13</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2014.0</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
@@ -8635,46 +8621,46 @@
       <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J32">
-        <v>1</v>
+      <c r="J32" t="n">
+        <v>4.0</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N32" t="s">
         <v>194</v>
       </c>
       <c r="O32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33">
-        <v>2015</v>
+        <v>13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
@@ -8682,37 +8668,37 @@
       <c r="I33" t="s">
         <v>10</v>
       </c>
-      <c r="J33">
-        <v>1</v>
+      <c r="J33" t="n">
+        <v>2.0</v>
       </c>
       <c r="K33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D34">
-        <v>2014</v>
+      <c r="D34" t="n">
+        <v>2016.0</v>
       </c>
       <c r="E34" t="s">
         <v>102</v>
@@ -8729,46 +8715,46 @@
       <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J34">
-        <v>1</v>
+      <c r="J34" t="n">
+        <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
       </c>
       <c r="M34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35">
-        <v>2014</v>
+        <v>87</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
         <v>10</v>
@@ -8776,26 +8762,26 @@
       <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="J35" t="n">
+        <v>5.0</v>
       </c>
       <c r="K35" t="s">
         <v>206</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -8805,8 +8791,8 @@
       <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="D36">
-        <v>2017</v>
+      <c r="D36" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -8823,8 +8809,8 @@
       <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="J36" t="n">
+        <v>0.0</v>
       </c>
       <c r="K36" t="s">
         <v>206</v>
@@ -8842,9 +8828,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>94</v>
@@ -8852,26 +8838,26 @@
       <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="D37">
-        <v>2017</v>
+      <c r="D37" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E37" t="s">
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.0</v>
       </c>
       <c r="K37" t="s">
         <v>206</v>
@@ -8886,24 +8872,24 @@
         <v>201</v>
       </c>
       <c r="O37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>2017</v>
+        <v>87</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -8917,14 +8903,14 @@
       <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="J38" t="n">
+        <v>0.0</v>
       </c>
       <c r="K38" t="s">
         <v>206</v>
       </c>
       <c r="L38" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="M38" t="s">
         <v>201</v>
@@ -8936,178 +8922,149 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>2017</v>
+        <v>13</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.0</v>
       </c>
       <c r="K39" t="s">
         <v>206</v>
       </c>
       <c r="L39" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>2015</v>
+        <v>13</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.0</v>
       </c>
       <c r="K40" t="s">
         <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N40" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="O40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41">
-        <v>2014</v>
+      <c r="D41" t="n">
+        <v>2017.0</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.0</v>
       </c>
       <c r="K41" t="s">
         <v>206</v>
       </c>
       <c r="L41" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N41" t="s">
         <v>194</v>
       </c>
       <c r="O41" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J41">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:H41">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Moderate"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Ford_Griffith\A_rabiei_genotyping\A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ford_Griffith\A_rabiei_genotyping\A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14EE7F5F-FA1A-4696-B141-A615CB4B61A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{25A96603-2CF4-4541-A4EE-BBBA829B6F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
     <sheet name="submission_info" sheetId="5" r:id="rId2"/>
     <sheet name="missing_info" sheetId="4" r:id="rId3"/>
-    <sheet name="Path_score" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
-    <sheet name="sample_haplotype_details" r:id="rId14" sheetId="8"/>
+    <sheet name="sample_haplotype_details" sheetId="8" r:id="rId4"/>
+    <sheet name="Path_score" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="211">
   <si>
     <t>Isolate</t>
   </si>
@@ -701,16 +701,12 @@
   </si>
   <si>
     <t>Extreme</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1161,15 +1157,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,9 +1179,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1210,13 +1194,25 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{1570D574-0313-47FF-B72D-FD18F6F46147}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="46">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1239,11 +1235,61 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2338,92 +2384,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
-  <autoFilter ref="A1:L41" xr:uid="{97944944-AE00-4B8A-BBE3-A065049FC627}"/>
-  <sortState ref="A2:K41">
-    <sortCondition ref="A1:A61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+  <sortState ref="A2:L41">
+    <sortCondition descending="1" ref="J2:J41"/>
+    <sortCondition ref="D2:D41"/>
+    <sortCondition ref="C2:C41"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="39"/>
     <tableColumn id="12" xr3:uid="{9F84C422-8790-42EE-8A7B-89FD537EF716}" name="Sequenced"/>
-    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="A1:D64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
   <sortState ref="A10:D64">
     <sortCondition ref="C1:C64"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
-  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:K33">
-    <sortCondition ref="A1:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21EE8601-D93F-4E1D-89BA-AD90D26868FA}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
+  <sortState ref="A2:O41">
+    <sortCondition descending="1" ref="J2:J41"/>
+    <sortCondition descending="1" ref="D2:D41"/>
+    <sortCondition ref="C2:C41"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="4"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{65335CB5-4BCE-4F9D-BEE4-CFCDBFFC4F13}" name="Isolate"/>
+    <tableColumn id="2" xr3:uid="{9C84BD8E-0463-49A5-9F42-C1D72331865E}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{F1C74CCA-82D3-4816-869E-63EE8FC9CB3D}" name="State"/>
+    <tableColumn id="4" xr3:uid="{759ED46C-2DC9-49B6-9A1A-49754798A24E}" name="Collection_Year"/>
+    <tableColumn id="5" xr3:uid="{6DACDCC7-52C7-4E81-87C4-696E160AE596}" name="Host Cultivar"/>
+    <tableColumn id="6" xr3:uid="{2D764C83-71A8-4350-9B6D-DDE89D606243}" name="ICC3996"/>
+    <tableColumn id="7" xr3:uid="{CD069AB4-2C2B-45B3-9BDA-5A9C2FB6A5FC}" name="Genesis090"/>
+    <tableColumn id="8" xr3:uid="{864D08C9-6860-4D74-9023-E885EFCCBD87}" name="HatTrick"/>
+    <tableColumn id="9" xr3:uid="{DB68FD33-340D-45E3-96B8-24E78DEF5847}" name="Rating"/>
+    <tableColumn id="10" xr3:uid="{271F0560-7BD0-4BD3-96D3-34E4C6DAEF5D}" name="Pathogenicity"/>
+    <tableColumn id="11" xr3:uid="{2B863ACF-88DA-4A2D-9642-7606B9CE7239}" name="Sequenced"/>
+    <tableColumn id="12" xr3:uid="{74C40EE2-9483-4BFA-B42B-B2BB2EA437A0}" name="Host"/>
+    <tableColumn id="13" xr3:uid="{9C494795-052A-49DA-9474-79588365FAD4}" name="Region"/>
+    <tableColumn id="14" xr3:uid="{F9CCB6A1-68D9-45AD-BAB1-D02C62AA0D3C}" name="Haplotype"/>
+    <tableColumn id="15" xr3:uid="{D38A1D2C-5176-443D-AFF9-58B21C9EB258}" name="Pathotype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8DA541EA-FAE5-4437-83AF-0CEAA341F8B2}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
-  <autoFilter ref="A1:O41" xr:uid="{FAC11A3C-750F-4894-AAC6-4A2AFF050846}"/>
-  <sortState ref="A2:O41">
-    <sortCondition descending="1" ref="J2:J41"/>
-    <sortCondition descending="1" ref="D2:D41"/>
-    <sortCondition ref="C2:C41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:K33">
+    <sortCondition ref="A1:A33"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{245DA650-50C7-4E0E-B3D9-7C93838449C9}" name="Isolate"/>
-    <tableColumn id="2" xr3:uid="{F2045EC0-A24F-4FA1-A230-F46B871D5585}" name="Site"/>
-    <tableColumn id="3" xr3:uid="{3D76ED84-A720-4C5E-92EB-16B17906D484}" name="State"/>
-    <tableColumn id="4" xr3:uid="{1D5FD36D-108F-4BC1-82A0-BF8D7FD21B01}" name="Year"/>
-    <tableColumn id="5" xr3:uid="{2C42C1E2-C9E5-47D4-BD25-A005169F0A1E}" name="Host Cultivar"/>
-    <tableColumn id="6" xr3:uid="{37C8C4B5-2A8F-4D0F-BA74-F75F864050B6}" name="ICC3996"/>
-    <tableColumn id="7" xr3:uid="{C2D2B173-4C91-4D5A-BE44-36515E884D38}" name="Genesis090"/>
-    <tableColumn id="8" xr3:uid="{3CC0C94A-0A9F-43A9-934F-E66367581E3D}" name="HatTrick"/>
-    <tableColumn id="9" xr3:uid="{1EB818F1-39C6-48C6-97EC-1DF3C7E3C21A}" name="Rating"/>
-    <tableColumn id="10" xr3:uid="{72F59AAC-1F50-4683-9228-13A21D9EF8D9}" name="Pathogenicity"/>
-    <tableColumn id="11" xr3:uid="{40E9735E-E11E-4A45-BD52-1038F1DB43B5}" name="Sequenced"/>
-    <tableColumn id="12" xr3:uid="{FC3C6E63-D8F0-40FB-812E-8890FA26CAA5}" name="Host"/>
-    <tableColumn id="13" xr3:uid="{C454800D-9AE3-4DEC-AC5B-A8A9C705C89D}" name="Region"/>
-    <tableColumn id="14" xr3:uid="{A87669FA-8278-47AA-9C10-75FE908940D2}" name="Haplotype"/>
-    <tableColumn id="15" xr3:uid="{895BF36B-1899-47F1-87A9-B6EAA6D06C4F}" name="Pathotype"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2758,17 +2804,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2811,25 +2857,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D2" s="14">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>10</v>
@@ -2838,36 +2884,36 @@
         <v>10</v>
       </c>
       <c r="J2" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>9</v>
+      <c r="A3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>10</v>
@@ -2875,14 +2921,14 @@
       <c r="I3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="63">
-        <v>2</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="30">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,26 +2970,26 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>2015</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>28</v>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>10</v>
@@ -2952,32 +2998,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="30">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14">
-        <v>2015</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="37" t="s">
@@ -2992,72 +3038,68 @@
       <c r="J6" s="30">
         <v>4</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="30">
+        <v>4</v>
+      </c>
+      <c r="K7" s="14"/>
       <c r="L7" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2015</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
+      <c r="A8" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>10</v>
@@ -3066,36 +3108,34 @@
         <v>10</v>
       </c>
       <c r="J8" s="30">
-        <v>3</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K8" s="8"/>
       <c r="L8" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2016</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>9</v>
+      <c r="A9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>10</v>
@@ -3103,37 +3143,35 @@
       <c r="I9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="50">
-        <v>2</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="J9" s="30">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8"/>
       <c r="L9" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
+      <c r="F10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>10</v>
@@ -3142,36 +3180,34 @@
         <v>10</v>
       </c>
       <c r="J10" s="30">
-        <v>3</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D11" s="8">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>10</v>
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>10</v>
@@ -3180,27 +3216,29 @@
         <v>10</v>
       </c>
       <c r="J11" s="30">
-        <v>4</v>
-      </c>
-      <c r="K11" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="L11" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2016</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="A12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -3218,7 +3256,7 @@
       <c r="J12" s="30">
         <v>3</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="14" t="s">
@@ -3227,25 +3265,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13" s="14">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>28</v>
+      <c r="F13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>10</v>
@@ -3253,8 +3291,8 @@
       <c r="I13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="51">
-        <v>1</v>
+      <c r="J13" s="30">
+        <v>3</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>11</v>
@@ -3265,25 +3303,25 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" s="8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>28</v>
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>10</v>
@@ -3291,11 +3329,11 @@
       <c r="I14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="51">
-        <v>1</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>11</v>
+      <c r="J14" s="30">
+        <v>3</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>206</v>
@@ -3303,96 +3341,100 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15" s="14">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="45">
-        <v>3</v>
-      </c>
-      <c r="K15" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="J15" s="39">
+        <v>3</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L15" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="F16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="40">
-        <v>3</v>
-      </c>
-      <c r="K16" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="J16" s="39">
+        <v>3</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="L16" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D17" s="14">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="37" t="s">
@@ -3401,44 +3443,46 @@
       <c r="I17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="40">
-        <v>3</v>
-      </c>
-      <c r="K17" s="14"/>
+      <c r="J17" s="39">
+        <v>3</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L17" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="60">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="40">
+        <v>3</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="14" t="s">
@@ -3446,29 +3490,29 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="A19" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2016</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>9</v>
+      <c r="G19" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="I19" s="37" t="s">
         <v>10</v>
@@ -3476,68 +3520,70 @@
       <c r="J19" s="40">
         <v>3</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="14">
-        <v>2017</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="60">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14"/>
+      <c r="D20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="39">
+        <v>3</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="L20" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2017</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>10</v>
+      <c r="A21" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2016</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>10</v>
@@ -3546,71 +3592,71 @@
         <v>10</v>
       </c>
       <c r="J21" s="39">
-        <v>4</v>
-      </c>
-      <c r="K21" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L21" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="14">
-        <v>2013</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="37" t="s">
-        <v>10</v>
+      <c r="H22" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="39">
-        <v>4</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="J22" s="40">
+        <v>3</v>
+      </c>
+      <c r="K22" s="8"/>
       <c r="L22" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="37" t="s">
@@ -3619,68 +3665,64 @@
       <c r="I23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="39">
-        <v>3</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="J23" s="40">
+        <v>3</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="L23" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2013</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>10</v>
+      <c r="A24" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2017</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="I24" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="39">
-        <v>2</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="J24" s="40">
+        <v>3</v>
+      </c>
+      <c r="K24" s="8"/>
       <c r="L24" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="A25" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -3695,34 +3737,32 @@
       <c r="I25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="39">
-        <v>3</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="J25" s="45">
+        <v>3</v>
+      </c>
+      <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="14">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>9</v>
+      <c r="F26" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>9</v>
@@ -3734,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>11</v>
@@ -3745,13 +3785,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D27" s="8">
         <v>2015</v>
@@ -3759,10 +3799,10 @@
       <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="37" t="s">
@@ -3771,11 +3811,11 @@
       <c r="I27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="39">
-        <v>3</v>
+      <c r="J27" s="70">
+        <v>2</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>206</v>
@@ -3783,34 +3823,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D28" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="39">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="J28" s="59">
+        <v>2</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>11</v>
@@ -3820,38 +3860,38 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2015</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="26" t="s">
+      <c r="A29" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2016</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="39">
-        <v>3</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="J29" s="69">
+        <v>2</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>206</v>
@@ -3896,20 +3936,20 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="A31" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="14">
         <v>2014</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>102</v>
+      <c r="E31" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>28</v>
@@ -3917,16 +3957,16 @@
       <c r="G31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="45">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8" t="s">
+      <c r="H31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="39">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="14" t="s">
@@ -3934,26 +3974,26 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2014</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>10</v>
+      <c r="A32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>10</v>
@@ -3962,9 +4002,9 @@
         <v>10</v>
       </c>
       <c r="J32" s="39">
-        <v>4</v>
-      </c>
-      <c r="K32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="14" t="s">
@@ -3972,16 +4012,16 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="8">
         <v>2016</v>
       </c>
       <c r="E33" s="14" t="s">
@@ -3990,8 +4030,8 @@
       <c r="F33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>9</v>
+      <c r="G33" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>10</v>
@@ -3999,31 +4039,29 @@
       <c r="I33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="62">
-        <v>2</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="J33" s="57">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8"/>
       <c r="L33" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="A34" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="14">
         <v>2016</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>28</v>
@@ -4037,35 +4075,37 @@
       <c r="I34" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="67">
         <v>1</v>
       </c>
-      <c r="K34" s="8"/>
+      <c r="K34" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L34" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D35" s="8">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>10</v>
@@ -4073,92 +4113,98 @@
       <c r="I35" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="39">
-        <v>4</v>
-      </c>
-      <c r="K35" s="8"/>
+      <c r="J35" s="67">
+        <v>1</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L35" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2017</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="60">
+      <c r="A36" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2014</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="45">
         <v>0</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="L36" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D37" s="8">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="40">
-        <v>3</v>
-      </c>
-      <c r="K37" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="45">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="L37" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>87</v>
@@ -4169,19 +4215,19 @@
       <c r="E38" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" s="45">
+      <c r="F38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="57">
         <v>0</v>
       </c>
       <c r="K38" s="14"/>
@@ -4190,109 +4236,109 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="A39" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="14">
         <v>2017</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="52">
-        <v>3</v>
-      </c>
-      <c r="K39" s="8"/>
+      <c r="F39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="32">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14"/>
       <c r="L39" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="A40" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="8">
         <v>2017</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="46">
-        <v>4</v>
-      </c>
-      <c r="K40" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="68">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8"/>
       <c r="L40" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="8">
+      <c r="A41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="14">
         <v>2017</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="39">
-        <v>4</v>
-      </c>
-      <c r="K41" s="8"/>
+      <c r="E41" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="57">
+        <v>0</v>
+      </c>
+      <c r="K41" s="14"/>
       <c r="L41" s="14" t="s">
         <v>206</v>
       </c>
@@ -4574,829 +4620,829 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E0CF27-4844-4778-BE81-C1AD7D7B71CA}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="63" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="55"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="50" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="50" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="52" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="52" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="53"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="53"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="52" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="52" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="53"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="53"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="52"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="53"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="52" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="52" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="53"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="55"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="53"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="53"/>
+      <c r="D47" s="50"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="52" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="50" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="52"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="53"/>
+      <c r="D53" s="50"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="50" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="53"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="55"/>
+      <c r="D58" s="52"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="50" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="50" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="52" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="50" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="52" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5419,43 +5465,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="64" t="s">
+      <c r="H1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5463,7 +5509,7 @@
       <c r="A2" s="34">
         <v>8</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="34"/>
@@ -5476,7 +5522,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="61"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34" t="s">
         <v>144</v>
@@ -5486,7 +5532,7 @@
       <c r="A3" s="33">
         <v>13</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>143</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -5505,7 +5551,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="61"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>144</v>
@@ -5541,101 +5587,2082 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:O41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2017</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7">
+        <v>2017</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2015</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" t="s">
+        <v>196</v>
+      </c>
+      <c r="O10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2014</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>2017</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" t="s">
+        <v>191</v>
+      </c>
+      <c r="N13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2017</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>189</v>
+      </c>
+      <c r="N14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>190</v>
+      </c>
+      <c r="N15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2015</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>2015</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>2015</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2015</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>190</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>2016</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2016</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>189</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2015</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>2013</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>190</v>
+      </c>
+      <c r="N29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2016</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>189</v>
+      </c>
+      <c r="N31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>189</v>
+      </c>
+      <c r="N32" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2015</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N33" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>2014</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>191</v>
+      </c>
+      <c r="N34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>2014</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>206</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>189</v>
+      </c>
+      <c r="N35" t="s">
+        <v>194</v>
+      </c>
+      <c r="O35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>2017</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" t="s">
+        <v>201</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>2017</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s">
+        <v>201</v>
+      </c>
+      <c r="N37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>2017</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" t="s">
+        <v>201</v>
+      </c>
+      <c r="N38" t="s">
+        <v>201</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2017</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>201</v>
+      </c>
+      <c r="N39" t="s">
+        <v>201</v>
+      </c>
+      <c r="O39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2015</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" t="s">
+        <v>189</v>
+      </c>
+      <c r="N40" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>2014</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>191</v>
+      </c>
+      <c r="N41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:I41">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Moderate">
+      <formula>NOT(ISERROR(SEARCH("Moderate",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC3EC9-76DB-46F2-B4BF-295ABAA71DB2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="69" width="11.0" collapsed="true"/>
-    <col min="2" max="16384" style="69" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="65" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="65">
         <v>0</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="65">
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="65">
         <v>1</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="65">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="69">
+      <c r="A3" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="65">
         <v>0</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="65">
         <v>0</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="65">
         <v>1</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="65">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="65">
         <v>0</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="65">
         <v>0</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="65">
         <v>1</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="65">
         <v>0</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="65">
         <v>0</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="65">
         <v>1</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="65">
         <v>2</v>
       </c>
     </row>
@@ -5644,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -5654,18 +7681,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="24" width="10.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="24" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="24" width="7.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="24" width="13.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="24" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="24" width="12.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="24" width="9.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="24" width="8.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="28" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="24" width="9.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="24" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" style="24" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.42578125" style="24" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="24" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6852,7 +8879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -7128,1962 +9155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>189</v>
-      </c>
-      <c r="N5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>189</v>
-      </c>
-      <c r="N6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N7" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>206</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>189</v>
-      </c>
-      <c r="N8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>189</v>
-      </c>
-      <c r="N9" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" t="s">
-        <v>194</v>
-      </c>
-      <c r="O10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" t="s">
-        <v>201</v>
-      </c>
-      <c r="N11" t="s">
-        <v>201</v>
-      </c>
-      <c r="O11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>206</v>
-      </c>
-      <c r="L12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" t="s">
-        <v>189</v>
-      </c>
-      <c r="N12" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>206</v>
-      </c>
-      <c r="L13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>189</v>
-      </c>
-      <c r="N13" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>206</v>
-      </c>
-      <c r="L14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" t="s">
-        <v>189</v>
-      </c>
-      <c r="N14" t="s">
-        <v>194</v>
-      </c>
-      <c r="O14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>206</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>189</v>
-      </c>
-      <c r="N15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>206</v>
-      </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" t="s">
-        <v>190</v>
-      </c>
-      <c r="N16" t="s">
-        <v>194</v>
-      </c>
-      <c r="O16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>206</v>
-      </c>
-      <c r="L17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" t="s">
-        <v>201</v>
-      </c>
-      <c r="N17" t="s">
-        <v>201</v>
-      </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" t="s">
-        <v>201</v>
-      </c>
-      <c r="N18" t="s">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s">
-        <v>201</v>
-      </c>
-      <c r="O19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" t="s">
-        <v>201</v>
-      </c>
-      <c r="N21" t="s">
-        <v>201</v>
-      </c>
-      <c r="O21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>190</v>
-      </c>
-      <c r="N22" t="s">
-        <v>198</v>
-      </c>
-      <c r="O22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>206</v>
-      </c>
-      <c r="L23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>190</v>
-      </c>
-      <c r="N23" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K24" t="s">
-        <v>206</v>
-      </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" t="s">
-        <v>190</v>
-      </c>
-      <c r="N24" t="s">
-        <v>194</v>
-      </c>
-      <c r="O24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K25" t="s">
-        <v>206</v>
-      </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>201</v>
-      </c>
-      <c r="N25" t="s">
-        <v>201</v>
-      </c>
-      <c r="O25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>206</v>
-      </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>201</v>
-      </c>
-      <c r="N26" t="s">
-        <v>201</v>
-      </c>
-      <c r="O26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>206</v>
-      </c>
-      <c r="L27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" t="s">
-        <v>201</v>
-      </c>
-      <c r="N27" t="s">
-        <v>201</v>
-      </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N28" t="s">
-        <v>201</v>
-      </c>
-      <c r="O28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" t="s">
-        <v>194</v>
-      </c>
-      <c r="O29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" t="s">
-        <v>191</v>
-      </c>
-      <c r="N30" t="s">
-        <v>198</v>
-      </c>
-      <c r="O30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="s">
-        <v>206</v>
-      </c>
-      <c r="L31" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" t="s">
-        <v>194</v>
-      </c>
-      <c r="O31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>207</v>
-      </c>
-      <c r="L32" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" t="s">
-        <v>191</v>
-      </c>
-      <c r="N32" t="s">
-        <v>194</v>
-      </c>
-      <c r="O32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>206</v>
-      </c>
-      <c r="L33" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" t="s">
-        <v>192</v>
-      </c>
-      <c r="N33" t="s">
-        <v>194</v>
-      </c>
-      <c r="O33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2016.0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" t="s">
-        <v>192</v>
-      </c>
-      <c r="N34" t="s">
-        <v>194</v>
-      </c>
-      <c r="O34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>206</v>
-      </c>
-      <c r="L35" t="s">
-        <v>209</v>
-      </c>
-      <c r="M35" t="s">
-        <v>201</v>
-      </c>
-      <c r="N35" t="s">
-        <v>201</v>
-      </c>
-      <c r="O35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>206</v>
-      </c>
-      <c r="L36" t="s">
-        <v>209</v>
-      </c>
-      <c r="M36" t="s">
-        <v>201</v>
-      </c>
-      <c r="N36" t="s">
-        <v>201</v>
-      </c>
-      <c r="O36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>206</v>
-      </c>
-      <c r="L37" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" t="s">
-        <v>201</v>
-      </c>
-      <c r="N37" t="s">
-        <v>201</v>
-      </c>
-      <c r="O37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" t="s">
-        <v>28</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38" t="s">
-        <v>206</v>
-      </c>
-      <c r="L38" t="s">
-        <v>209</v>
-      </c>
-      <c r="M38" t="s">
-        <v>201</v>
-      </c>
-      <c r="N38" t="s">
-        <v>201</v>
-      </c>
-      <c r="O38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>206</v>
-      </c>
-      <c r="L39" t="s">
-        <v>209</v>
-      </c>
-      <c r="M39" t="s">
-        <v>191</v>
-      </c>
-      <c r="N39" t="s">
-        <v>199</v>
-      </c>
-      <c r="O39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>206</v>
-      </c>
-      <c r="L40" t="s">
-        <v>209</v>
-      </c>
-      <c r="M40" t="s">
-        <v>191</v>
-      </c>
-      <c r="N40" t="s">
-        <v>199</v>
-      </c>
-      <c r="O40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>206</v>
-      </c>
-      <c r="L41" t="s">
-        <v>209</v>
-      </c>
-      <c r="M41" t="s">
-        <v>193</v>
-      </c>
-      <c r="N41" t="s">
-        <v>194</v>
-      </c>
-      <c r="O41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF58540B94450B45B7164CDCEF97F187" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d8dbd669b9ca3a74eb8709c213c647d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cc093d9-4f30-445e-9010-d0117c74656d" xmlns:ns3="ff1451eb-1820-42ab-a257-e0e71c4d4e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da50ea4e48985e64f93d7c2a3a9e6ff7" ns2:_="" ns3:_="">
     <xsd:import namespace="6cc093d9-4f30-445e-9010-d0117c74656d"/>
@@ -9248,32 +9320,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6cc093d9-4f30-445e-9010-d0117c74656d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB53F716-BD83-4083-9021-A1BA86EE45D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6D9C8C-AED0-4DD1-A485-921CF3EA82DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9290,4 +9352,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB53F716-BD83-4083-9021-A1BA86EE45D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6cc093d9-4f30-445e-9010-d0117c74656d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ford_Griffith\A_rabiei_genotyping\A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/i_bar_griffith_edu_au/Documents/Research/A_rabiei/Sophie_A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{25A96603-2CF4-4541-A4EE-BBBA829B6F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E453E0E2-A4C1-422F-8FE4-5E27F853EFC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52845" yWindow="9900" windowWidth="21600" windowHeight="11145" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>soeadmin:</t>
         </r>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This was contaminated with bacterial DNA and was not included in the WGS analysis</t>
@@ -749,14 +749,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1212,97 +1212,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{1570D574-0313-47FF-B72D-FD18F6F46147}"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1696,6 +1606,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2384,41 +2324,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
-  <sortState ref="A2:L41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="33"/>
     <tableColumn id="12" xr3:uid="{9F84C422-8790-42EE-8A7B-89FD537EF716}" name="Sequenced"/>
-    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
-  <sortState ref="A10:D64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D64">
     <sortCondition ref="C1:C64"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2426,7 +2366,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21EE8601-D93F-4E1D-89BA-AD90D26868FA}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
-  <sortState ref="A2:O41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition descending="1" ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
@@ -2453,23 +2393,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:K33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2802,22 +2742,22 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.1328125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +2795,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="s">
         <v>47</v>
       </c>
@@ -2893,7 +2833,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="48" t="s">
         <v>22</v>
       </c>
@@ -2931,7 +2871,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +2909,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +2947,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="49" t="s">
         <v>92</v>
       </c>
@@ -3043,7 +2983,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="48" t="s">
         <v>89</v>
       </c>
@@ -3079,7 +3019,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="49" t="s">
         <v>91</v>
       </c>
@@ -3115,7 +3055,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="49" t="s">
         <v>85</v>
       </c>
@@ -3151,7 +3091,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="49" t="s">
         <v>84</v>
       </c>
@@ -3187,7 +3127,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="49" t="s">
         <v>72</v>
       </c>
@@ -3225,7 +3165,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="49" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3203,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="48" t="s">
         <v>24</v>
       </c>
@@ -3301,7 +3241,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="49" t="s">
         <v>25</v>
       </c>
@@ -3339,7 +3279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="48" t="s">
         <v>38</v>
       </c>
@@ -3377,7 +3317,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="49" t="s">
         <v>78</v>
       </c>
@@ -3415,7 +3355,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="48" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3393,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="49" t="s">
         <v>97</v>
       </c>
@@ -3489,7 +3429,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="48" t="s">
         <v>77</v>
       </c>
@@ -3525,7 +3465,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="49" t="s">
         <v>75</v>
       </c>
@@ -3563,7 +3503,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="48" t="s">
         <v>76</v>
       </c>
@@ -3601,7 +3541,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="49" t="s">
         <v>95</v>
       </c>
@@ -3637,7 +3577,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="49" t="s">
         <v>98</v>
       </c>
@@ -3673,7 +3613,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="49" t="s">
         <v>93</v>
       </c>
@@ -3709,7 +3649,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="48" t="s">
         <v>113</v>
       </c>
@@ -3745,7 +3685,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="48" t="s">
         <v>71</v>
       </c>
@@ -3783,7 +3723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="49" t="s">
         <v>74</v>
       </c>
@@ -3821,7 +3761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="48" t="s">
         <v>101</v>
       </c>
@@ -3859,7 +3799,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="48" t="s">
         <v>99</v>
       </c>
@@ -3897,7 +3837,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="48" t="s">
         <v>29</v>
       </c>
@@ -3935,7 +3875,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="48" t="s">
         <v>32</v>
       </c>
@@ -3973,7 +3913,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="49" t="s">
         <v>41</v>
       </c>
@@ -4011,7 +3951,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="49" t="s">
         <v>143</v>
       </c>
@@ -4047,7 +3987,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="48" t="s">
         <v>104</v>
       </c>
@@ -4085,7 +4025,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="49" t="s">
         <v>105</v>
       </c>
@@ -4123,7 +4063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="49" t="s">
         <v>34</v>
       </c>
@@ -4161,7 +4101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="49" t="s">
         <v>35</v>
       </c>
@@ -4199,7 +4139,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="48" t="s">
         <v>109</v>
       </c>
@@ -4235,7 +4175,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="48" t="s">
         <v>114</v>
       </c>
@@ -4271,7 +4211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="49" t="s">
         <v>142</v>
       </c>
@@ -4307,7 +4247,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>107</v>
       </c>
@@ -4624,15 +4564,15 @@
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.86328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
         <v>117</v>
       </c>
@@ -4646,7 +4586,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="52" t="s">
         <v>32</v>
       </c>
@@ -4658,7 +4598,7 @@
       </c>
       <c r="D2" s="52"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
         <v>74</v>
       </c>
@@ -4670,7 +4610,7 @@
       </c>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="52" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4622,7 @@
       </c>
       <c r="D4" s="52"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="50" t="s">
         <v>118</v>
       </c>
@@ -4696,7 +4636,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="52" t="s">
         <v>17</v>
       </c>
@@ -4710,7 +4650,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="50" t="s">
         <v>123</v>
       </c>
@@ -4722,7 +4662,7 @@
       </c>
       <c r="D7" s="50"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="52" t="s">
         <v>27</v>
       </c>
@@ -4734,7 +4674,7 @@
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="50" t="s">
         <v>124</v>
       </c>
@@ -4748,7 +4688,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="52" t="s">
         <v>186</v>
       </c>
@@ -4760,7 +4700,7 @@
       </c>
       <c r="D10" s="52"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="50" t="s">
         <v>75</v>
       </c>
@@ -4772,7 +4712,7 @@
       </c>
       <c r="D11" s="50"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
         <v>125</v>
       </c>
@@ -4786,7 +4726,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="50" t="s">
         <v>174</v>
       </c>
@@ -4798,7 +4738,7 @@
       </c>
       <c r="D13" s="50"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="52" t="s">
         <v>175</v>
       </c>
@@ -4812,7 +4752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="50" t="s">
         <v>76</v>
       </c>
@@ -4824,7 +4764,7 @@
       </c>
       <c r="D15" s="50"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="52" t="s">
         <v>126</v>
       </c>
@@ -4836,7 +4776,7 @@
       </c>
       <c r="D16" s="52"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="50" t="s">
         <v>176</v>
       </c>
@@ -4848,7 +4788,7 @@
       </c>
       <c r="D17" s="50"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="52" t="s">
         <v>127</v>
       </c>
@@ -4860,7 +4800,7 @@
       </c>
       <c r="D18" s="52"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="50" t="s">
         <v>177</v>
       </c>
@@ -4872,7 +4812,7 @@
       </c>
       <c r="D19" s="50"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="52" t="s">
         <v>128</v>
       </c>
@@ -4886,7 +4826,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="50" t="s">
         <v>178</v>
       </c>
@@ -4900,7 +4840,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="52" t="s">
         <v>179</v>
       </c>
@@ -4914,7 +4854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="50" t="s">
         <v>129</v>
       </c>
@@ -4926,7 +4866,7 @@
       </c>
       <c r="D23" s="50"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="52" t="s">
         <v>180</v>
       </c>
@@ -4938,7 +4878,7 @@
       </c>
       <c r="D24" s="52"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="50" t="s">
         <v>130</v>
       </c>
@@ -4950,7 +4890,7 @@
       </c>
       <c r="D25" s="50"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="52" t="s">
         <v>181</v>
       </c>
@@ -4962,7 +4902,7 @@
       </c>
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="50" t="s">
         <v>77</v>
       </c>
@@ -4974,7 +4914,7 @@
       </c>
       <c r="D27" s="50"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="52" t="s">
         <v>182</v>
       </c>
@@ -4986,7 +4926,7 @@
       </c>
       <c r="D28" s="52"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="50" t="s">
         <v>131</v>
       </c>
@@ -4998,7 +4938,7 @@
       </c>
       <c r="D29" s="50"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="52" t="s">
         <v>183</v>
       </c>
@@ -5010,7 +4950,7 @@
       </c>
       <c r="D30" s="52"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="50" t="s">
         <v>132</v>
       </c>
@@ -5022,7 +4962,7 @@
       </c>
       <c r="D31" s="50"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="52" t="s">
         <v>161</v>
       </c>
@@ -5034,7 +4974,7 @@
       </c>
       <c r="D32" s="52"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="50" t="s">
         <v>133</v>
       </c>
@@ -5046,7 +4986,7 @@
       </c>
       <c r="D33" s="50"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="52" t="s">
         <v>162</v>
       </c>
@@ -5058,7 +4998,7 @@
       </c>
       <c r="D34" s="52"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="50" t="s">
         <v>163</v>
       </c>
@@ -5070,7 +5010,7 @@
       </c>
       <c r="D35" s="50"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="52" t="s">
         <v>164</v>
       </c>
@@ -5084,7 +5024,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="50" t="s">
         <v>47</v>
       </c>
@@ -5096,7 +5036,7 @@
       </c>
       <c r="D37" s="50"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="52" t="s">
         <v>72</v>
       </c>
@@ -5108,7 +5048,7 @@
       </c>
       <c r="D38" s="52"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="50" t="s">
         <v>71</v>
       </c>
@@ -5120,7 +5060,7 @@
       </c>
       <c r="D39" s="50"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="52" t="s">
         <v>122</v>
       </c>
@@ -5134,7 +5074,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="50" t="s">
         <v>121</v>
       </c>
@@ -5146,7 +5086,7 @@
       </c>
       <c r="D41" s="50"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="52" t="s">
         <v>119</v>
       </c>
@@ -5158,7 +5098,7 @@
       </c>
       <c r="D42" s="52"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="50" t="s">
         <v>120</v>
       </c>
@@ -5170,7 +5110,7 @@
       </c>
       <c r="D43" s="50"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="52" t="s">
         <v>78</v>
       </c>
@@ -5182,7 +5122,7 @@
       </c>
       <c r="D44" s="52"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
@@ -5194,7 +5134,7 @@
       </c>
       <c r="D45" s="50"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="52" t="s">
         <v>34</v>
       </c>
@@ -5206,7 +5146,7 @@
       </c>
       <c r="D46" s="52"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="50" t="s">
         <v>22</v>
       </c>
@@ -5218,7 +5158,7 @@
       </c>
       <c r="D47" s="50"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="52" t="s">
         <v>134</v>
       </c>
@@ -5232,7 +5172,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="50" t="s">
         <v>165</v>
       </c>
@@ -5246,7 +5186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="52" t="s">
         <v>166</v>
       </c>
@@ -5258,7 +5198,7 @@
       </c>
       <c r="D50" s="52"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="50" t="s">
         <v>135</v>
       </c>
@@ -5272,7 +5212,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="52" t="s">
         <v>167</v>
       </c>
@@ -5286,7 +5226,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="50" t="s">
         <v>136</v>
       </c>
@@ -5298,7 +5238,7 @@
       </c>
       <c r="D53" s="50"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="52" t="s">
         <v>168</v>
       </c>
@@ -5310,7 +5250,7 @@
       </c>
       <c r="D54" s="52"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="50" t="s">
         <v>137</v>
       </c>
@@ -5324,7 +5264,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="52" t="s">
         <v>169</v>
       </c>
@@ -5338,7 +5278,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="50" t="s">
         <v>138</v>
       </c>
@@ -5350,7 +5290,7 @@
       </c>
       <c r="D57" s="50"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="52" t="s">
         <v>170</v>
       </c>
@@ -5362,7 +5302,7 @@
       </c>
       <c r="D58" s="52"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="50" t="s">
         <v>139</v>
       </c>
@@ -5376,7 +5316,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="52" t="s">
         <v>171</v>
       </c>
@@ -5390,7 +5330,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="50" t="s">
         <v>140</v>
       </c>
@@ -5404,7 +5344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="52" t="s">
         <v>172</v>
       </c>
@@ -5418,7 +5358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="50" t="s">
         <v>141</v>
       </c>
@@ -5432,7 +5372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="52" t="s">
         <v>173</v>
       </c>
@@ -5462,9 +5402,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>117</v>
       </c>
@@ -5505,7 +5445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="34">
         <v>8</v>
       </c>
@@ -5528,7 +5468,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="33">
         <v>13</v>
       </c>
@@ -5594,22 +5534,22 @@
       <selection sqref="A1:O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" customWidth="1"/>
+    <col min="11" max="11" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" customWidth="1"/>
+    <col min="14" max="15" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5656,7 +5596,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5703,7 +5643,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5750,7 +5690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5797,7 +5737,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -5844,7 +5784,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -5891,7 +5831,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -5938,7 +5878,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -5985,7 +5925,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6032,7 +5972,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6079,7 +6019,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6126,7 +6066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6173,7 +6113,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6220,7 +6160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6267,7 +6207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -6314,7 +6254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6361,7 +6301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -6408,7 +6348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -6455,7 +6395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6502,7 +6442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6549,7 +6489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -6596,7 +6536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -6643,7 +6583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -6690,7 +6630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -6737,7 +6677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -6784,7 +6724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6831,7 +6771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -6878,7 +6818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -6925,7 +6865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -6972,7 +6912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -7019,7 +6959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7066,7 +7006,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -7113,7 +7053,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -7160,7 +7100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -7207,7 +7147,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7254,7 +7194,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -7301,7 +7241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7348,7 +7288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -7395,7 +7335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -7442,7 +7382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -7489,7 +7429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -7538,13 +7478,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:I41">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Moderate">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Moderate">
       <formula>NOT(ISERROR(SEARCH("Moderate",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7575,13 +7515,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="65" collapsed="1"/>
+    <col min="2" max="16384" width="9.1328125" style="65" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="65" t="s">
         <v>202</v>
       </c>
@@ -7598,7 +7538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="65" t="s">
         <v>2</v>
       </c>
@@ -7615,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="65" t="s">
         <v>3</v>
       </c>
@@ -7632,7 +7572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
@@ -7649,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="65" t="s">
         <v>209</v>
       </c>
@@ -7679,23 +7619,23 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.140625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" style="24" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.42578125" style="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.265625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.3984375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.1328125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.86328125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.59765625" style="24" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.265625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.3984375" style="24" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="8" style="24" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="24" collapsed="1"/>
+    <col min="10" max="10" width="11.265625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.73046875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.1328125" style="24" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7730,7 +7670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
@@ -7765,7 +7705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
@@ -7796,7 +7736,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -7831,7 +7771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
@@ -7866,7 +7806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>41</v>
       </c>
@@ -7901,7 +7841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -7936,7 +7876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -7971,7 +7911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
@@ -8006,7 +7946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
@@ -8039,7 +7979,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>75</v>
       </c>
@@ -8074,7 +8014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
         <v>76</v>
       </c>
@@ -8109,7 +8049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>77</v>
       </c>
@@ -8142,7 +8082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
@@ -8175,7 +8115,7 @@
       </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
@@ -8210,7 +8150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>72</v>
       </c>
@@ -8245,7 +8185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>71</v>
       </c>
@@ -8280,7 +8220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
@@ -8311,7 +8251,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
@@ -8342,7 +8282,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
@@ -8377,7 +8317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>60</v>
       </c>
@@ -8408,7 +8348,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
@@ -8443,7 +8383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>19</v>
       </c>
@@ -8476,7 +8416,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
@@ -8511,7 +8451,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
@@ -8546,7 +8486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
@@ -8581,7 +8521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
         <v>78</v>
       </c>
@@ -8616,7 +8556,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="12" t="s">
         <v>29</v>
       </c>
@@ -8651,7 +8591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
         <v>34</v>
       </c>
@@ -8686,7 +8626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
@@ -8719,7 +8659,7 @@
       </c>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="12" t="s">
         <v>22</v>
       </c>
@@ -8754,7 +8694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="12" t="s">
         <v>33</v>
       </c>
@@ -8787,7 +8727,7 @@
       </c>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
@@ -8819,7 +8759,7 @@
       <c r="K33" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="M2:M10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M10">
     <sortCondition ref="M2"/>
   </sortState>
   <conditionalFormatting sqref="I2:I3 I24:I33 I12:I22 I5:I10">
@@ -8887,14 +8827,14 @@
       <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8905,7 +8845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -8916,7 +8856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -8927,7 +8867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -8938,12 +8878,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -8954,7 +8894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8965,7 +8905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -8976,12 +8916,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8992,7 +8932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -9003,7 +8943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -9014,7 +8954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -9025,12 +8965,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -9041,7 +8981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -9052,7 +8992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -9063,7 +9003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -9074,12 +9014,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -9090,7 +9030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -9101,7 +9041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -9112,12 +9052,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -9128,7 +9068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -9139,7 +9079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -9156,20 +9096,44 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF58540B94450B45B7164CDCEF97F187" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d8dbd669b9ca3a74eb8709c213c647d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cc093d9-4f30-445e-9010-d0117c74656d" xmlns:ns3="ff1451eb-1820-42ab-a257-e0e71c4d4e64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da50ea4e48985e64f93d7c2a3a9e6ff7" ns2:_="" ns3:_="">
-    <xsd:import namespace="6cc093d9-4f30-445e-9010-d0117c74656d"/>
-    <xsd:import namespace="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038EC5152544FA941B2FCF6FC911C1211" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0a7b694108ffeb4d5e14fa8f2f5e4a2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f38ef60c-44b8-4b3e-b84e-3f774f47ec01" xmlns:ns4="77420ce7-ad61-40a5-b28d-42d2f2a680a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cc2d357fdf517c32b7ae6696f0078b7" ns3:_="" ns4:_="">
+    <xsd:import namespace="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
+    <xsd:import namespace="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9177,10 +9141,68 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6cc093d9-4f30-445e-9010-d0117c74656d" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f38ef60c-44b8-4b3e-b84e-3f774f47ec01" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77420ce7-ad61-40a5-b28d-42d2f2a680a0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -9199,25 +9221,16 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ff1451eb-1820-42ab-a257-e0e71c4d4e64" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9320,36 +9333,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6D9C8C-AED0-4DD1-A485-921CF3EA82DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6cc093d9-4f30-445e-9010-d0117c74656d"/>
-    <ds:schemaRef ds:uri="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9363,18 +9359,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E51EC21-F22B-490E-8776-BB08FE496BF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6cc093d9-4f30-445e-9010-d0117c74656d"/>
+    <ds:schemaRef ds:uri="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
+    <ds:schemaRef ds:uri="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ff1451eb-1820-42ab-a257-e0e71c4d4e64"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/i_bar_griffith_edu_au/Documents/Research/A_rabiei/Sophie_A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E453E0E2-A4C1-422F-8FE4-5E27F853EFC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{81A9BED5-B4FC-4B70-BACC-F3DD7F67022C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52845" yWindow="9900" windowWidth="21600" windowHeight="11145" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
@@ -2366,10 +2366,9 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21EE8601-D93F-4E1D-89BA-AD90D26868FA}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
+  <autoFilter ref="A1:O41" xr:uid="{A72BE80D-98B9-4748-8A02-BE5E4D36E5E1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O41">
-    <sortCondition descending="1" ref="J2:J41"/>
-    <sortCondition descending="1" ref="D2:D41"/>
-    <sortCondition ref="C2:C41"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{65335CB5-4BCE-4F9D-BEE4-CFCDBFFC4F13}" name="Isolate"/>
@@ -5530,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:O41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5598,25 +5597,25 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -5625,45 +5624,45 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>206</v>
       </c>
       <c r="L2" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -5672,42 +5671,42 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>206</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -5719,45 +5718,45 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L4" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -5766,54 +5765,54 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>206</v>
@@ -5822,65 +5821,65 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O6" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
         <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -5895,10 +5894,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -5907,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>206</v>
@@ -5916,18 +5915,18 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -5936,7 +5935,7 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -5945,7 +5944,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
@@ -5954,7 +5953,7 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
         <v>207</v>
@@ -5966,10 +5965,10 @@
         <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O9" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
@@ -6021,19 +6020,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -6051,16 +6050,16 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O11" t="s">
         <v>204</v>
@@ -6068,16 +6067,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -6086,7 +6085,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -6095,45 +6094,45 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O12" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
@@ -6142,45 +6141,45 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>206</v>
       </c>
       <c r="L13" t="s">
-        <v>209</v>
+        <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O13" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
@@ -6189,7 +6188,7 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>206</v>
@@ -6204,21 +6203,21 @@
         <v>194</v>
       </c>
       <c r="O14" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -6245,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s">
         <v>194</v>
@@ -6256,10 +6255,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -6292,10 +6291,10 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s">
         <v>10</v>
@@ -6303,13 +6302,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -6333,16 +6332,16 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
         <v>10</v>
@@ -6350,34 +6349,34 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>206</v>
@@ -6386,27 +6385,27 @@
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -6415,16 +6414,16 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="s">
         <v>206</v>
@@ -6439,39 +6438,39 @@
         <v>201</v>
       </c>
       <c r="O19" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>206</v>
@@ -6486,30 +6485,30 @@
         <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E21" t="s">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -6518,7 +6517,7 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="s">
         <v>206</v>
@@ -6533,21 +6532,21 @@
         <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -6556,7 +6555,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -6565,36 +6564,36 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -6632,22 +6631,22 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -6659,36 +6658,36 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
         <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s">
         <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -6715,10 +6714,10 @@
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
         <v>10</v>
@@ -6726,22 +6725,22 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -6753,42 +6752,42 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" t="s">
         <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
         <v>9</v>
@@ -6800,7 +6799,7 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
         <v>206</v>
@@ -6809,24 +6808,24 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>2015</v>
@@ -6835,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
         <v>9</v>
@@ -6847,7 +6846,7 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="s">
         <v>206</v>
@@ -6862,27 +6861,27 @@
         <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -6894,7 +6893,7 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="s">
         <v>206</v>
@@ -6909,21 +6908,21 @@
         <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E30" t="s">
         <v>102</v>
@@ -6944,16 +6943,16 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s">
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O30" t="s">
         <v>203</v>
@@ -6961,19 +6960,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -6982,51 +6981,51 @@
         <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>206</v>
       </c>
       <c r="L31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s">
         <v>194</v>
       </c>
       <c r="O31" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
@@ -7035,45 +7034,45 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N32" t="s">
         <v>194</v>
       </c>
       <c r="O32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H33" t="s">
         <v>10</v>
@@ -7082,36 +7081,36 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O33" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E34" t="s">
         <v>102</v>
@@ -7132,16 +7131,16 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
       </c>
       <c r="M34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O34" t="s">
         <v>203</v>
@@ -7149,25 +7148,25 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="D35">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
         <v>10</v>
@@ -7176,22 +7175,22 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35" t="s">
         <v>206</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O35" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -7243,7 +7242,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>94</v>
@@ -7258,19 +7257,19 @@
         <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37" t="s">
         <v>206</v>
@@ -7285,24 +7284,24 @@
         <v>201</v>
       </c>
       <c r="O37" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -7323,7 +7322,7 @@
         <v>206</v>
       </c>
       <c r="L38" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="M38" t="s">
         <v>201</v>
@@ -7337,143 +7336,143 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39" t="s">
         <v>206</v>
       </c>
       <c r="L39" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K40" t="s">
         <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N40" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="O40" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41" t="s">
         <v>206</v>
       </c>
       <c r="L41" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N41" t="s">
         <v>194</v>
       </c>
       <c r="O41" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -9096,21 +9095,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038EC5152544FA941B2FCF6FC911C1211" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0a7b694108ffeb4d5e14fa8f2f5e4a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f38ef60c-44b8-4b3e-b84e-3f774f47ec01" xmlns:ns4="77420ce7-ad61-40a5-b28d-42d2f2a680a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cc2d357fdf517c32b7ae6696f0078b7" ns3:_="" ns4:_="">
     <xsd:import namespace="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
@@ -9333,32 +9317,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB53F716-BD83-4083-9021-A1BA86EE45D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E51EC21-F22B-490E-8776-BB08FE496BF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9375,4 +9349,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB53F716-BD83-4083-9021-A1BA86EE45D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB5AB63-4FEC-4580-8B0C-E2F5F38CD9AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Isolate</t>
   </si>
@@ -973,6 +973,27 @@
   </si>
   <si>
     <t xml:space="preserve">Elmore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patho.Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group0</t>
   </si>
 </sst>
 </file>
@@ -995,12 +1016,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1036,24 +1057,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1084,8 +1087,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEE5F4C"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1141,6 +1162,17 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+    </border>
+    <border>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1169,17 +1201,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
     </border>
     <border>
       <left style="thin">
@@ -1251,55 +1272,36 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,61 +1310,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1374,33 +1395,33 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2631,10 +2652,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:K41" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K41"/>
-  <tableColumns count="11">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:L41" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:L41"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Isolate"/>
     <tableColumn id="2" name="Site"/>
     <tableColumn id="3" name="State"/>
@@ -2646,6 +2667,7 @@
     <tableColumn id="9" name="MAT_Type"/>
     <tableColumn id="10" name="Haplotype"/>
     <tableColumn id="11" name="Pathotype"/>
+    <tableColumn id="12" name="Patho.Group"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2995,1099 +3017,1099 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="21" t="n">
+      <c r="G2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="21" t="n">
+      <c r="G3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="21" t="n">
+      <c r="G4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="21" t="n">
+      <c r="G5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="9" t="n">
         <v>2016</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="21" t="n">
+      <c r="G6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="12" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="21" t="n">
+      <c r="F7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="21" t="n">
+      <c r="F8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="21" t="n">
+      <c r="F9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="21" t="n">
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="9" t="n">
         <v>2013</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="H11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="17" t="s">
+      <c r="H12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="H13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" s="17" t="s">
+      <c r="H14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17" t="s">
+      <c r="J16" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" s="12" t="s">
+      <c r="H17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="17" t="n">
+      <c r="D18" s="9" t="n">
         <v>2016</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="12" t="s">
+      <c r="H18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12" t="s">
+      <c r="H19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="9" t="n">
         <v>2016</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" s="17" t="s">
+      <c r="H20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" s="12" t="s">
+      <c r="H21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="17" t="n">
+      <c r="D22" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="12" t="s">
+      <c r="I22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="17" t="n">
+      <c r="D23" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="12" t="s">
+      <c r="H23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="17" t="n">
+      <c r="D24" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="25" t="s">
+      <c r="G24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="12" t="s">
+      <c r="I24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12" t="s">
+      <c r="H25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2" t="n">
+      <c r="H26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="17" t="n">
+      <c r="D27" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="16" t="n">
+      <c r="H27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="11" t="n">
+      <c r="H28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="15" t="n">
+      <c r="H29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4096,36 +4118,36 @@
       <c r="G30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="2" t="n">
+      <c r="H30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4134,186 +4156,186 @@
       <c r="G31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2" t="n">
+      <c r="H31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="17" t="n">
+      <c r="D32" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2" t="n">
+      <c r="H32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17" t="n">
+      <c r="D33" s="9" t="n">
         <v>2016</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="10" t="n">
+      <c r="H33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="12" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="12" t="n">
+      <c r="D34" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="13" t="n">
+      <c r="H34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="17" t="n">
+      <c r="D35" s="9" t="n">
         <v>2016</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="23" t="s">
+      <c r="E35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="13" t="n">
+      <c r="H35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="17" t="n">
+      <c r="D36" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="9" t="s">
         <v>102</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4328,30 +4350,30 @@
       <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="17" t="n">
+      <c r="D37" s="9" t="n">
         <v>2015</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4366,66 +4388,66 @@
       <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="7" t="n">
+      <c r="J37" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="12" t="n">
+      <c r="D38" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="10" t="n">
+      <c r="J38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12" t="s">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="12" t="n">
+      <c r="D39" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4440,83 +4462,83 @@
       <c r="I39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="22" t="n">
+      <c r="J39" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="17" t="n">
+      <c r="D40" s="9" t="n">
         <v>2017</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="23" t="s">
+      <c r="I40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="14" t="n">
+      <c r="J40" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="12" t="s">
+      <c r="K40" s="9"/>
+      <c r="L40" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="12" t="n">
+      <c r="D41" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="10" t="n">
+      <c r="J41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12" t="s">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4802,7 +4824,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -5688,10 +5710,10 @@
         <v>2017</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="39"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36" t="s">
@@ -5717,10 +5739,10 @@
       <c r="F3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="39"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35" t="s">
@@ -7903,16 +7925,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7927,27 +7949,27 @@
       <c r="H2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="21" t="n">
+      <c r="I2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7965,26 +7987,26 @@
       <c r="I3" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="55" t="s">
@@ -7996,27 +8018,27 @@
       <c r="I4" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="45" t="s">
@@ -8028,33 +8050,33 @@
       <c r="H5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="21" t="n">
+      <c r="I5" s="14" t="n">
         <v>4</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="55" t="s">
@@ -8063,30 +8085,30 @@
       <c r="H6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="21" t="n">
+      <c r="I6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="45" t="s">
@@ -8098,27 +8120,27 @@
       <c r="H7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="21" t="n">
+      <c r="I7" s="14" t="n">
         <v>4</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -8133,33 +8155,33 @@
       <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="22" t="n">
+      <c r="I8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="45" t="s">
@@ -8168,30 +8190,30 @@
       <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="45" t="s">
@@ -8206,28 +8228,28 @@
       <c r="I10" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -8236,33 +8258,33 @@
       <c r="H11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="I11" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="45" t="s">
@@ -8271,33 +8293,33 @@
       <c r="H12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="45" t="s">
@@ -8310,24 +8332,24 @@
         <v>3</v>
       </c>
       <c r="J13" s="56"/>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="45" t="s">
@@ -8342,25 +8364,25 @@
       <c r="I14" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="45" t="s">
@@ -8372,33 +8394,33 @@
       <c r="H15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="21" t="n">
+      <c r="I15" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="45" t="s">
@@ -8407,33 +8429,33 @@
       <c r="H16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="I16" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="45" t="s">
@@ -8442,27 +8464,27 @@
       <c r="H17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="21" t="n">
+      <c r="I17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="47" t="s">
@@ -8480,20 +8502,20 @@
       <c r="I18" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="47" t="s">
@@ -8511,20 +8533,20 @@
       <c r="I19" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -8539,27 +8561,27 @@
       <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="23" t="n">
+      <c r="I20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="47" t="s">
@@ -8577,26 +8599,26 @@
       <c r="I21" s="60" t="n">
         <v>1</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="45" t="s">
@@ -8605,30 +8627,30 @@
       <c r="H22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="45" t="s">
@@ -8643,28 +8665,28 @@
       <c r="I23" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="17"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="18" t="s">
+      <c r="D24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="45" t="s">
@@ -8673,33 +8695,33 @@
       <c r="H24" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="I24" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="18" t="s">
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="45" t="s">
@@ -8708,33 +8730,33 @@
       <c r="H25" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="21" t="n">
+      <c r="I25" s="14" t="n">
         <v>3</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="55" t="s">
@@ -8743,33 +8765,33 @@
       <c r="H26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" s="17" t="s">
+      <c r="I26" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="20" t="s">
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="55" t="s">
@@ -8778,27 +8800,27 @@
       <c r="H27" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -8813,27 +8835,27 @@
       <c r="H28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="21" t="n">
+      <c r="I28" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -8848,27 +8870,27 @@
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="22" t="n">
+      <c r="I29" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="48" t="s">
@@ -8892,19 +8914,19 @@
       <c r="K30" s="54"/>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="51" t="s">
@@ -8927,16 +8949,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="49" t="s">
@@ -8960,16 +8982,16 @@
       <c r="K32" s="54"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="50" t="s">
@@ -10819,6 +10841,9 @@
       <c r="K1" t="s">
         <v>221</v>
       </c>
+      <c r="L1" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -10854,6 +10879,9 @@
       <c r="K2" t="s">
         <v>230</v>
       </c>
+      <c r="L2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -10889,6 +10917,9 @@
       <c r="K3" t="s">
         <v>230</v>
       </c>
+      <c r="L3" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -10924,6 +10955,9 @@
       <c r="K4" t="s">
         <v>230</v>
       </c>
+      <c r="L4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -10959,6 +10993,9 @@
       <c r="K5" t="s">
         <v>230</v>
       </c>
+      <c r="L5" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -10994,6 +11031,9 @@
       <c r="K6" t="s">
         <v>230</v>
       </c>
+      <c r="L6" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -11029,6 +11069,9 @@
       <c r="K7" t="s">
         <v>250</v>
       </c>
+      <c r="L7" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -11064,6 +11107,9 @@
       <c r="K8" t="s">
         <v>250</v>
       </c>
+      <c r="L8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -11099,6 +11145,9 @@
       <c r="K9" t="s">
         <v>250</v>
       </c>
+      <c r="L9" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -11134,6 +11183,9 @@
       <c r="K10" t="s">
         <v>250</v>
       </c>
+      <c r="L10" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -11169,6 +11221,9 @@
       <c r="K11" t="s">
         <v>226</v>
       </c>
+      <c r="L11" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -11204,6 +11259,9 @@
       <c r="K12" t="s">
         <v>226</v>
       </c>
+      <c r="L12" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -11239,6 +11297,9 @@
       <c r="K13" t="s">
         <v>226</v>
       </c>
+      <c r="L13" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -11274,6 +11335,9 @@
       <c r="K14" t="s">
         <v>226</v>
       </c>
+      <c r="L14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -11309,6 +11373,9 @@
       <c r="K15" t="s">
         <v>226</v>
       </c>
+      <c r="L15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -11344,6 +11411,9 @@
       <c r="K16" t="s">
         <v>226</v>
       </c>
+      <c r="L16" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -11379,6 +11449,9 @@
       <c r="K17" t="s">
         <v>226</v>
       </c>
+      <c r="L17" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -11414,6 +11487,9 @@
       <c r="K18" t="s">
         <v>226</v>
       </c>
+      <c r="L18" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -11449,6 +11525,9 @@
       <c r="K19" t="s">
         <v>226</v>
       </c>
+      <c r="L19" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -11484,6 +11563,9 @@
       <c r="K20" t="s">
         <v>226</v>
       </c>
+      <c r="L20" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -11519,6 +11601,9 @@
       <c r="K21" t="s">
         <v>226</v>
       </c>
+      <c r="L21" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -11554,6 +11639,9 @@
       <c r="K22" t="s">
         <v>230</v>
       </c>
+      <c r="L22" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -11589,6 +11677,9 @@
       <c r="K23" t="s">
         <v>226</v>
       </c>
+      <c r="L23" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -11624,6 +11715,9 @@
       <c r="K24" t="s">
         <v>230</v>
       </c>
+      <c r="L24" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -11659,6 +11753,9 @@
       <c r="K25" t="s">
         <v>226</v>
       </c>
+      <c r="L25" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -11694,6 +11791,9 @@
       <c r="K26" t="s">
         <v>281</v>
       </c>
+      <c r="L26" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -11729,6 +11829,9 @@
       <c r="K27" t="s">
         <v>281</v>
       </c>
+      <c r="L27" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -11764,6 +11867,9 @@
       <c r="K28" t="s">
         <v>281</v>
       </c>
+      <c r="L28" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -11799,6 +11905,9 @@
       <c r="K29" t="s">
         <v>281</v>
       </c>
+      <c r="L29" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -11834,6 +11943,9 @@
       <c r="K30" t="s">
         <v>288</v>
       </c>
+      <c r="L30" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -11869,6 +11981,9 @@
       <c r="K31" t="s">
         <v>288</v>
       </c>
+      <c r="L31" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -11904,6 +12019,9 @@
       <c r="K32" t="s">
         <v>288</v>
       </c>
+      <c r="L32" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -11939,6 +12057,9 @@
       <c r="K33" t="s">
         <v>288</v>
       </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -11974,6 +12095,9 @@
       <c r="K34" t="s">
         <v>288</v>
       </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -12009,6 +12133,9 @@
       <c r="K35" t="s">
         <v>288</v>
       </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -12044,6 +12171,9 @@
       <c r="K36" t="s">
         <v>297</v>
       </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -12079,6 +12209,9 @@
       <c r="K37" t="s">
         <v>297</v>
       </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -12114,6 +12247,9 @@
       <c r="K38" t="s">
         <v>297</v>
       </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -12149,6 +12285,9 @@
       <c r="K39" t="s">
         <v>297</v>
       </c>
+      <c r="L39" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -12184,6 +12323,9 @@
       <c r="K40" t="s">
         <v>297</v>
       </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -12218,13 +12360,16 @@
       </c>
       <c r="K41" t="s">
         <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ido Bar\OneDrive - Griffith University\Research\A_rabiei\Sophie_A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B966DC0-5273-400F-ADEE-2C07B0093703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sequenced" sheetId="3" state="visible" r:id="rId1"/>
-    <sheet name="submission_info" sheetId="5" state="visible" r:id="rId2"/>
-    <sheet name="missing_info" sheetId="4" state="visible" r:id="rId3"/>
-    <sheet name="sample_haplotype_details" sheetId="8" state="visible" r:id="rId4"/>
-    <sheet name="Path_score" sheetId="7" state="visible" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId7"/>
-    <sheet name="test" sheetId="9" state="visible" r:id="rId8"/>
-    <sheet name="sample_details_full" sheetId="10" state="visible" r:id="rId9"/>
+    <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
+    <sheet name="submission_info" sheetId="5" r:id="rId2"/>
+    <sheet name="missing_info" sheetId="4" r:id="rId3"/>
+    <sheet name="sample_haplotype_details" sheetId="8" r:id="rId4"/>
+    <sheet name="Path_score" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="test" sheetId="9" r:id="rId8"/>
+    <sheet name="sample_details_full" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>soeadmin</author>
   </authors>
   <commentList>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +44,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">soeadmin:</t>
+          <t>soeadmin:</t>
         </r>
         <r>
           <rPr>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="313">
   <si>
     <t>Isolate</t>
   </si>
@@ -690,318 +698,317 @@
     <t>Extreme</t>
   </si>
   <si>
-    <t xml:space="preserve">Isolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogenicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequenced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haplotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT13092-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingsford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genesis090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina+PacBio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR6417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yallaroi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HatTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacBio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinchilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17191-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt Broughton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT13092-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moonta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weetula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15DON007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slasher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16083-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16253-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17076-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fox Holes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17CUR007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT13092-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR8102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narromine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR6400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14DON003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR8105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strathdoon, Narromine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16RUP012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupanyup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16RUP013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR6408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15DON001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravel Pit Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17067-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coonalpyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17175-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elmore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patho.Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group0</t>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Pathogenicity</t>
+  </si>
+  <si>
+    <t>Sequenced</t>
+  </si>
+  <si>
+    <t>MAT_Type</t>
+  </si>
+  <si>
+    <t>Haplotype</t>
+  </si>
+  <si>
+    <t>Pathotype</t>
+  </si>
+  <si>
+    <t>FT13092-2</t>
+  </si>
+  <si>
+    <t>Kingsford</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Genesis090</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Illumina+PacBio</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>ARH04</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>TR6417</t>
+  </si>
+  <si>
+    <t>Yallaroi</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>HatTrick</t>
+  </si>
+  <si>
+    <t>ARH01</t>
+  </si>
+  <si>
+    <t>15CUR002</t>
+  </si>
+  <si>
+    <t>Curyo</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>ARH02</t>
+  </si>
+  <si>
+    <t>15CUR005</t>
+  </si>
+  <si>
+    <t>PacBio</t>
+  </si>
+  <si>
+    <t>ARH20</t>
+  </si>
+  <si>
+    <t>16CUR018</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TR9571</t>
+  </si>
+  <si>
+    <t>Gurley</t>
+  </si>
+  <si>
+    <t>Seamer</t>
+  </si>
+  <si>
+    <t>ARH09</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>TR9573</t>
+  </si>
+  <si>
+    <t>MAT1-2</t>
+  </si>
+  <si>
+    <t>TR9529</t>
+  </si>
+  <si>
+    <t>Chinchilla</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>F17191-1</t>
+  </si>
+  <si>
+    <t>Pt Broughton</t>
+  </si>
+  <si>
+    <t>FT13092-4</t>
+  </si>
+  <si>
+    <t>FT15023</t>
+  </si>
+  <si>
+    <t>Moonta</t>
+  </si>
+  <si>
+    <t>FT15025</t>
+  </si>
+  <si>
+    <t>FT15028</t>
+  </si>
+  <si>
+    <t>Weetula</t>
+  </si>
+  <si>
+    <t>FT15029</t>
+  </si>
+  <si>
+    <t>FT15030</t>
+  </si>
+  <si>
+    <t>15DON007</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Slasher</t>
+  </si>
+  <si>
+    <t>F16083-1</t>
+  </si>
+  <si>
+    <t>F16253-1</t>
+  </si>
+  <si>
+    <t>16CUR017</t>
+  </si>
+  <si>
+    <t>16CUR019</t>
+  </si>
+  <si>
+    <t>F17076-2</t>
+  </si>
+  <si>
+    <t>Finley</t>
+  </si>
+  <si>
+    <t>TR9568</t>
+  </si>
+  <si>
+    <t>TR9543</t>
+  </si>
+  <si>
+    <t>Fox Holes</t>
+  </si>
+  <si>
+    <t>17CUR007</t>
+  </si>
+  <si>
+    <t>FT13092-6</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>15CUR001</t>
+  </si>
+  <si>
+    <t>TR8102</t>
+  </si>
+  <si>
+    <t>Narromine</t>
+  </si>
+  <si>
+    <t>16CUR015</t>
+  </si>
+  <si>
+    <t>ARH14</t>
+  </si>
+  <si>
+    <t>TR6400</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>14DON003</t>
+  </si>
+  <si>
+    <t>15CUR003</t>
+  </si>
+  <si>
+    <t>TR8105</t>
+  </si>
+  <si>
+    <t>Strathdoon, Narromine</t>
+  </si>
+  <si>
+    <t>16RUP012</t>
+  </si>
+  <si>
+    <t>Rupanyup</t>
+  </si>
+  <si>
+    <t>16RUP013</t>
+  </si>
+  <si>
+    <t>TR6408</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>15DON001</t>
+  </si>
+  <si>
+    <t>TR9538</t>
+  </si>
+  <si>
+    <t>Gravel Pit Hill</t>
+  </si>
+  <si>
+    <t>TR9544</t>
+  </si>
+  <si>
+    <t>F17067-1</t>
+  </si>
+  <si>
+    <t>Coonalpyn</t>
+  </si>
+  <si>
+    <t>F17175-1</t>
+  </si>
+  <si>
+    <t>Elmore</t>
+  </si>
+  <si>
+    <t>Patho.Group</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Group5</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,10 +1032,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -1036,10 +1043,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1149,17 +1169,20 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1171,14 +1194,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1187,11 +1215,14 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1201,14 +1232,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1217,9 +1252,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1234,11 +1271,16 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1253,14 +1295,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -2529,6 +2575,7 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2540,9 +2587,206 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B0A3CB-148C-4CD8-982C-EF476CADA524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="3533775"/>
+          <a:ext cx="1447800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901A002D-15CF-4991-A222-8DF271985AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="3533775"/>
+          <a:ext cx="1447800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3A5DBA-0402-4A02-B089-455FBBEB445B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="3533775"/>
+          <a:ext cx="1447800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <sortState ref="A2:L41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
@@ -2565,10 +2809,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
-  <sortState ref="A10:D64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D64">
     <sortCondition ref="C1:C64"/>
   </sortState>
   <tableColumns count="4">
@@ -2581,9 +2825,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{21EE8601-D93F-4E1D-89BA-AD90D26868FA}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
-  <sortState ref="A2:O41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition descending="1" ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
@@ -2609,10 +2853,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:K33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
@@ -2632,42 +2876,42 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:K41" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K41"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0">
+  <autoFilter ref="A1:K41" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Isolate"/>
-    <tableColumn id="2" name="Site"/>
-    <tableColumn id="3" name="State"/>
-    <tableColumn id="4" name="Year"/>
-    <tableColumn id="5" name="Host"/>
-    <tableColumn id="6" name="Rating"/>
-    <tableColumn id="7" name="Pathogenicity"/>
-    <tableColumn id="8" name="Sequenced"/>
-    <tableColumn id="9" name="MAT_Type"/>
-    <tableColumn id="10" name="Haplotype"/>
-    <tableColumn id="11" name="Pathotype"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Isolate"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="State"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Host"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rating"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Pathogenicity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Sequenced"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="MAT_Type"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Haplotype"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Pathotype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:L41" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:L41"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table9" displayName="Table9" ref="A1:L41" totalsRowShown="0">
+  <autoFilter ref="A1:L41" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Isolate"/>
-    <tableColumn id="2" name="Site"/>
-    <tableColumn id="3" name="State"/>
-    <tableColumn id="4" name="Year"/>
-    <tableColumn id="5" name="Host"/>
-    <tableColumn id="6" name="Rating"/>
-    <tableColumn id="7" name="Pathogenicity"/>
-    <tableColumn id="8" name="Sequenced"/>
-    <tableColumn id="9" name="MAT_Type"/>
-    <tableColumn id="10" name="Haplotype"/>
-    <tableColumn id="11" name="Pathotype"/>
-    <tableColumn id="12" name="Patho.Group"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Isolate"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="State"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Host"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rating"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Pathogenicity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Sequenced"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="MAT_Type"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Haplotype"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Pathotype"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Patho.Group"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2993,30 +3237,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
@@ -3064,7 +3307,7 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>2013</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3082,7 +3325,7 @@
       <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14" t="n">
+      <c r="J2" s="14">
         <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -3092,7 +3335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
@@ -3102,7 +3345,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>2014</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3120,7 +3363,7 @@
       <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="n">
+      <c r="J3" s="14">
         <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -3130,7 +3373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3383,7 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>2015</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3158,7 +3401,7 @@
       <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="n">
+      <c r="J4" s="14">
         <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -3168,7 +3411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -3178,7 +3421,7 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>2015</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3196,7 +3439,7 @@
       <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="14">
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -3206,7 +3449,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
         <v>92</v>
       </c>
@@ -3216,7 +3459,7 @@
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>2016</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -3234,7 +3477,7 @@
       <c r="I6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="14">
         <v>4</v>
       </c>
       <c r="K6" s="9"/>
@@ -3242,7 +3485,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
         <v>89</v>
       </c>
@@ -3252,7 +3495,7 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>2017</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3270,7 +3513,7 @@
       <c r="I7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="14">
         <v>4</v>
       </c>
       <c r="K7" s="4"/>
@@ -3278,7 +3521,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="25" t="s">
         <v>91</v>
       </c>
@@ -3288,7 +3531,7 @@
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>2017</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -3306,7 +3549,7 @@
       <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="14" t="n">
+      <c r="J8" s="14">
         <v>4</v>
       </c>
       <c r="K8" s="9"/>
@@ -3314,7 +3557,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3567,7 @@
       <c r="C9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>2017</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -3342,7 +3585,7 @@
       <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="14">
         <v>4</v>
       </c>
       <c r="K9" s="9"/>
@@ -3350,7 +3593,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -3360,7 +3603,7 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>2017</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3378,7 +3621,7 @@
       <c r="I10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="14" t="n">
+      <c r="J10" s="14">
         <v>4</v>
       </c>
       <c r="K10" s="9"/>
@@ -3386,7 +3629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="25" t="s">
         <v>72</v>
       </c>
@@ -3396,7 +3639,7 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>2013</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -3414,7 +3657,7 @@
       <c r="I11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="14">
         <v>3</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -3424,7 +3667,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
@@ -3434,7 +3677,7 @@
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>2015</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -3452,7 +3695,7 @@
       <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="14">
         <v>3</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -3462,7 +3705,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3715,7 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>2015</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3490,7 +3733,7 @@
       <c r="I13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="14">
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -3500,7 +3743,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="25" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3753,7 @@
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>2015</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -3528,7 +3771,7 @@
       <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="14">
         <v>3</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -3538,7 +3781,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
@@ -3548,7 +3791,7 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>2015</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3566,7 +3809,7 @@
       <c r="I15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="12">
         <v>3</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -3576,7 +3819,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="25" t="s">
         <v>78</v>
       </c>
@@ -3586,7 +3829,7 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>2015</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -3604,7 +3847,7 @@
       <c r="I16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="J16" s="12">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -3614,7 +3857,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
@@ -3624,7 +3867,7 @@
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>2015</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3642,7 +3885,7 @@
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="12">
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -3652,7 +3895,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
         <v>97</v>
       </c>
@@ -3662,7 +3905,7 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="9">
         <v>2016</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -3680,7 +3923,7 @@
       <c r="I18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="19" t="n">
+      <c r="J18" s="19">
         <v>3</v>
       </c>
       <c r="K18" s="9"/>
@@ -3688,7 +3931,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="24" t="s">
         <v>77</v>
       </c>
@@ -3698,7 +3941,7 @@
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>2016</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3716,7 +3959,7 @@
       <c r="I19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="19">
         <v>3</v>
       </c>
       <c r="K19" s="4"/>
@@ -3724,7 +3967,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="25" t="s">
         <v>75</v>
       </c>
@@ -3734,7 +3977,7 @@
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="9">
         <v>2016</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3752,7 +3995,7 @@
       <c r="I20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="12" t="n">
+      <c r="J20" s="12">
         <v>3</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -3762,7 +4005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
         <v>76</v>
       </c>
@@ -3772,7 +4015,7 @@
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>2016</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3790,7 +4033,7 @@
       <c r="I21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="12" t="n">
+      <c r="J21" s="12">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -3800,7 +4043,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
@@ -3810,7 +4053,7 @@
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>2017</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -3828,7 +4071,7 @@
       <c r="I22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="19">
         <v>3</v>
       </c>
       <c r="K22" s="9"/>
@@ -3836,7 +4079,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="25" t="s">
         <v>98</v>
       </c>
@@ -3846,7 +4089,7 @@
       <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="9">
         <v>2017</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -3864,7 +4107,7 @@
       <c r="I23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>3</v>
       </c>
       <c r="K23" s="9"/>
@@ -3872,7 +4115,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="25" t="s">
         <v>93</v>
       </c>
@@ -3882,7 +4125,7 @@
       <c r="C24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="9">
         <v>2017</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -3900,7 +4143,7 @@
       <c r="I24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="19">
         <v>3</v>
       </c>
       <c r="K24" s="9"/>
@@ -3908,7 +4151,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
@@ -3918,7 +4161,7 @@
       <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>2017</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3936,7 +4179,7 @@
       <c r="I25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="23" t="n">
+      <c r="J25" s="23">
         <v>3</v>
       </c>
       <c r="K25" s="4"/>
@@ -3944,7 +4187,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
         <v>71</v>
       </c>
@@ -3954,7 +4197,7 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>2013</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3972,7 +4215,7 @@
       <c r="I26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="12" t="n">
+      <c r="J26" s="12">
         <v>2</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -3982,7 +4225,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="25" t="s">
         <v>74</v>
       </c>
@@ -3992,7 +4235,7 @@
       <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="9">
         <v>2015</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -4010,7 +4253,7 @@
       <c r="I27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="8">
         <v>2</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -4020,7 +4263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>101</v>
       </c>
@@ -4030,7 +4273,7 @@
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="4">
         <v>2016</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -4048,7 +4291,7 @@
       <c r="I28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J28" s="3">
         <v>2</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -4058,7 +4301,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="24" t="s">
         <v>99</v>
       </c>
@@ -4068,7 +4311,7 @@
       <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>2016</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -4086,7 +4329,7 @@
       <c r="I29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="7">
         <v>2</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -4096,7 +4339,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="24" t="s">
         <v>29</v>
       </c>
@@ -4106,7 +4349,7 @@
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>2014</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4124,7 +4367,7 @@
       <c r="I30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="12" t="n">
+      <c r="J30" s="12">
         <v>1</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -4134,7 +4377,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="24" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4387,7 @@
       <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>2014</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -4162,7 +4405,7 @@
       <c r="I31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="12" t="n">
+      <c r="J31" s="12">
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -4172,7 +4415,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="25" t="s">
         <v>41</v>
       </c>
@@ -4182,7 +4425,7 @@
       <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="9">
         <v>2015</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -4200,7 +4443,7 @@
       <c r="I32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="12" t="n">
+      <c r="J32" s="12">
         <v>1</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -4210,7 +4453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="25" t="s">
         <v>143</v>
       </c>
@@ -4220,7 +4463,7 @@
       <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="9">
         <v>2016</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -4238,7 +4481,7 @@
       <c r="I33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="9"/>
@@ -4246,7 +4489,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="24" t="s">
         <v>104</v>
       </c>
@@ -4256,7 +4499,7 @@
       <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="4">
         <v>2016</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -4274,7 +4517,7 @@
       <c r="I34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -4284,7 +4527,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
@@ -4294,7 +4537,7 @@
       <c r="C35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="9">
         <v>2016</v>
       </c>
       <c r="E35" s="9" t="s">
@@ -4312,7 +4555,7 @@
       <c r="I35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="5">
         <v>1</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -4322,7 +4565,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="25" t="s">
         <v>34</v>
       </c>
@@ -4332,7 +4575,7 @@
       <c r="C36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="9">
         <v>2014</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -4350,7 +4593,7 @@
       <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="23" t="n">
+      <c r="J36" s="23">
         <v>0</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -4360,7 +4603,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
@@ -4370,7 +4613,7 @@
       <c r="C37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="9">
         <v>2015</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -4388,7 +4631,7 @@
       <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="23" t="n">
+      <c r="J37" s="23">
         <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -4398,7 +4641,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="24" t="s">
         <v>109</v>
       </c>
@@ -4408,7 +4651,7 @@
       <c r="C38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="4">
         <v>2017</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4426,7 +4669,7 @@
       <c r="I38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="4"/>
@@ -4434,7 +4677,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="24" t="s">
         <v>114</v>
       </c>
@@ -4444,7 +4687,7 @@
       <c r="C39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>2017</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -4462,7 +4705,7 @@
       <c r="I39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="15" t="n">
+      <c r="J39" s="15">
         <v>0</v>
       </c>
       <c r="K39" s="4"/>
@@ -4470,7 +4713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="25" t="s">
         <v>142</v>
       </c>
@@ -4480,7 +4723,7 @@
       <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="9">
         <v>2017</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -4498,7 +4741,7 @@
       <c r="I40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="9"/>
@@ -4506,7 +4749,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -4516,7 +4759,7 @@
       <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="4">
         <v>2017</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -4534,7 +4777,7 @@
       <c r="I41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="4"/>
@@ -4800,30 +5043,30 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="43.86328125" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+    <col min="4" max="4" width="43.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>117</v>
       </c>
@@ -4837,7 +5080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>32</v>
       </c>
@@ -4849,7 +5092,7 @@
       </c>
       <c r="D2" s="29"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>74</v>
       </c>
@@ -4861,7 +5104,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
@@ -4873,7 +5116,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -4887,7 +5130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
@@ -4901,7 +5144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>123</v>
       </c>
@@ -4913,7 +5156,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="29" t="s">
         <v>27</v>
       </c>
@@ -4925,7 +5168,7 @@
       </c>
       <c r="D8" s="29"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="27" t="s">
         <v>124</v>
       </c>
@@ -4939,7 +5182,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="29" t="s">
         <v>186</v>
       </c>
@@ -4951,7 +5194,7 @@
       </c>
       <c r="D10" s="29"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="27" t="s">
         <v>75</v>
       </c>
@@ -4963,7 +5206,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="29" t="s">
         <v>125</v>
       </c>
@@ -4977,7 +5220,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="27" t="s">
         <v>174</v>
       </c>
@@ -4989,7 +5232,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="29" t="s">
         <v>175</v>
       </c>
@@ -5003,7 +5246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="27" t="s">
         <v>76</v>
       </c>
@@ -5015,7 +5258,7 @@
       </c>
       <c r="D15" s="27"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="29" t="s">
         <v>126</v>
       </c>
@@ -5027,7 +5270,7 @@
       </c>
       <c r="D16" s="29"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="s">
         <v>176</v>
       </c>
@@ -5039,7 +5282,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="29" t="s">
         <v>127</v>
       </c>
@@ -5051,7 +5294,7 @@
       </c>
       <c r="D18" s="29"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="27" t="s">
         <v>177</v>
       </c>
@@ -5063,7 +5306,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="29" t="s">
         <v>128</v>
       </c>
@@ -5077,7 +5320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="27" t="s">
         <v>178</v>
       </c>
@@ -5091,7 +5334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="29" t="s">
         <v>179</v>
       </c>
@@ -5105,7 +5348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
         <v>129</v>
       </c>
@@ -5117,7 +5360,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="29" t="s">
         <v>180</v>
       </c>
@@ -5129,7 +5372,7 @@
       </c>
       <c r="D24" s="29"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="27" t="s">
         <v>130</v>
       </c>
@@ -5141,7 +5384,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="29" t="s">
         <v>181</v>
       </c>
@@ -5153,7 +5396,7 @@
       </c>
       <c r="D26" s="29"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="27" t="s">
         <v>77</v>
       </c>
@@ -5165,7 +5408,7 @@
       </c>
       <c r="D27" s="27"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="29" t="s">
         <v>182</v>
       </c>
@@ -5177,7 +5420,7 @@
       </c>
       <c r="D28" s="29"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="27" t="s">
         <v>131</v>
       </c>
@@ -5189,7 +5432,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="29" t="s">
         <v>183</v>
       </c>
@@ -5201,7 +5444,7 @@
       </c>
       <c r="D30" s="29"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="27" t="s">
         <v>132</v>
       </c>
@@ -5213,7 +5456,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="29" t="s">
         <v>161</v>
       </c>
@@ -5225,7 +5468,7 @@
       </c>
       <c r="D32" s="29"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="27" t="s">
         <v>133</v>
       </c>
@@ -5237,7 +5480,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -5249,7 +5492,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="27" t="s">
         <v>163</v>
       </c>
@@ -5261,7 +5504,7 @@
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -5275,7 +5518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="27" t="s">
         <v>47</v>
       </c>
@@ -5287,7 +5530,7 @@
       </c>
       <c r="D37" s="27"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="29" t="s">
         <v>72</v>
       </c>
@@ -5299,7 +5542,7 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="27" t="s">
         <v>71</v>
       </c>
@@ -5311,7 +5554,7 @@
       </c>
       <c r="D39" s="27"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="29" t="s">
         <v>122</v>
       </c>
@@ -5325,7 +5568,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="27" t="s">
         <v>121</v>
       </c>
@@ -5337,7 +5580,7 @@
       </c>
       <c r="D41" s="27"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="29" t="s">
         <v>119</v>
       </c>
@@ -5349,7 +5592,7 @@
       </c>
       <c r="D42" s="29"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="27" t="s">
         <v>120</v>
       </c>
@@ -5361,7 +5604,7 @@
       </c>
       <c r="D43" s="27"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="29" t="s">
         <v>78</v>
       </c>
@@ -5373,7 +5616,7 @@
       </c>
       <c r="D44" s="29"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="27" t="s">
         <v>29</v>
       </c>
@@ -5385,7 +5628,7 @@
       </c>
       <c r="D45" s="27"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="29" t="s">
         <v>34</v>
       </c>
@@ -5397,7 +5640,7 @@
       </c>
       <c r="D46" s="29"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="27" t="s">
         <v>22</v>
       </c>
@@ -5409,7 +5652,7 @@
       </c>
       <c r="D47" s="27"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="29" t="s">
         <v>134</v>
       </c>
@@ -5423,7 +5666,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="27" t="s">
         <v>165</v>
       </c>
@@ -5437,7 +5680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="29" t="s">
         <v>166</v>
       </c>
@@ -5449,7 +5692,7 @@
       </c>
       <c r="D50" s="29"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="27" t="s">
         <v>135</v>
       </c>
@@ -5463,7 +5706,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="29" t="s">
         <v>167</v>
       </c>
@@ -5477,7 +5720,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="27" t="s">
         <v>136</v>
       </c>
@@ -5489,7 +5732,7 @@
       </c>
       <c r="D53" s="27"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="29" t="s">
         <v>168</v>
       </c>
@@ -5501,7 +5744,7 @@
       </c>
       <c r="D54" s="29"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="27" t="s">
         <v>137</v>
       </c>
@@ -5515,7 +5758,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="29" t="s">
         <v>169</v>
       </c>
@@ -5529,7 +5772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="27" t="s">
         <v>138</v>
       </c>
@@ -5541,7 +5784,7 @@
       </c>
       <c r="D57" s="27"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="29" t="s">
         <v>170</v>
       </c>
@@ -5553,7 +5796,7 @@
       </c>
       <c r="D58" s="29"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="27" t="s">
         <v>139</v>
       </c>
@@ -5567,7 +5810,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="29" t="s">
         <v>171</v>
       </c>
@@ -5581,7 +5824,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="27" t="s">
         <v>140</v>
       </c>
@@ -5595,7 +5838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="29" t="s">
         <v>172</v>
       </c>
@@ -5609,7 +5852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="27" t="s">
         <v>141</v>
       </c>
@@ -5623,7 +5866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="29" t="s">
         <v>173</v>
       </c>
@@ -5639,24 +5882,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>117</v>
       </c>
@@ -5697,8 +5940,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="36" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="36">
         <v>8</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -5706,7 +5949,7 @@
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="36">
         <v>2017</v>
       </c>
       <c r="F2" s="36"/>
@@ -5720,8 +5963,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="35" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="35">
         <v>13</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -5733,7 +5976,7 @@
       <c r="D3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="35">
         <v>2016</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -5775,35 +6018,33 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="10" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="15.265625" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="12.265625" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.265625" customWidth="1"/>
+    <col min="8" max="8" width="10.265625" customWidth="1"/>
+    <col min="10" max="11" width="15.265625" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" customWidth="1"/>
+    <col min="14" max="15" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5850,7 +6091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5860,7 +6101,7 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2017</v>
       </c>
       <c r="E2" t="s">
@@ -5878,7 +6119,7 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
@@ -5897,7 +6138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5907,7 +6148,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
@@ -5925,7 +6166,7 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>5</v>
       </c>
       <c r="K3" t="s">
@@ -5944,7 +6185,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5954,7 +6195,7 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
@@ -5972,7 +6213,7 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>5</v>
       </c>
       <c r="K4" t="s">
@@ -5991,7 +6232,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -6001,7 +6242,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2017</v>
       </c>
       <c r="E5" t="s">
@@ -6019,7 +6260,7 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" t="s">
@@ -6038,7 +6279,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -6048,7 +6289,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
@@ -6066,7 +6307,7 @@
       <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
@@ -6085,7 +6326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -6095,7 +6336,7 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
@@ -6113,7 +6354,7 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
@@ -6132,7 +6373,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6383,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
@@ -6160,7 +6401,7 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
@@ -6179,7 +6420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6189,7 +6430,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
@@ -6207,7 +6448,7 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>4</v>
       </c>
       <c r="K9" t="s">
@@ -6226,7 +6467,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6236,7 +6477,7 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2015</v>
       </c>
       <c r="E10" t="s">
@@ -6254,7 +6495,7 @@
       <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4</v>
       </c>
       <c r="K10" t="s">
@@ -6273,7 +6514,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6283,7 +6524,7 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
@@ -6301,7 +6542,7 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" t="s">
@@ -6320,7 +6561,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6330,7 +6571,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
@@ -6348,7 +6589,7 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>4</v>
       </c>
       <c r="K12" t="s">
@@ -6367,7 +6608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6377,7 +6618,7 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2017</v>
       </c>
       <c r="E13" t="s">
@@ -6395,7 +6636,7 @@
       <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" t="s">
@@ -6414,7 +6655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6424,7 +6665,7 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2017</v>
       </c>
       <c r="E14" t="s">
@@ -6442,7 +6683,7 @@
       <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>3</v>
       </c>
       <c r="K14" t="s">
@@ -6461,7 +6702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -6471,7 +6712,7 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
@@ -6489,7 +6730,7 @@
       <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" t="s">
@@ -6508,7 +6749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6518,7 +6759,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
@@ -6536,7 +6777,7 @@
       <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" t="s">
@@ -6555,7 +6796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -6565,7 +6806,7 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
@@ -6583,7 +6824,7 @@
       <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" t="s">
@@ -6602,7 +6843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -6612,7 +6853,7 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
@@ -6630,7 +6871,7 @@
       <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
@@ -6649,7 +6890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6659,7 +6900,7 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
@@ -6677,7 +6918,7 @@
       <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
@@ -6696,7 +6937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6706,7 +6947,7 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2015</v>
       </c>
       <c r="E20" t="s">
@@ -6724,7 +6965,7 @@
       <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
@@ -6743,7 +6984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -6753,7 +6994,7 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2015</v>
       </c>
       <c r="E21" t="s">
@@ -6771,7 +7012,7 @@
       <c r="I21" t="s">
         <v>10</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>3</v>
       </c>
       <c r="K21" t="s">
@@ -6790,7 +7031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -6800,7 +7041,7 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2015</v>
       </c>
       <c r="E22" t="s">
@@ -6818,7 +7059,7 @@
       <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
@@ -6837,7 +7078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -6847,7 +7088,7 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2015</v>
       </c>
       <c r="E23" t="s">
@@ -6865,7 +7106,7 @@
       <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>3</v>
       </c>
       <c r="K23" t="s">
@@ -6884,7 +7125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -6894,7 +7135,7 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2015</v>
       </c>
       <c r="E24" t="s">
@@ -6912,7 +7153,7 @@
       <c r="I24" t="s">
         <v>10</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>3</v>
       </c>
       <c r="K24" t="s">
@@ -6931,7 +7172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -6941,7 +7182,7 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2013</v>
       </c>
       <c r="E25" t="s">
@@ -6959,7 +7200,7 @@
       <c r="I25" t="s">
         <v>10</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" t="s">
@@ -6978,7 +7219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6988,7 +7229,7 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
@@ -7006,7 +7247,7 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
@@ -7025,7 +7266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -7035,7 +7276,7 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2016</v>
       </c>
       <c r="E27" t="s">
@@ -7053,7 +7294,7 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" t="s">
@@ -7072,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -7082,7 +7323,7 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28" t="s">
@@ -7100,7 +7341,7 @@
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>2</v>
       </c>
       <c r="K28" t="s">
@@ -7119,7 +7360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -7129,7 +7370,7 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2013</v>
       </c>
       <c r="E29" t="s">
@@ -7147,7 +7388,7 @@
       <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
@@ -7166,7 +7407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -7176,7 +7417,7 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2016</v>
       </c>
       <c r="E30" t="s">
@@ -7194,7 +7435,7 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
@@ -7213,7 +7454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7223,7 +7464,7 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2016</v>
       </c>
       <c r="E31" t="s">
@@ -7241,7 +7482,7 @@
       <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
@@ -7260,7 +7501,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -7270,7 +7511,7 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2016</v>
       </c>
       <c r="E32" t="s">
@@ -7288,7 +7529,7 @@
       <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
@@ -7307,7 +7548,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -7317,7 +7558,7 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2015</v>
       </c>
       <c r="E33" t="s">
@@ -7335,7 +7576,7 @@
       <c r="I33" t="s">
         <v>10</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
@@ -7354,7 +7595,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -7364,7 +7605,7 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2014</v>
       </c>
       <c r="E34" t="s">
@@ -7382,7 +7623,7 @@
       <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
@@ -7401,7 +7642,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7411,7 +7652,7 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2014</v>
       </c>
       <c r="E35" t="s">
@@ -7429,7 +7670,7 @@
       <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
@@ -7448,7 +7689,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -7458,7 +7699,7 @@
       <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2017</v>
       </c>
       <c r="E36" t="s">
@@ -7476,7 +7717,7 @@
       <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
@@ -7495,7 +7736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7505,7 +7746,7 @@
       <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2017</v>
       </c>
       <c r="E37" t="s">
@@ -7523,7 +7764,7 @@
       <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
@@ -7542,7 +7783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -7552,7 +7793,7 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
@@ -7570,7 +7811,7 @@
       <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
@@ -7589,7 +7830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -7599,7 +7840,7 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
@@ -7617,7 +7858,7 @@
       <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
@@ -7636,7 +7877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -7646,7 +7887,7 @@
       <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2015</v>
       </c>
       <c r="E40" t="s">
@@ -7664,7 +7905,7 @@
       <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
@@ -7683,7 +7924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -7693,7 +7934,7 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2014</v>
       </c>
       <c r="E41" t="s">
@@ -7711,7 +7952,7 @@
       <c r="I41" t="s">
         <v>28</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
@@ -7755,27 +7996,27 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>202</v>
       </c>
@@ -7792,104 +8033,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="n">
+      <c r="B2" s="43">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="n">
+      <c r="C2" s="43">
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="43">
         <v>1</v>
       </c>
-      <c r="E2" s="43" t="n">
+      <c r="E2" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="n">
+      <c r="B3" s="43">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="n">
+      <c r="C3" s="43">
         <v>0</v>
       </c>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="43">
         <v>1</v>
       </c>
-      <c r="E3" s="43" t="n">
+      <c r="E3" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="n">
+      <c r="B4" s="43">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="n">
+      <c r="C4" s="43">
         <v>0</v>
       </c>
-      <c r="D4" s="43" t="n">
+      <c r="D4" s="43">
         <v>1</v>
       </c>
-      <c r="E4" s="43" t="n">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="43" t="n">
+      <c r="B5" s="43">
         <v>0</v>
       </c>
-      <c r="C5" s="43" t="n">
+      <c r="C5" s="43">
         <v>0</v>
       </c>
-      <c r="D5" s="43" t="n">
+      <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="E5" s="43" t="n">
+      <c r="E5" s="43">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.265625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="8" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="14" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -7924,7 +8165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -7949,7 +8190,7 @@
       <c r="H2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -7959,7 +8200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -7984,13 +8225,13 @@
       <c r="H3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="60" t="n">
+      <c r="I3" s="60">
         <v>1</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -8015,7 +8256,7 @@
       <c r="H4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="59" t="n">
+      <c r="I4" s="59">
         <v>2</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -8025,7 +8266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -8050,7 +8291,7 @@
       <c r="H5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="14">
         <v>4</v>
       </c>
       <c r="J5" s="46" t="s">
@@ -8060,7 +8301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -8085,7 +8326,7 @@
       <c r="H6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -8095,7 +8336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8120,7 +8361,7 @@
       <c r="H7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="14">
         <v>4</v>
       </c>
       <c r="J7" s="46" t="s">
@@ -8130,7 +8371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -8155,7 +8396,7 @@
       <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="15">
         <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -8165,7 +8406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -8190,7 +8431,7 @@
       <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="14">
         <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -8200,7 +8441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -8225,7 +8466,7 @@
       <c r="H10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="60" t="n">
+      <c r="I10" s="60">
         <v>4</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -8233,7 +8474,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -8258,7 +8499,7 @@
       <c r="H11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="14">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -8268,7 +8509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
@@ -8293,7 +8534,7 @@
       <c r="H12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -8303,7 +8544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -8328,7 +8569,7 @@
       <c r="H13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="57" t="n">
+      <c r="I13" s="57">
         <v>3</v>
       </c>
       <c r="J13" s="56"/>
@@ -8336,7 +8577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -8361,7 +8602,7 @@
       <c r="H14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="60" t="n">
+      <c r="I14" s="60">
         <v>4</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -8369,7 +8610,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -8394,7 +8635,7 @@
       <c r="H15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="14">
         <v>4</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -8404,7 +8645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -8429,7 +8670,7 @@
       <c r="H16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="14" t="n">
+      <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -8439,7 +8680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
@@ -8464,7 +8705,7 @@
       <c r="H17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="14" t="n">
+      <c r="I17" s="14">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -8474,7 +8715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -8499,13 +8740,13 @@
       <c r="H18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="60" t="n">
+      <c r="I18" s="60">
         <v>1</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -8530,13 +8771,13 @@
       <c r="H19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="60" t="n">
+      <c r="I19" s="60">
         <v>1</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -8561,7 +8802,7 @@
       <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="16">
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -8571,7 +8812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -8596,13 +8837,13 @@
       <c r="H21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="60" t="n">
+      <c r="I21" s="60">
         <v>1</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -8627,7 +8868,7 @@
       <c r="H22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -8637,7 +8878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
@@ -8662,7 +8903,7 @@
       <c r="H23" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="60" t="n">
+      <c r="I23" s="60">
         <v>4</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -8670,7 +8911,7 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
@@ -8695,7 +8936,7 @@
       <c r="H24" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -8705,7 +8946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -8730,7 +8971,7 @@
       <c r="H25" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="14">
         <v>3</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -8740,7 +8981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -8765,7 +9006,7 @@
       <c r="H26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="9" t="s">
@@ -8775,7 +9016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
@@ -8800,7 +9041,7 @@
       <c r="H27" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="14" t="n">
+      <c r="I27" s="14">
         <v>3</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -8810,7 +9051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
@@ -8835,7 +9076,7 @@
       <c r="H28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="14" t="n">
+      <c r="I28" s="14">
         <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -8845,7 +9086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -8870,7 +9111,7 @@
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="15">
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -8880,7 +9121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -8905,7 +9146,7 @@
       <c r="H30" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="53" t="n">
+      <c r="I30" s="53">
         <v>4</v>
       </c>
       <c r="J30" s="54" t="s">
@@ -8913,7 +9154,7 @@
       </c>
       <c r="K30" s="54"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
@@ -8938,7 +9179,7 @@
       <c r="H31" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="58" t="n">
+      <c r="I31" s="58">
         <v>4</v>
       </c>
       <c r="J31" s="54" t="s">
@@ -8948,7 +9189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -8973,7 +9214,7 @@
       <c r="H32" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="53" t="n">
+      <c r="I32" s="53">
         <v>1</v>
       </c>
       <c r="J32" s="54" t="s">
@@ -8981,7 +9222,7 @@
       </c>
       <c r="K32" s="54"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -9006,7 +9247,7 @@
       <c r="H33" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="53" t="n">
+      <c r="I33" s="53">
         <v>1</v>
       </c>
       <c r="J33" s="54"/>
@@ -9062,30 +9303,31 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rIdvml"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
@@ -9096,7 +9338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>48</v>
       </c>
@@ -9107,7 +9349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
         <v>47</v>
       </c>
@@ -9118,7 +9360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
@@ -9129,12 +9371,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
         <v>12</v>
       </c>
@@ -9145,7 +9387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
         <v>22</v>
       </c>
@@ -9156,7 +9398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
         <v>45</v>
       </c>
@@ -9167,12 +9409,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="59" t="s">
         <v>20</v>
       </c>
@@ -9183,7 +9425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="59" t="s">
         <v>44</v>
       </c>
@@ -9194,7 +9436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="59" t="s">
         <v>43</v>
       </c>
@@ -9205,7 +9447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="59" t="s">
         <v>42</v>
       </c>
@@ -9216,12 +9458,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="59" t="s">
         <v>14</v>
       </c>
@@ -9232,7 +9474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
@@ -9243,7 +9485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="59" t="s">
         <v>41</v>
       </c>
@@ -9254,7 +9496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="59" t="s">
         <v>40</v>
       </c>
@@ -9265,12 +9507,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="59" t="s">
         <v>39</v>
       </c>
@@ -9281,7 +9523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="59" t="s">
         <v>19</v>
       </c>
@@ -9292,7 +9534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="59" t="s">
         <v>24</v>
       </c>
@@ -9303,12 +9545,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="59" t="s">
         <v>25</v>
       </c>
@@ -9319,7 +9561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="59" t="s">
         <v>38</v>
       </c>
@@ -9330,7 +9572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="59" t="s">
         <v>37</v>
       </c>
@@ -9343,19 +9585,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -9390,7 +9632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -9400,7 +9642,7 @@
       <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
@@ -9409,7 +9651,7 @@
       <c r="F2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
@@ -9425,7 +9667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -9435,7 +9677,7 @@
       <c r="C3" t="s">
         <v>233</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
@@ -9444,7 +9686,7 @@
       <c r="F3" t="s">
         <v>226</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
@@ -9460,7 +9702,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -9470,7 +9712,7 @@
       <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
@@ -9479,7 +9721,7 @@
       <c r="F4" t="s">
         <v>226</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
@@ -9495,7 +9737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -9505,7 +9747,7 @@
       <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
@@ -9514,7 +9756,7 @@
       <c r="F5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
@@ -9530,7 +9772,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -9540,7 +9782,7 @@
       <c r="C6" t="s">
         <v>238</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2016</v>
       </c>
       <c r="E6" t="s">
@@ -9549,7 +9791,7 @@
       <c r="F6" t="s">
         <v>226</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
@@ -9565,7 +9807,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -9575,7 +9817,7 @@
       <c r="C7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
@@ -9584,7 +9826,7 @@
       <c r="F7" t="s">
         <v>226</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -9600,7 +9842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -9610,7 +9852,7 @@
       <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
@@ -9619,7 +9861,7 @@
       <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
@@ -9635,7 +9877,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -9645,7 +9887,7 @@
       <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
@@ -9654,7 +9896,7 @@
       <c r="F9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
@@ -9670,7 +9912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -9680,7 +9922,7 @@
       <c r="C10" t="s">
         <v>224</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
@@ -9689,7 +9931,7 @@
       <c r="F10" t="s">
         <v>226</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
@@ -9705,7 +9947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -9715,7 +9957,7 @@
       <c r="C11" t="s">
         <v>224</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
@@ -9724,7 +9966,7 @@
       <c r="F11" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -9740,7 +9982,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -9750,7 +9992,7 @@
       <c r="C12" t="s">
         <v>224</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
@@ -9759,7 +10001,7 @@
       <c r="F12" t="s">
         <v>226</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
@@ -9775,7 +10017,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -9785,7 +10027,7 @@
       <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
@@ -9794,7 +10036,7 @@
       <c r="F13" t="s">
         <v>226</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
@@ -9810,7 +10052,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -9820,7 +10062,7 @@
       <c r="C14" t="s">
         <v>224</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
@@ -9829,7 +10071,7 @@
       <c r="F14" t="s">
         <v>226</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -9845,7 +10087,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -9855,7 +10097,7 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
@@ -9864,7 +10106,7 @@
       <c r="F15" t="s">
         <v>226</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
@@ -9880,7 +10122,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -9890,7 +10132,7 @@
       <c r="C16" t="s">
         <v>224</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
@@ -9899,7 +10141,7 @@
       <c r="F16" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
@@ -9915,7 +10157,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -9925,7 +10167,7 @@
       <c r="C17" t="s">
         <v>238</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
@@ -9934,7 +10176,7 @@
       <c r="F17" t="s">
         <v>226</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
@@ -9950,7 +10192,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -9960,7 +10202,7 @@
       <c r="C18" t="s">
         <v>224</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
@@ -9969,7 +10211,7 @@
       <c r="F18" t="s">
         <v>226</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
@@ -9985,7 +10227,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -9995,7 +10237,7 @@
       <c r="C19" t="s">
         <v>224</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
@@ -10004,7 +10246,7 @@
       <c r="F19" t="s">
         <v>226</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
@@ -10020,7 +10262,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -10030,7 +10272,7 @@
       <c r="C20" t="s">
         <v>238</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
@@ -10039,7 +10281,7 @@
       <c r="F20" t="s">
         <v>226</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
@@ -10055,7 +10297,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -10065,7 +10307,7 @@
       <c r="C21" t="s">
         <v>238</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
@@ -10074,7 +10316,7 @@
       <c r="F21" t="s">
         <v>226</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -10090,7 +10332,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -10100,7 +10342,7 @@
       <c r="C22" t="s">
         <v>233</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
@@ -10109,7 +10351,7 @@
       <c r="F22" t="s">
         <v>226</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
@@ -10125,7 +10367,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>276</v>
       </c>
@@ -10135,7 +10377,7 @@
       <c r="C23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
@@ -10144,7 +10386,7 @@
       <c r="F23" t="s">
         <v>226</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
@@ -10160,7 +10402,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -10170,7 +10412,7 @@
       <c r="C24" t="s">
         <v>255</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
@@ -10179,7 +10421,7 @@
       <c r="F24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
@@ -10195,7 +10437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -10205,7 +10447,7 @@
       <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
@@ -10214,7 +10456,7 @@
       <c r="F25" t="s">
         <v>226</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
@@ -10230,7 +10472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>280</v>
       </c>
@@ -10240,7 +10482,7 @@
       <c r="C26" t="s">
         <v>224</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
@@ -10249,7 +10491,7 @@
       <c r="F26" t="s">
         <v>226</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
@@ -10265,7 +10507,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -10275,7 +10517,7 @@
       <c r="C27" t="s">
         <v>238</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
@@ -10284,7 +10526,7 @@
       <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
@@ -10300,7 +10542,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -10310,7 +10552,7 @@
       <c r="C28" t="s">
         <v>233</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
@@ -10319,7 +10561,7 @@
       <c r="F28" t="s">
         <v>226</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
@@ -10335,7 +10577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>285</v>
       </c>
@@ -10345,7 +10587,7 @@
       <c r="C29" t="s">
         <v>238</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
@@ -10354,7 +10596,7 @@
       <c r="F29" t="s">
         <v>226</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
@@ -10370,7 +10612,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -10380,7 +10622,7 @@
       <c r="C30" t="s">
         <v>233</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" t="s">
@@ -10389,7 +10631,7 @@
       <c r="F30" t="s">
         <v>226</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -10405,7 +10647,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -10415,7 +10657,7 @@
       <c r="C31" t="s">
         <v>238</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" t="s">
@@ -10424,7 +10666,7 @@
       <c r="F31" t="s">
         <v>226</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -10440,7 +10682,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -10450,7 +10692,7 @@
       <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2015</v>
       </c>
       <c r="E32" t="s">
@@ -10459,7 +10701,7 @@
       <c r="F32" t="s">
         <v>226</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
@@ -10475,7 +10717,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -10485,7 +10727,7 @@
       <c r="C33" t="s">
         <v>233</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
@@ -10494,7 +10736,7 @@
       <c r="F33" t="s">
         <v>226</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
@@ -10510,7 +10752,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>293</v>
       </c>
@@ -10520,7 +10762,7 @@
       <c r="C34" t="s">
         <v>238</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
@@ -10529,7 +10771,7 @@
       <c r="F34" t="s">
         <v>226</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
@@ -10545,7 +10787,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -10555,7 +10797,7 @@
       <c r="C35" t="s">
         <v>238</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2016</v>
       </c>
       <c r="E35" t="s">
@@ -10564,7 +10806,7 @@
       <c r="F35" t="s">
         <v>226</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
@@ -10580,7 +10822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -10590,7 +10832,7 @@
       <c r="C36" t="s">
         <v>233</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2014</v>
       </c>
       <c r="E36" t="s">
@@ -10599,7 +10841,7 @@
       <c r="F36" t="s">
         <v>297</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -10615,7 +10857,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -10625,7 +10867,7 @@
       <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2015</v>
       </c>
       <c r="E37" t="s">
@@ -10634,7 +10876,7 @@
       <c r="F37" t="s">
         <v>297</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
@@ -10650,7 +10892,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -10660,7 +10902,7 @@
       <c r="C38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
@@ -10669,7 +10911,7 @@
       <c r="F38" t="s">
         <v>297</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
@@ -10685,7 +10927,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -10695,7 +10937,7 @@
       <c r="C39" t="s">
         <v>255</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
@@ -10704,7 +10946,7 @@
       <c r="F39" t="s">
         <v>297</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
@@ -10720,7 +10962,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>302</v>
       </c>
@@ -10730,7 +10972,7 @@
       <c r="C40" t="s">
         <v>224</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
@@ -10739,7 +10981,7 @@
       <c r="F40" t="s">
         <v>297</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
@@ -10755,7 +10997,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>304</v>
       </c>
@@ -10765,7 +11007,7 @@
       <c r="C41" t="s">
         <v>238</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2017</v>
       </c>
       <c r="E41" t="s">
@@ -10774,7 +11016,7 @@
       <c r="F41" t="s">
         <v>297</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
@@ -10792,22 +11034,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -10845,7 +11087,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -10855,7 +11097,7 @@
       <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
@@ -10864,7 +11106,7 @@
       <c r="F2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
@@ -10883,7 +11125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -10893,7 +11135,7 @@
       <c r="C3" t="s">
         <v>233</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
@@ -10902,7 +11144,7 @@
       <c r="F3" t="s">
         <v>226</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
@@ -10921,7 +11163,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -10931,7 +11173,7 @@
       <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
@@ -10940,7 +11182,7 @@
       <c r="F4" t="s">
         <v>226</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
@@ -10959,7 +11201,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -10969,7 +11211,7 @@
       <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
@@ -10978,7 +11220,7 @@
       <c r="F5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
@@ -10997,7 +11239,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -11007,7 +11249,7 @@
       <c r="C6" t="s">
         <v>238</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2016</v>
       </c>
       <c r="E6" t="s">
@@ -11016,7 +11258,7 @@
       <c r="F6" t="s">
         <v>226</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
@@ -11035,7 +11277,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -11045,7 +11287,7 @@
       <c r="C7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
@@ -11054,7 +11296,7 @@
       <c r="F7" t="s">
         <v>226</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -11073,7 +11315,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -11083,7 +11325,7 @@
       <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
@@ -11092,7 +11334,7 @@
       <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
@@ -11111,7 +11353,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -11121,7 +11363,7 @@
       <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
@@ -11130,7 +11372,7 @@
       <c r="F9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
@@ -11149,7 +11391,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -11159,7 +11401,7 @@
       <c r="C10" t="s">
         <v>224</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
@@ -11168,7 +11410,7 @@
       <c r="F10" t="s">
         <v>226</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
@@ -11187,7 +11429,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -11197,7 +11439,7 @@
       <c r="C11" t="s">
         <v>224</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
@@ -11206,7 +11448,7 @@
       <c r="F11" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -11225,7 +11467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -11235,7 +11477,7 @@
       <c r="C12" t="s">
         <v>224</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
@@ -11244,7 +11486,7 @@
       <c r="F12" t="s">
         <v>226</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
@@ -11263,7 +11505,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -11273,7 +11515,7 @@
       <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
@@ -11282,7 +11524,7 @@
       <c r="F13" t="s">
         <v>226</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
@@ -11301,7 +11543,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -11311,7 +11553,7 @@
       <c r="C14" t="s">
         <v>224</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
@@ -11320,7 +11562,7 @@
       <c r="F14" t="s">
         <v>226</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -11339,7 +11581,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -11349,7 +11591,7 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
@@ -11358,7 +11600,7 @@
       <c r="F15" t="s">
         <v>226</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
@@ -11377,7 +11619,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -11387,7 +11629,7 @@
       <c r="C16" t="s">
         <v>224</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
@@ -11396,7 +11638,7 @@
       <c r="F16" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
@@ -11415,7 +11657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -11425,7 +11667,7 @@
       <c r="C17" t="s">
         <v>238</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
@@ -11434,7 +11676,7 @@
       <c r="F17" t="s">
         <v>226</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
@@ -11453,7 +11695,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -11463,7 +11705,7 @@
       <c r="C18" t="s">
         <v>224</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
@@ -11472,7 +11714,7 @@
       <c r="F18" t="s">
         <v>226</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
@@ -11491,7 +11733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -11501,7 +11743,7 @@
       <c r="C19" t="s">
         <v>224</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
@@ -11510,7 +11752,7 @@
       <c r="F19" t="s">
         <v>226</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
@@ -11529,7 +11771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -11539,7 +11781,7 @@
       <c r="C20" t="s">
         <v>238</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
@@ -11548,7 +11790,7 @@
       <c r="F20" t="s">
         <v>226</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
@@ -11567,7 +11809,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -11577,7 +11819,7 @@
       <c r="C21" t="s">
         <v>238</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
@@ -11586,7 +11828,7 @@
       <c r="F21" t="s">
         <v>226</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -11605,7 +11847,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -11615,7 +11857,7 @@
       <c r="C22" t="s">
         <v>233</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
@@ -11624,7 +11866,7 @@
       <c r="F22" t="s">
         <v>226</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
@@ -11643,7 +11885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>276</v>
       </c>
@@ -11653,7 +11895,7 @@
       <c r="C23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
@@ -11662,7 +11904,7 @@
       <c r="F23" t="s">
         <v>226</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
@@ -11681,7 +11923,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -11691,7 +11933,7 @@
       <c r="C24" t="s">
         <v>255</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
@@ -11700,7 +11942,7 @@
       <c r="F24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
@@ -11719,7 +11961,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -11729,7 +11971,7 @@
       <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
@@ -11738,7 +11980,7 @@
       <c r="F25" t="s">
         <v>226</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
@@ -11757,7 +11999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>280</v>
       </c>
@@ -11767,7 +12009,7 @@
       <c r="C26" t="s">
         <v>224</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
@@ -11776,7 +12018,7 @@
       <c r="F26" t="s">
         <v>226</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
@@ -11795,7 +12037,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -11805,7 +12047,7 @@
       <c r="C27" t="s">
         <v>238</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
@@ -11814,7 +12056,7 @@
       <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
@@ -11833,7 +12075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -11843,7 +12085,7 @@
       <c r="C28" t="s">
         <v>233</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
@@ -11852,7 +12094,7 @@
       <c r="F28" t="s">
         <v>226</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
@@ -11871,7 +12113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>285</v>
       </c>
@@ -11881,7 +12123,7 @@
       <c r="C29" t="s">
         <v>238</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
@@ -11890,7 +12132,7 @@
       <c r="F29" t="s">
         <v>226</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
@@ -11909,7 +12151,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -11919,7 +12161,7 @@
       <c r="C30" t="s">
         <v>233</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" t="s">
@@ -11928,7 +12170,7 @@
       <c r="F30" t="s">
         <v>226</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -11947,7 +12189,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -11957,7 +12199,7 @@
       <c r="C31" t="s">
         <v>238</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" t="s">
@@ -11966,7 +12208,7 @@
       <c r="F31" t="s">
         <v>226</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -11985,7 +12227,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -11995,7 +12237,7 @@
       <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2015</v>
       </c>
       <c r="E32" t="s">
@@ -12004,7 +12246,7 @@
       <c r="F32" t="s">
         <v>226</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
@@ -12023,7 +12265,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -12033,7 +12275,7 @@
       <c r="C33" t="s">
         <v>233</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
@@ -12042,7 +12284,7 @@
       <c r="F33" t="s">
         <v>226</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
@@ -12061,7 +12303,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>293</v>
       </c>
@@ -12071,7 +12313,7 @@
       <c r="C34" t="s">
         <v>238</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
@@ -12080,7 +12322,7 @@
       <c r="F34" t="s">
         <v>226</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
@@ -12099,7 +12341,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -12109,7 +12351,7 @@
       <c r="C35" t="s">
         <v>238</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2016</v>
       </c>
       <c r="E35" t="s">
@@ -12118,7 +12360,7 @@
       <c r="F35" t="s">
         <v>226</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
@@ -12137,7 +12379,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -12147,7 +12389,7 @@
       <c r="C36" t="s">
         <v>233</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2014</v>
       </c>
       <c r="E36" t="s">
@@ -12156,7 +12398,7 @@
       <c r="F36" t="s">
         <v>297</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -12175,7 +12417,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -12185,7 +12427,7 @@
       <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2015</v>
       </c>
       <c r="E37" t="s">
@@ -12194,7 +12436,7 @@
       <c r="F37" t="s">
         <v>297</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
@@ -12213,7 +12455,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -12223,7 +12465,7 @@
       <c r="C38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
@@ -12232,7 +12474,7 @@
       <c r="F38" t="s">
         <v>297</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
@@ -12251,7 +12493,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -12261,7 +12503,7 @@
       <c r="C39" t="s">
         <v>255</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
@@ -12270,7 +12512,7 @@
       <c r="F39" t="s">
         <v>297</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
@@ -12289,7 +12531,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>302</v>
       </c>
@@ -12299,7 +12541,7 @@
       <c r="C40" t="s">
         <v>224</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
@@ -12308,7 +12550,7 @@
       <c r="F40" t="s">
         <v>297</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
@@ -12327,7 +12569,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>304</v>
       </c>
@@ -12337,7 +12579,7 @@
       <c r="C41" t="s">
         <v>238</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2017</v>
       </c>
       <c r="E41" t="s">
@@ -12346,7 +12588,7 @@
       <c r="F41" t="s">
         <v>297</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
@@ -12367,9 +12609,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -12614,4 +12614,244 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42ecaa076ba7b5f9f254444984003d50">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8bc80ff444d7dab34ac23551786ca6b" ns2:_="" ns3:_="">
+    <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
+    <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1f3c66e0-7684-4412-85ae-938bcfc42664" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="17" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50AD18EC-FA73-407C-B1D4-537808E10F1A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}"/>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/i_bar_griffith_edu_au/Documents/Research/A_rabiei/Sophie_A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2517AA74-6E62-4232-B2C8-85932B02232F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sequenced" sheetId="3" state="visible" r:id="rId1"/>
-    <sheet name="submission_info" sheetId="5" state="visible" r:id="rId2"/>
-    <sheet name="missing_info" sheetId="4" state="visible" r:id="rId3"/>
-    <sheet name="sample_haplotype_details" sheetId="8" state="visible" r:id="rId4"/>
-    <sheet name="Path_score" sheetId="7" state="visible" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId7"/>
-    <sheet name="test" sheetId="9" state="visible" r:id="rId8"/>
-    <sheet name="sample_details_full" sheetId="10" state="visible" r:id="rId9"/>
+    <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
+    <sheet name="submission_info" sheetId="5" r:id="rId2"/>
+    <sheet name="missing_info" sheetId="4" r:id="rId3"/>
+    <sheet name="sample_haplotype_details" sheetId="8" r:id="rId4"/>
+    <sheet name="Path_score" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="test" sheetId="9" r:id="rId8"/>
+    <sheet name="sample_details_full" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>soeadmin</author>
   </authors>
   <commentList>
-    <comment ref="K22" authorId="0" shapeId="0">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -36,7 +44,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">soeadmin:</t>
+          <t>soeadmin:</t>
         </r>
         <r>
           <rPr>
@@ -55,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="313">
   <si>
     <t>Isolate</t>
   </si>
@@ -690,318 +698,317 @@
     <t>Extreme</t>
   </si>
   <si>
-    <t xml:space="preserve">Isolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogenicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequenced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haplotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT13092-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingsford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genesis090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina+PacBio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR6417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yallaroi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HatTrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacBio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seamer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAT1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinchilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17191-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt Broughton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT13092-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moonta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weetula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT15030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15DON007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slasher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16083-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F16253-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17076-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fox Holes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17CUR007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT13092-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR8102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narromine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16CUR015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARH14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR6400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14DON003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15CUR003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR8105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strathdoon, Narromine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16RUP012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupanyup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16RUP013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR6408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15DON001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravel Pit Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17067-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coonalpyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F17175-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elmore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patho.Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group0</t>
+    <t>Isolate</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Pathogenicity</t>
+  </si>
+  <si>
+    <t>Sequenced</t>
+  </si>
+  <si>
+    <t>MAT_Type</t>
+  </si>
+  <si>
+    <t>Haplotype</t>
+  </si>
+  <si>
+    <t>Pathotype</t>
+  </si>
+  <si>
+    <t>FT13092-2</t>
+  </si>
+  <si>
+    <t>Kingsford</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Genesis090</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Illumina+PacBio</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>ARH04</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>TR6417</t>
+  </si>
+  <si>
+    <t>Yallaroi</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>HatTrick</t>
+  </si>
+  <si>
+    <t>ARH01</t>
+  </si>
+  <si>
+    <t>15CUR002</t>
+  </si>
+  <si>
+    <t>Curyo</t>
+  </si>
+  <si>
+    <t>VIC</t>
+  </si>
+  <si>
+    <t>ARH02</t>
+  </si>
+  <si>
+    <t>15CUR005</t>
+  </si>
+  <si>
+    <t>PacBio</t>
+  </si>
+  <si>
+    <t>ARH20</t>
+  </si>
+  <si>
+    <t>16CUR018</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>TR9571</t>
+  </si>
+  <si>
+    <t>Gurley</t>
+  </si>
+  <si>
+    <t>Seamer</t>
+  </si>
+  <si>
+    <t>ARH09</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>TR9573</t>
+  </si>
+  <si>
+    <t>MAT1-2</t>
+  </si>
+  <si>
+    <t>TR9529</t>
+  </si>
+  <si>
+    <t>Chinchilla</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>F17191-1</t>
+  </si>
+  <si>
+    <t>Pt Broughton</t>
+  </si>
+  <si>
+    <t>FT13092-4</t>
+  </si>
+  <si>
+    <t>FT15023</t>
+  </si>
+  <si>
+    <t>Moonta</t>
+  </si>
+  <si>
+    <t>FT15025</t>
+  </si>
+  <si>
+    <t>FT15028</t>
+  </si>
+  <si>
+    <t>Weetula</t>
+  </si>
+  <si>
+    <t>FT15029</t>
+  </si>
+  <si>
+    <t>FT15030</t>
+  </si>
+  <si>
+    <t>15DON007</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Slasher</t>
+  </si>
+  <si>
+    <t>F16083-1</t>
+  </si>
+  <si>
+    <t>F16253-1</t>
+  </si>
+  <si>
+    <t>16CUR017</t>
+  </si>
+  <si>
+    <t>16CUR019</t>
+  </si>
+  <si>
+    <t>F17076-2</t>
+  </si>
+  <si>
+    <t>Finley</t>
+  </si>
+  <si>
+    <t>TR9568</t>
+  </si>
+  <si>
+    <t>TR9543</t>
+  </si>
+  <si>
+    <t>Fox Holes</t>
+  </si>
+  <si>
+    <t>17CUR007</t>
+  </si>
+  <si>
+    <t>FT13092-6</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>15CUR001</t>
+  </si>
+  <si>
+    <t>TR8102</t>
+  </si>
+  <si>
+    <t>Narromine</t>
+  </si>
+  <si>
+    <t>16CUR015</t>
+  </si>
+  <si>
+    <t>ARH14</t>
+  </si>
+  <si>
+    <t>TR6400</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>14DON003</t>
+  </si>
+  <si>
+    <t>15CUR003</t>
+  </si>
+  <si>
+    <t>TR8105</t>
+  </si>
+  <si>
+    <t>Strathdoon, Narromine</t>
+  </si>
+  <si>
+    <t>16RUP012</t>
+  </si>
+  <si>
+    <t>Rupanyup</t>
+  </si>
+  <si>
+    <t>16RUP013</t>
+  </si>
+  <si>
+    <t>TR6408</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>15DON001</t>
+  </si>
+  <si>
+    <t>TR9538</t>
+  </si>
+  <si>
+    <t>Gravel Pit Hill</t>
+  </si>
+  <si>
+    <t>TR9544</t>
+  </si>
+  <si>
+    <t>F17067-1</t>
+  </si>
+  <si>
+    <t>Coonalpyn</t>
+  </si>
+  <si>
+    <t>F17175-1</t>
+  </si>
+  <si>
+    <t>Elmore</t>
+  </si>
+  <si>
+    <t>Patho.Group</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Group5</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,10 +1032,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -1036,10 +1043,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1149,17 +1169,20 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1171,14 +1194,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1187,11 +1215,14 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1201,14 +1232,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1217,9 +1252,11 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1234,11 +1271,16 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1253,14 +1295,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -2529,6 +2575,7 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2540,9 +2587,206 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B0A3CB-148C-4CD8-982C-EF476CADA524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="3533775"/>
+          <a:ext cx="1447800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901A002D-15CF-4991-A222-8DF271985AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="3533775"/>
+          <a:ext cx="1447800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3A5DBA-0402-4A02-B089-455FBBEB445B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8496300" y="3533775"/>
+          <a:ext cx="1447800" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFE1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <sortState ref="A2:L41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
@@ -2565,10 +2809,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
-  <sortState ref="A10:D64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D64">
     <sortCondition ref="C1:C64"/>
   </sortState>
   <tableColumns count="4">
@@ -2581,9 +2825,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{21EE8601-D93F-4E1D-89BA-AD90D26868FA}" name="Table4" displayName="Table4" ref="A1:O41" totalsRowShown="0">
-  <sortState ref="A2:O41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition descending="1" ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
@@ -2609,10 +2853,10 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="A2:K33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
@@ -2632,42 +2876,42 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:K41" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:K41"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0">
+  <autoFilter ref="A1:K41" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Isolate"/>
-    <tableColumn id="2" name="Site"/>
-    <tableColumn id="3" name="State"/>
-    <tableColumn id="4" name="Year"/>
-    <tableColumn id="5" name="Host"/>
-    <tableColumn id="6" name="Rating"/>
-    <tableColumn id="7" name="Pathogenicity"/>
-    <tableColumn id="8" name="Sequenced"/>
-    <tableColumn id="9" name="MAT_Type"/>
-    <tableColumn id="10" name="Haplotype"/>
-    <tableColumn id="11" name="Pathotype"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Isolate"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="State"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Host"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Rating"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Pathogenicity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Sequenced"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="MAT_Type"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Haplotype"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Pathotype"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:L41" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:L41"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table9" displayName="Table9" ref="A1:L41" totalsRowShown="0">
+  <autoFilter ref="A1:L41" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Isolate"/>
-    <tableColumn id="2" name="Site"/>
-    <tableColumn id="3" name="State"/>
-    <tableColumn id="4" name="Year"/>
-    <tableColumn id="5" name="Host"/>
-    <tableColumn id="6" name="Rating"/>
-    <tableColumn id="7" name="Pathogenicity"/>
-    <tableColumn id="8" name="Sequenced"/>
-    <tableColumn id="9" name="MAT_Type"/>
-    <tableColumn id="10" name="Haplotype"/>
-    <tableColumn id="11" name="Pathotype"/>
-    <tableColumn id="12" name="Patho.Group"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Isolate"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Site"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="State"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Host"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Rating"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Pathogenicity"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Sequenced"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="MAT_Type"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Haplotype"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Pathotype"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Patho.Group"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2993,30 +3237,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
@@ -3064,7 +3307,7 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>2013</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3082,7 +3325,7 @@
       <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14" t="n">
+      <c r="J2" s="14">
         <v>4</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -3092,7 +3335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
@@ -3102,7 +3345,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>2014</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3120,7 +3363,7 @@
       <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="n">
+      <c r="J3" s="14">
         <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -3130,7 +3373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3383,7 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>2015</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3158,7 +3401,7 @@
       <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="n">
+      <c r="J4" s="14">
         <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -3168,7 +3411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -3178,7 +3421,7 @@
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>2015</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3196,7 +3439,7 @@
       <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="14">
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -3206,7 +3449,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>92</v>
       </c>
@@ -3216,7 +3459,7 @@
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>2016</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -3234,7 +3477,7 @@
       <c r="I6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="14">
         <v>4</v>
       </c>
       <c r="K6" s="9"/>
@@ -3242,7 +3485,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>89</v>
       </c>
@@ -3252,7 +3495,7 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>2017</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3270,7 +3513,7 @@
       <c r="I7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="14">
         <v>4</v>
       </c>
       <c r="K7" s="4"/>
@@ -3278,7 +3521,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>91</v>
       </c>
@@ -3288,7 +3531,7 @@
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>2017</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -3306,7 +3549,7 @@
       <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="14" t="n">
+      <c r="J8" s="14">
         <v>4</v>
       </c>
       <c r="K8" s="9"/>
@@ -3314,7 +3557,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -3324,7 +3567,7 @@
       <c r="C9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>2017</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -3342,7 +3585,7 @@
       <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="14">
         <v>4</v>
       </c>
       <c r="K9" s="9"/>
@@ -3350,7 +3593,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -3360,7 +3603,7 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>2017</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -3378,7 +3621,7 @@
       <c r="I10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="14" t="n">
+      <c r="J10" s="14">
         <v>4</v>
       </c>
       <c r="K10" s="9"/>
@@ -3386,7 +3629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>72</v>
       </c>
@@ -3396,7 +3639,7 @@
       <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="9">
         <v>2013</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -3414,7 +3657,7 @@
       <c r="I11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="14">
         <v>3</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -3424,7 +3667,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
@@ -3434,7 +3677,7 @@
       <c r="C12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>2015</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -3452,7 +3695,7 @@
       <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="14" t="n">
+      <c r="J12" s="14">
         <v>3</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -3462,7 +3705,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
@@ -3472,7 +3715,7 @@
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>2015</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3490,7 +3733,7 @@
       <c r="I13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="14">
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -3500,7 +3743,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3753,7 @@
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="9">
         <v>2015</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -3528,7 +3771,7 @@
       <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="14">
         <v>3</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -3538,7 +3781,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
@@ -3548,7 +3791,7 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>2015</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -3566,7 +3809,7 @@
       <c r="I15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="12">
         <v>3</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -3576,7 +3819,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>78</v>
       </c>
@@ -3586,7 +3829,7 @@
       <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>2015</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -3604,7 +3847,7 @@
       <c r="I16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="12" t="n">
+      <c r="J16" s="12">
         <v>3</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -3614,7 +3857,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
@@ -3624,7 +3867,7 @@
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="4">
         <v>2015</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3642,7 +3885,7 @@
       <c r="I17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="12">
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -3652,7 +3895,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>97</v>
       </c>
@@ -3662,7 +3905,7 @@
       <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="9">
         <v>2016</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -3680,7 +3923,7 @@
       <c r="I18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="19" t="n">
+      <c r="J18" s="19">
         <v>3</v>
       </c>
       <c r="K18" s="9"/>
@@ -3688,7 +3931,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>77</v>
       </c>
@@ -3698,7 +3941,7 @@
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>2016</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3716,7 +3959,7 @@
       <c r="I19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="19" t="n">
+      <c r="J19" s="19">
         <v>3</v>
       </c>
       <c r="K19" s="4"/>
@@ -3724,7 +3967,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>75</v>
       </c>
@@ -3734,7 +3977,7 @@
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="9">
         <v>2016</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3752,7 +3995,7 @@
       <c r="I20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="12" t="n">
+      <c r="J20" s="12">
         <v>3</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -3762,7 +4005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>76</v>
       </c>
@@ -3772,7 +4015,7 @@
       <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="4">
         <v>2016</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3790,7 +4033,7 @@
       <c r="I21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="12" t="n">
+      <c r="J21" s="12">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -3800,7 +4043,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
@@ -3810,7 +4053,7 @@
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="9">
         <v>2017</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -3828,7 +4071,7 @@
       <c r="I22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="19">
         <v>3</v>
       </c>
       <c r="K22" s="9"/>
@@ -3836,7 +4079,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>98</v>
       </c>
@@ -3846,7 +4089,7 @@
       <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="9">
         <v>2017</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -3864,7 +4107,7 @@
       <c r="I23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J23" s="19">
         <v>3</v>
       </c>
       <c r="K23" s="9"/>
@@ -3872,7 +4115,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>93</v>
       </c>
@@ -3882,7 +4125,7 @@
       <c r="C24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="9">
         <v>2017</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -3900,7 +4143,7 @@
       <c r="I24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="19" t="n">
+      <c r="J24" s="19">
         <v>3</v>
       </c>
       <c r="K24" s="9"/>
@@ -3908,7 +4151,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
@@ -3918,7 +4161,7 @@
       <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="4">
         <v>2017</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3936,7 +4179,7 @@
       <c r="I25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="23" t="n">
+      <c r="J25" s="23">
         <v>3</v>
       </c>
       <c r="K25" s="4"/>
@@ -3944,7 +4187,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>71</v>
       </c>
@@ -3954,7 +4197,7 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="4">
         <v>2013</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -3972,7 +4215,7 @@
       <c r="I26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="12" t="n">
+      <c r="J26" s="12">
         <v>2</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -3982,7 +4225,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>74</v>
       </c>
@@ -3992,7 +4235,7 @@
       <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="9">
         <v>2015</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -4010,7 +4253,7 @@
       <c r="I27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="8">
         <v>2</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -4020,7 +4263,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>101</v>
       </c>
@@ -4030,7 +4273,7 @@
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="4">
         <v>2016</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -4048,7 +4291,7 @@
       <c r="I28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J28" s="3">
         <v>2</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -4058,7 +4301,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>99</v>
       </c>
@@ -4068,7 +4311,7 @@
       <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="4">
         <v>2016</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -4086,7 +4329,7 @@
       <c r="I29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="7">
         <v>2</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -4096,7 +4339,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>29</v>
       </c>
@@ -4106,7 +4349,7 @@
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="4">
         <v>2014</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4124,7 +4367,7 @@
       <c r="I30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="12" t="n">
+      <c r="J30" s="12">
         <v>1</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -4134,7 +4377,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>32</v>
       </c>
@@ -4144,7 +4387,7 @@
       <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>2014</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -4162,7 +4405,7 @@
       <c r="I31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="12" t="n">
+      <c r="J31" s="12">
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -4172,7 +4415,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>41</v>
       </c>
@@ -4182,7 +4425,7 @@
       <c r="C32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="9">
         <v>2015</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -4200,7 +4443,7 @@
       <c r="I32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="12" t="n">
+      <c r="J32" s="12">
         <v>1</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -4210,7 +4453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>143</v>
       </c>
@@ -4220,7 +4463,7 @@
       <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="9">
         <v>2016</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -4238,7 +4481,7 @@
       <c r="I33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="9"/>
@@ -4246,7 +4489,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>104</v>
       </c>
@@ -4256,7 +4499,7 @@
       <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="4">
         <v>2016</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -4274,7 +4517,7 @@
       <c r="I34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -4284,7 +4527,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
@@ -4294,7 +4537,7 @@
       <c r="C35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="9">
         <v>2016</v>
       </c>
       <c r="E35" s="9" t="s">
@@ -4312,7 +4555,7 @@
       <c r="I35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="5">
         <v>1</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -4322,7 +4565,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>34</v>
       </c>
@@ -4332,7 +4575,7 @@
       <c r="C36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="9">
         <v>2014</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -4350,7 +4593,7 @@
       <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="23" t="n">
+      <c r="J36" s="23">
         <v>0</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -4360,7 +4603,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
@@ -4370,7 +4613,7 @@
       <c r="C37" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="9">
         <v>2015</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -4388,7 +4631,7 @@
       <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="23" t="n">
+      <c r="J37" s="23">
         <v>0</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -4398,7 +4641,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>109</v>
       </c>
@@ -4408,7 +4651,7 @@
       <c r="C38" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="4">
         <v>2017</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -4426,7 +4669,7 @@
       <c r="I38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="4"/>
@@ -4434,7 +4677,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>114</v>
       </c>
@@ -4444,7 +4687,7 @@
       <c r="C39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>2017</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -4462,7 +4705,7 @@
       <c r="I39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="15" t="n">
+      <c r="J39" s="15">
         <v>0</v>
       </c>
       <c r="K39" s="4"/>
@@ -4470,7 +4713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>142</v>
       </c>
@@ -4480,7 +4723,7 @@
       <c r="C40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="9">
         <v>2017</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -4498,7 +4741,7 @@
       <c r="I40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="9"/>
@@ -4506,7 +4749,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -4516,7 +4759,7 @@
       <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="4">
         <v>2017</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -4534,7 +4777,7 @@
       <c r="I41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="4"/>
@@ -4800,30 +5043,30 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="43.86328125" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>117</v>
       </c>
@@ -4837,7 +5080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>32</v>
       </c>
@@ -4849,7 +5092,7 @@
       </c>
       <c r="D2" s="29"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>74</v>
       </c>
@@ -4861,7 +5104,7 @@
       </c>
       <c r="D3" s="27"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>14</v>
       </c>
@@ -4873,7 +5116,7 @@
       </c>
       <c r="D4" s="29"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>118</v>
       </c>
@@ -4887,7 +5130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
@@ -4901,7 +5144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>123</v>
       </c>
@@ -4913,7 +5156,7 @@
       </c>
       <c r="D7" s="27"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>27</v>
       </c>
@@ -4925,7 +5168,7 @@
       </c>
       <c r="D8" s="29"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>124</v>
       </c>
@@ -4939,7 +5182,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>186</v>
       </c>
@@ -4951,7 +5194,7 @@
       </c>
       <c r="D10" s="29"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>75</v>
       </c>
@@ -4963,7 +5206,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>125</v>
       </c>
@@ -4977,7 +5220,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>174</v>
       </c>
@@ -4989,7 +5232,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>175</v>
       </c>
@@ -5003,7 +5246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>76</v>
       </c>
@@ -5015,7 +5258,7 @@
       </c>
       <c r="D15" s="27"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>126</v>
       </c>
@@ -5027,7 +5270,7 @@
       </c>
       <c r="D16" s="29"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>176</v>
       </c>
@@ -5039,7 +5282,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>127</v>
       </c>
@@ -5051,7 +5294,7 @@
       </c>
       <c r="D18" s="29"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>177</v>
       </c>
@@ -5063,7 +5306,7 @@
       </c>
       <c r="D19" s="27"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>128</v>
       </c>
@@ -5077,7 +5320,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>178</v>
       </c>
@@ -5091,7 +5334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>179</v>
       </c>
@@ -5105,7 +5348,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>129</v>
       </c>
@@ -5117,7 +5360,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>180</v>
       </c>
@@ -5129,7 +5372,7 @@
       </c>
       <c r="D24" s="29"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>130</v>
       </c>
@@ -5141,7 +5384,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>181</v>
       </c>
@@ -5153,7 +5396,7 @@
       </c>
       <c r="D26" s="29"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>77</v>
       </c>
@@ -5165,7 +5408,7 @@
       </c>
       <c r="D27" s="27"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>182</v>
       </c>
@@ -5177,7 +5420,7 @@
       </c>
       <c r="D28" s="29"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>131</v>
       </c>
@@ -5189,7 +5432,7 @@
       </c>
       <c r="D29" s="27"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>183</v>
       </c>
@@ -5201,7 +5444,7 @@
       </c>
       <c r="D30" s="29"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>132</v>
       </c>
@@ -5213,7 +5456,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>161</v>
       </c>
@@ -5225,7 +5468,7 @@
       </c>
       <c r="D32" s="29"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>133</v>
       </c>
@@ -5237,7 +5480,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>162</v>
       </c>
@@ -5249,7 +5492,7 @@
       </c>
       <c r="D34" s="29"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>163</v>
       </c>
@@ -5261,7 +5504,7 @@
       </c>
       <c r="D35" s="27"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>164</v>
       </c>
@@ -5275,7 +5518,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>47</v>
       </c>
@@ -5287,7 +5530,7 @@
       </c>
       <c r="D37" s="27"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>72</v>
       </c>
@@ -5299,7 +5542,7 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>71</v>
       </c>
@@ -5311,7 +5554,7 @@
       </c>
       <c r="D39" s="27"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>122</v>
       </c>
@@ -5325,7 +5568,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>121</v>
       </c>
@@ -5337,7 +5580,7 @@
       </c>
       <c r="D41" s="27"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>119</v>
       </c>
@@ -5349,7 +5592,7 @@
       </c>
       <c r="D42" s="29"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>120</v>
       </c>
@@ -5361,7 +5604,7 @@
       </c>
       <c r="D43" s="27"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>78</v>
       </c>
@@ -5373,7 +5616,7 @@
       </c>
       <c r="D44" s="29"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>29</v>
       </c>
@@ -5385,7 +5628,7 @@
       </c>
       <c r="D45" s="27"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>34</v>
       </c>
@@ -5397,7 +5640,7 @@
       </c>
       <c r="D46" s="29"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>22</v>
       </c>
@@ -5409,7 +5652,7 @@
       </c>
       <c r="D47" s="27"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>134</v>
       </c>
@@ -5423,7 +5666,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
         <v>165</v>
       </c>
@@ -5437,7 +5680,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>166</v>
       </c>
@@ -5449,7 +5692,7 @@
       </c>
       <c r="D50" s="29"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>135</v>
       </c>
@@ -5463,7 +5706,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>167</v>
       </c>
@@ -5477,7 +5720,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>136</v>
       </c>
@@ -5489,7 +5732,7 @@
       </c>
       <c r="D53" s="27"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>168</v>
       </c>
@@ -5501,7 +5744,7 @@
       </c>
       <c r="D54" s="29"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>137</v>
       </c>
@@ -5515,7 +5758,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>169</v>
       </c>
@@ -5529,7 +5772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>138</v>
       </c>
@@ -5541,7 +5784,7 @@
       </c>
       <c r="D57" s="27"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>170</v>
       </c>
@@ -5553,7 +5796,7 @@
       </c>
       <c r="D58" s="29"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>139</v>
       </c>
@@ -5567,7 +5810,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>171</v>
       </c>
@@ -5581,7 +5824,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>140</v>
       </c>
@@ -5595,7 +5838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>172</v>
       </c>
@@ -5609,7 +5852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>141</v>
       </c>
@@ -5623,7 +5866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>173</v>
       </c>
@@ -5639,24 +5882,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>117</v>
       </c>
@@ -5697,8 +5940,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="36" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="36">
         <v>8</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -5706,7 +5949,7 @@
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="36" t="n">
+      <c r="E2" s="36">
         <v>2017</v>
       </c>
       <c r="F2" s="36"/>
@@ -5720,8 +5963,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="35" t="n">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
         <v>13</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -5733,7 +5976,7 @@
       <c r="D3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="35">
         <v>2016</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -5775,35 +6018,33 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection sqref="A1:O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="10" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="15.265625" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="12.265625" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5850,7 +6091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5860,7 +6101,7 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2017</v>
       </c>
       <c r="E2" t="s">
@@ -5878,7 +6119,7 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
@@ -5897,7 +6138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5907,7 +6148,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
@@ -5925,7 +6166,7 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>5</v>
       </c>
       <c r="K3" t="s">
@@ -5944,7 +6185,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5954,7 +6195,7 @@
       <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
@@ -5972,7 +6213,7 @@
       <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>5</v>
       </c>
       <c r="K4" t="s">
@@ -5991,7 +6232,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -6001,7 +6242,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2017</v>
       </c>
       <c r="E5" t="s">
@@ -6019,7 +6260,7 @@
       <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" t="s">
@@ -6038,7 +6279,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -6048,7 +6289,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2017</v>
       </c>
       <c r="E6" t="s">
@@ -6066,7 +6307,7 @@
       <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
@@ -6085,7 +6326,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -6095,7 +6336,7 @@
       <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
@@ -6113,7 +6354,7 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
@@ -6132,7 +6373,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6383,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2016</v>
       </c>
       <c r="E8" t="s">
@@ -6160,7 +6401,7 @@
       <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
@@ -6179,7 +6420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6189,7 +6430,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
@@ -6207,7 +6448,7 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>4</v>
       </c>
       <c r="K9" t="s">
@@ -6226,7 +6467,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6236,7 +6477,7 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2015</v>
       </c>
       <c r="E10" t="s">
@@ -6254,7 +6495,7 @@
       <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4</v>
       </c>
       <c r="K10" t="s">
@@ -6273,7 +6514,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6283,7 +6524,7 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2014</v>
       </c>
       <c r="E11" t="s">
@@ -6301,7 +6542,7 @@
       <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" t="s">
@@ -6320,7 +6561,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6330,7 +6571,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
@@ -6348,7 +6589,7 @@
       <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>4</v>
       </c>
       <c r="K12" t="s">
@@ -6367,7 +6608,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6377,7 +6618,7 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2017</v>
       </c>
       <c r="E13" t="s">
@@ -6395,7 +6636,7 @@
       <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" t="s">
@@ -6414,7 +6655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6424,7 +6665,7 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2017</v>
       </c>
       <c r="E14" t="s">
@@ -6442,7 +6683,7 @@
       <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>3</v>
       </c>
       <c r="K14" t="s">
@@ -6461,7 +6702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -6471,7 +6712,7 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
@@ -6489,7 +6730,7 @@
       <c r="I15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>3</v>
       </c>
       <c r="K15" t="s">
@@ -6508,7 +6749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6518,7 +6759,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
@@ -6536,7 +6777,7 @@
       <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" t="s">
@@ -6555,7 +6796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -6565,7 +6806,7 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
@@ -6583,7 +6824,7 @@
       <c r="I17" t="s">
         <v>10</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" t="s">
@@ -6602,7 +6843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -6612,7 +6853,7 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
@@ -6630,7 +6871,7 @@
       <c r="I18" t="s">
         <v>10</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
@@ -6649,7 +6890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6659,7 +6900,7 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2015</v>
       </c>
       <c r="E19" t="s">
@@ -6677,7 +6918,7 @@
       <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
@@ -6696,7 +6937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6706,7 +6947,7 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2015</v>
       </c>
       <c r="E20" t="s">
@@ -6724,7 +6965,7 @@
       <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
@@ -6743,7 +6984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -6753,7 +6994,7 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2015</v>
       </c>
       <c r="E21" t="s">
@@ -6771,7 +7012,7 @@
       <c r="I21" t="s">
         <v>10</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>3</v>
       </c>
       <c r="K21" t="s">
@@ -6790,7 +7031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -6800,7 +7041,7 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2015</v>
       </c>
       <c r="E22" t="s">
@@ -6818,7 +7059,7 @@
       <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
@@ -6837,7 +7078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -6847,7 +7088,7 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2015</v>
       </c>
       <c r="E23" t="s">
@@ -6865,7 +7106,7 @@
       <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>3</v>
       </c>
       <c r="K23" t="s">
@@ -6884,7 +7125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -6894,7 +7135,7 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2015</v>
       </c>
       <c r="E24" t="s">
@@ -6912,7 +7153,7 @@
       <c r="I24" t="s">
         <v>10</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>3</v>
       </c>
       <c r="K24" t="s">
@@ -6931,7 +7172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -6941,7 +7182,7 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2013</v>
       </c>
       <c r="E25" t="s">
@@ -6959,7 +7200,7 @@
       <c r="I25" t="s">
         <v>10</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" t="s">
@@ -6978,7 +7219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6988,7 +7229,7 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
@@ -7006,7 +7247,7 @@
       <c r="I26" t="s">
         <v>10</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
@@ -7025,7 +7266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -7035,7 +7276,7 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2016</v>
       </c>
       <c r="E27" t="s">
@@ -7053,7 +7294,7 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>2</v>
       </c>
       <c r="K27" t="s">
@@ -7072,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -7082,7 +7323,7 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28" t="s">
@@ -7100,7 +7341,7 @@
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>2</v>
       </c>
       <c r="K28" t="s">
@@ -7119,7 +7360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -7129,7 +7370,7 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2013</v>
       </c>
       <c r="E29" t="s">
@@ -7147,7 +7388,7 @@
       <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
@@ -7166,7 +7407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -7176,7 +7417,7 @@
       <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2016</v>
       </c>
       <c r="E30" t="s">
@@ -7194,7 +7435,7 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
@@ -7213,7 +7454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7223,7 +7464,7 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2016</v>
       </c>
       <c r="E31" t="s">
@@ -7241,7 +7482,7 @@
       <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
@@ -7260,7 +7501,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -7270,7 +7511,7 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2016</v>
       </c>
       <c r="E32" t="s">
@@ -7288,7 +7529,7 @@
       <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
@@ -7307,7 +7548,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -7317,7 +7558,7 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2015</v>
       </c>
       <c r="E33" t="s">
@@ -7335,7 +7576,7 @@
       <c r="I33" t="s">
         <v>10</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
@@ -7354,7 +7595,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -7364,7 +7605,7 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2014</v>
       </c>
       <c r="E34" t="s">
@@ -7382,7 +7623,7 @@
       <c r="I34" t="s">
         <v>10</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
@@ -7401,7 +7642,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7411,7 +7652,7 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2014</v>
       </c>
       <c r="E35" t="s">
@@ -7429,7 +7670,7 @@
       <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" t="s">
@@ -7448,7 +7689,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -7458,7 +7699,7 @@
       <c r="C36" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2017</v>
       </c>
       <c r="E36" t="s">
@@ -7476,7 +7717,7 @@
       <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
@@ -7495,7 +7736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7505,7 +7746,7 @@
       <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2017</v>
       </c>
       <c r="E37" t="s">
@@ -7523,7 +7764,7 @@
       <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
@@ -7542,7 +7783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -7552,7 +7793,7 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
@@ -7570,7 +7811,7 @@
       <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
@@ -7589,7 +7830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -7599,7 +7840,7 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
@@ -7617,7 +7858,7 @@
       <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
@@ -7636,7 +7877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -7646,7 +7887,7 @@
       <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2015</v>
       </c>
       <c r="E40" t="s">
@@ -7664,7 +7905,7 @@
       <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
@@ -7683,7 +7924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -7693,7 +7934,7 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2014</v>
       </c>
       <c r="E41" t="s">
@@ -7711,7 +7952,7 @@
       <c r="I41" t="s">
         <v>28</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
@@ -7755,27 +7996,27 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>202</v>
       </c>
@@ -7792,104 +8033,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43" t="n">
+      <c r="B2" s="43">
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="n">
+      <c r="C2" s="43">
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="43">
         <v>1</v>
       </c>
-      <c r="E2" s="43" t="n">
+      <c r="E2" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="n">
+      <c r="B3" s="43">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="n">
+      <c r="C3" s="43">
         <v>0</v>
       </c>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="43">
         <v>1</v>
       </c>
-      <c r="E3" s="43" t="n">
+      <c r="E3" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="n">
+      <c r="B4" s="43">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="n">
+      <c r="C4" s="43">
         <v>0</v>
       </c>
-      <c r="D4" s="43" t="n">
+      <c r="D4" s="43">
         <v>1</v>
       </c>
-      <c r="E4" s="43" t="n">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="43" t="n">
+      <c r="B5" s="43">
         <v>0</v>
       </c>
-      <c r="C5" s="43" t="n">
+      <c r="C5" s="43">
         <v>0</v>
       </c>
-      <c r="D5" s="43" t="n">
+      <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="E5" s="43" t="n">
+      <c r="E5" s="43">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.265625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="8" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="14" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -7924,7 +8165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -7949,7 +8190,7 @@
       <c r="H2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -7959,7 +8200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -7984,13 +8225,13 @@
       <c r="H3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="60" t="n">
+      <c r="I3" s="60">
         <v>1</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -8015,7 +8256,7 @@
       <c r="H4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="59" t="n">
+      <c r="I4" s="59">
         <v>2</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -8025,7 +8266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -8050,7 +8291,7 @@
       <c r="H5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="14">
         <v>4</v>
       </c>
       <c r="J5" s="46" t="s">
@@ -8060,7 +8301,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -8085,7 +8326,7 @@
       <c r="H6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -8095,7 +8336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8120,7 +8361,7 @@
       <c r="H7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="14">
         <v>4</v>
       </c>
       <c r="J7" s="46" t="s">
@@ -8130,7 +8371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -8155,7 +8396,7 @@
       <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="15">
         <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -8165,7 +8406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -8190,7 +8431,7 @@
       <c r="H9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="14">
         <v>3</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -8200,7 +8441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -8225,7 +8466,7 @@
       <c r="H10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="60" t="n">
+      <c r="I10" s="60">
         <v>4</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -8233,7 +8474,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -8258,7 +8499,7 @@
       <c r="H11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="14">
         <v>3</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -8268,7 +8509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
@@ -8293,7 +8534,7 @@
       <c r="H12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="14">
         <v>3</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -8303,7 +8544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -8328,7 +8569,7 @@
       <c r="H13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="57" t="n">
+      <c r="I13" s="57">
         <v>3</v>
       </c>
       <c r="J13" s="56"/>
@@ -8336,7 +8577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -8361,7 +8602,7 @@
       <c r="H14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="60" t="n">
+      <c r="I14" s="60">
         <v>4</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -8369,7 +8610,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -8394,7 +8635,7 @@
       <c r="H15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="14" t="n">
+      <c r="I15" s="14">
         <v>4</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -8404,7 +8645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -8429,7 +8670,7 @@
       <c r="H16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="14" t="n">
+      <c r="I16" s="14">
         <v>3</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -8439,7 +8680,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
@@ -8464,7 +8705,7 @@
       <c r="H17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="14" t="n">
+      <c r="I17" s="14">
         <v>2</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -8474,7 +8715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -8499,13 +8740,13 @@
       <c r="H18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="60" t="n">
+      <c r="I18" s="60">
         <v>1</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -8530,13 +8771,13 @@
       <c r="H19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="60" t="n">
+      <c r="I19" s="60">
         <v>1</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -8561,7 +8802,7 @@
       <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="16">
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -8571,7 +8812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -8596,13 +8837,13 @@
       <c r="H21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="60" t="n">
+      <c r="I21" s="60">
         <v>1</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -8627,7 +8868,7 @@
       <c r="H22" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I22" s="14">
         <v>3</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -8637,7 +8878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
@@ -8662,7 +8903,7 @@
       <c r="H23" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="60" t="n">
+      <c r="I23" s="60">
         <v>4</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -8670,7 +8911,7 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
@@ -8695,7 +8936,7 @@
       <c r="H24" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="14" t="n">
+      <c r="I24" s="14">
         <v>3</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -8705,7 +8946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -8730,7 +8971,7 @@
       <c r="H25" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="14">
         <v>3</v>
       </c>
       <c r="J25" s="46" t="s">
@@ -8740,7 +8981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -8765,7 +9006,7 @@
       <c r="H26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="14">
         <v>3</v>
       </c>
       <c r="J26" s="9" t="s">
@@ -8775,7 +9016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
@@ -8800,7 +9041,7 @@
       <c r="H27" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="14" t="n">
+      <c r="I27" s="14">
         <v>3</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -8810,7 +9051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
@@ -8835,7 +9076,7 @@
       <c r="H28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="14" t="n">
+      <c r="I28" s="14">
         <v>1</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -8845,7 +9086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -8870,7 +9111,7 @@
       <c r="H29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="15">
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -8880,7 +9121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -8905,7 +9146,7 @@
       <c r="H30" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="53" t="n">
+      <c r="I30" s="53">
         <v>4</v>
       </c>
       <c r="J30" s="54" t="s">
@@ -8913,7 +9154,7 @@
       </c>
       <c r="K30" s="54"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
@@ -8938,7 +9179,7 @@
       <c r="H31" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="58" t="n">
+      <c r="I31" s="58">
         <v>4</v>
       </c>
       <c r="J31" s="54" t="s">
@@ -8948,7 +9189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -8973,7 +9214,7 @@
       <c r="H32" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="53" t="n">
+      <c r="I32" s="53">
         <v>1</v>
       </c>
       <c r="J32" s="54" t="s">
@@ -8981,7 +9222,7 @@
       </c>
       <c r="K32" s="54"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -9006,7 +9247,7 @@
       <c r="H33" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="53" t="n">
+      <c r="I33" s="53">
         <v>1</v>
       </c>
       <c r="J33" s="54"/>
@@ -9062,30 +9303,31 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rIdvml"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
@@ -9096,7 +9338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>48</v>
       </c>
@@ -9107,7 +9349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>47</v>
       </c>
@@ -9118,7 +9360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
@@ -9129,12 +9371,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>12</v>
       </c>
@@ -9145,7 +9387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
         <v>22</v>
       </c>
@@ -9156,7 +9398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
         <v>45</v>
       </c>
@@ -9167,12 +9409,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>20</v>
       </c>
@@ -9183,7 +9425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>44</v>
       </c>
@@ -9194,7 +9436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>43</v>
       </c>
@@ -9205,7 +9447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>42</v>
       </c>
@@ -9216,12 +9458,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
         <v>14</v>
       </c>
@@ -9232,7 +9474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
@@ -9243,7 +9485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
         <v>41</v>
       </c>
@@ -9254,7 +9496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>40</v>
       </c>
@@ -9265,12 +9507,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="59" t="s">
         <v>39</v>
       </c>
@@ -9281,7 +9523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>19</v>
       </c>
@@ -9292,7 +9534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="59" t="s">
         <v>24</v>
       </c>
@@ -9303,12 +9545,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
         <v>25</v>
       </c>
@@ -9319,7 +9561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
         <v>38</v>
       </c>
@@ -9330,7 +9572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
         <v>37</v>
       </c>
@@ -9343,19 +9585,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -9390,7 +9632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -9400,7 +9642,7 @@
       <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
@@ -9409,7 +9651,7 @@
       <c r="F2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
@@ -9425,7 +9667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -9435,7 +9677,7 @@
       <c r="C3" t="s">
         <v>233</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
@@ -9444,7 +9686,7 @@
       <c r="F3" t="s">
         <v>226</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
@@ -9460,7 +9702,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -9470,7 +9712,7 @@
       <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
@@ -9479,7 +9721,7 @@
       <c r="F4" t="s">
         <v>226</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
@@ -9495,7 +9737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -9505,7 +9747,7 @@
       <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
@@ -9514,7 +9756,7 @@
       <c r="F5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
@@ -9530,7 +9772,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -9540,7 +9782,7 @@
       <c r="C6" t="s">
         <v>238</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2016</v>
       </c>
       <c r="E6" t="s">
@@ -9549,7 +9791,7 @@
       <c r="F6" t="s">
         <v>226</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
@@ -9565,7 +9807,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -9575,7 +9817,7 @@
       <c r="C7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
@@ -9584,7 +9826,7 @@
       <c r="F7" t="s">
         <v>226</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -9600,7 +9842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -9610,7 +9852,7 @@
       <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
@@ -9619,7 +9861,7 @@
       <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
@@ -9635,7 +9877,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -9645,7 +9887,7 @@
       <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
@@ -9654,7 +9896,7 @@
       <c r="F9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
@@ -9670,7 +9912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -9680,7 +9922,7 @@
       <c r="C10" t="s">
         <v>224</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
@@ -9689,7 +9931,7 @@
       <c r="F10" t="s">
         <v>226</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
@@ -9705,7 +9947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -9715,7 +9957,7 @@
       <c r="C11" t="s">
         <v>224</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
@@ -9724,7 +9966,7 @@
       <c r="F11" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -9740,7 +9982,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -9750,7 +9992,7 @@
       <c r="C12" t="s">
         <v>224</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
@@ -9759,7 +10001,7 @@
       <c r="F12" t="s">
         <v>226</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
@@ -9775,7 +10017,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -9785,7 +10027,7 @@
       <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
@@ -9794,7 +10036,7 @@
       <c r="F13" t="s">
         <v>226</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
@@ -9810,7 +10052,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -9820,7 +10062,7 @@
       <c r="C14" t="s">
         <v>224</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
@@ -9829,7 +10071,7 @@
       <c r="F14" t="s">
         <v>226</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -9845,7 +10087,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -9855,7 +10097,7 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
@@ -9864,7 +10106,7 @@
       <c r="F15" t="s">
         <v>226</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
@@ -9880,7 +10122,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -9890,7 +10132,7 @@
       <c r="C16" t="s">
         <v>224</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
@@ -9899,7 +10141,7 @@
       <c r="F16" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
@@ -9915,7 +10157,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -9925,7 +10167,7 @@
       <c r="C17" t="s">
         <v>238</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
@@ -9934,7 +10176,7 @@
       <c r="F17" t="s">
         <v>226</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
@@ -9950,7 +10192,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -9960,7 +10202,7 @@
       <c r="C18" t="s">
         <v>224</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
@@ -9969,7 +10211,7 @@
       <c r="F18" t="s">
         <v>226</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
@@ -9985,7 +10227,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -9995,7 +10237,7 @@
       <c r="C19" t="s">
         <v>224</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
@@ -10004,7 +10246,7 @@
       <c r="F19" t="s">
         <v>226</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
@@ -10020,7 +10262,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -10030,7 +10272,7 @@
       <c r="C20" t="s">
         <v>238</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
@@ -10039,7 +10281,7 @@
       <c r="F20" t="s">
         <v>226</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
@@ -10055,7 +10297,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -10065,7 +10307,7 @@
       <c r="C21" t="s">
         <v>238</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
@@ -10074,7 +10316,7 @@
       <c r="F21" t="s">
         <v>226</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -10090,7 +10332,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -10100,7 +10342,7 @@
       <c r="C22" t="s">
         <v>233</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
@@ -10109,7 +10351,7 @@
       <c r="F22" t="s">
         <v>226</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
@@ -10125,7 +10367,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>276</v>
       </c>
@@ -10135,7 +10377,7 @@
       <c r="C23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
@@ -10144,7 +10386,7 @@
       <c r="F23" t="s">
         <v>226</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
@@ -10160,7 +10402,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -10170,7 +10412,7 @@
       <c r="C24" t="s">
         <v>255</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
@@ -10179,7 +10421,7 @@
       <c r="F24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
@@ -10195,7 +10437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -10205,7 +10447,7 @@
       <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
@@ -10214,7 +10456,7 @@
       <c r="F25" t="s">
         <v>226</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
@@ -10230,7 +10472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>280</v>
       </c>
@@ -10240,7 +10482,7 @@
       <c r="C26" t="s">
         <v>224</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
@@ -10249,7 +10491,7 @@
       <c r="F26" t="s">
         <v>226</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
@@ -10265,7 +10507,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -10275,7 +10517,7 @@
       <c r="C27" t="s">
         <v>238</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
@@ -10284,7 +10526,7 @@
       <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
@@ -10300,7 +10542,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -10310,7 +10552,7 @@
       <c r="C28" t="s">
         <v>233</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
@@ -10319,7 +10561,7 @@
       <c r="F28" t="s">
         <v>226</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
@@ -10335,7 +10577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>285</v>
       </c>
@@ -10345,7 +10587,7 @@
       <c r="C29" t="s">
         <v>238</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
@@ -10354,7 +10596,7 @@
       <c r="F29" t="s">
         <v>226</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
@@ -10370,7 +10612,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -10380,7 +10622,7 @@
       <c r="C30" t="s">
         <v>233</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" t="s">
@@ -10389,7 +10631,7 @@
       <c r="F30" t="s">
         <v>226</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -10405,7 +10647,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -10415,7 +10657,7 @@
       <c r="C31" t="s">
         <v>238</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" t="s">
@@ -10424,7 +10666,7 @@
       <c r="F31" t="s">
         <v>226</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -10440,7 +10682,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -10450,7 +10692,7 @@
       <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2015</v>
       </c>
       <c r="E32" t="s">
@@ -10459,7 +10701,7 @@
       <c r="F32" t="s">
         <v>226</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
@@ -10475,7 +10717,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -10485,7 +10727,7 @@
       <c r="C33" t="s">
         <v>233</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
@@ -10494,7 +10736,7 @@
       <c r="F33" t="s">
         <v>226</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
@@ -10510,7 +10752,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>293</v>
       </c>
@@ -10520,7 +10762,7 @@
       <c r="C34" t="s">
         <v>238</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
@@ -10529,7 +10771,7 @@
       <c r="F34" t="s">
         <v>226</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
@@ -10545,7 +10787,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -10555,7 +10797,7 @@
       <c r="C35" t="s">
         <v>238</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2016</v>
       </c>
       <c r="E35" t="s">
@@ -10564,7 +10806,7 @@
       <c r="F35" t="s">
         <v>226</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
@@ -10580,7 +10822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -10590,7 +10832,7 @@
       <c r="C36" t="s">
         <v>233</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2014</v>
       </c>
       <c r="E36" t="s">
@@ -10599,7 +10841,7 @@
       <c r="F36" t="s">
         <v>297</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -10615,7 +10857,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -10625,7 +10867,7 @@
       <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2015</v>
       </c>
       <c r="E37" t="s">
@@ -10634,7 +10876,7 @@
       <c r="F37" t="s">
         <v>297</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
@@ -10650,7 +10892,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -10660,7 +10902,7 @@
       <c r="C38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
@@ -10669,7 +10911,7 @@
       <c r="F38" t="s">
         <v>297</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
@@ -10685,7 +10927,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -10695,7 +10937,7 @@
       <c r="C39" t="s">
         <v>255</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
@@ -10704,7 +10946,7 @@
       <c r="F39" t="s">
         <v>297</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
@@ -10720,7 +10962,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>302</v>
       </c>
@@ -10730,7 +10972,7 @@
       <c r="C40" t="s">
         <v>224</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
@@ -10739,7 +10981,7 @@
       <c r="F40" t="s">
         <v>297</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
@@ -10755,7 +10997,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>304</v>
       </c>
@@ -10765,7 +11007,7 @@
       <c r="C41" t="s">
         <v>238</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2017</v>
       </c>
       <c r="E41" t="s">
@@ -10774,7 +11016,7 @@
       <c r="F41" t="s">
         <v>297</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
@@ -10792,22 +11034,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -10845,7 +11087,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -10855,7 +11097,7 @@
       <c r="C2" t="s">
         <v>224</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
@@ -10864,7 +11106,7 @@
       <c r="F2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
@@ -10883,7 +11125,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -10893,7 +11135,7 @@
       <c r="C3" t="s">
         <v>233</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
@@ -10902,7 +11144,7 @@
       <c r="F3" t="s">
         <v>226</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
@@ -10921,7 +11163,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -10931,7 +11173,7 @@
       <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
@@ -10940,7 +11182,7 @@
       <c r="F4" t="s">
         <v>226</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
@@ -10959,7 +11201,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -10969,7 +11211,7 @@
       <c r="C5" t="s">
         <v>238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
@@ -10978,7 +11220,7 @@
       <c r="F5" t="s">
         <v>226</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
@@ -10997,7 +11239,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -11007,7 +11249,7 @@
       <c r="C6" t="s">
         <v>238</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2016</v>
       </c>
       <c r="E6" t="s">
@@ -11016,7 +11258,7 @@
       <c r="F6" t="s">
         <v>226</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
@@ -11035,7 +11277,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>246</v>
       </c>
@@ -11045,7 +11287,7 @@
       <c r="C7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
@@ -11054,7 +11296,7 @@
       <c r="F7" t="s">
         <v>226</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
@@ -11073,7 +11315,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>251</v>
       </c>
@@ -11083,7 +11325,7 @@
       <c r="C8" t="s">
         <v>233</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
@@ -11092,7 +11334,7 @@
       <c r="F8" t="s">
         <v>226</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
@@ -11111,7 +11353,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -11121,7 +11363,7 @@
       <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
@@ -11130,7 +11372,7 @@
       <c r="F9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
@@ -11149,7 +11391,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>257</v>
       </c>
@@ -11159,7 +11401,7 @@
       <c r="C10" t="s">
         <v>224</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
@@ -11168,7 +11410,7 @@
       <c r="F10" t="s">
         <v>226</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
@@ -11187,7 +11429,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -11197,7 +11439,7 @@
       <c r="C11" t="s">
         <v>224</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
@@ -11206,7 +11448,7 @@
       <c r="F11" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
@@ -11225,7 +11467,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -11235,7 +11477,7 @@
       <c r="C12" t="s">
         <v>224</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
@@ -11244,7 +11486,7 @@
       <c r="F12" t="s">
         <v>226</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
@@ -11263,7 +11505,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -11273,7 +11515,7 @@
       <c r="C13" t="s">
         <v>224</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
@@ -11282,7 +11524,7 @@
       <c r="F13" t="s">
         <v>226</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
@@ -11301,7 +11543,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -11311,7 +11553,7 @@
       <c r="C14" t="s">
         <v>224</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
@@ -11320,7 +11562,7 @@
       <c r="F14" t="s">
         <v>226</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
@@ -11339,7 +11581,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>265</v>
       </c>
@@ -11349,7 +11591,7 @@
       <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
@@ -11358,7 +11600,7 @@
       <c r="F15" t="s">
         <v>226</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
@@ -11377,7 +11619,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>266</v>
       </c>
@@ -11387,7 +11629,7 @@
       <c r="C16" t="s">
         <v>224</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
@@ -11396,7 +11638,7 @@
       <c r="F16" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
@@ -11415,7 +11657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -11425,7 +11667,7 @@
       <c r="C17" t="s">
         <v>238</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
@@ -11434,7 +11676,7 @@
       <c r="F17" t="s">
         <v>226</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
@@ -11453,7 +11695,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -11463,7 +11705,7 @@
       <c r="C18" t="s">
         <v>224</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
@@ -11472,7 +11714,7 @@
       <c r="F18" t="s">
         <v>226</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
@@ -11491,7 +11733,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -11501,7 +11743,7 @@
       <c r="C19" t="s">
         <v>224</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
@@ -11510,7 +11752,7 @@
       <c r="F19" t="s">
         <v>226</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
@@ -11529,7 +11771,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>272</v>
       </c>
@@ -11539,7 +11781,7 @@
       <c r="C20" t="s">
         <v>238</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
@@ -11548,7 +11790,7 @@
       <c r="F20" t="s">
         <v>226</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
@@ -11567,7 +11809,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>273</v>
       </c>
@@ -11577,7 +11819,7 @@
       <c r="C21" t="s">
         <v>238</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
@@ -11586,7 +11828,7 @@
       <c r="F21" t="s">
         <v>226</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
@@ -11605,7 +11847,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -11615,7 +11857,7 @@
       <c r="C22" t="s">
         <v>233</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
@@ -11624,7 +11866,7 @@
       <c r="F22" t="s">
         <v>226</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
@@ -11643,7 +11885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>276</v>
       </c>
@@ -11653,7 +11895,7 @@
       <c r="C23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
@@ -11662,7 +11904,7 @@
       <c r="F23" t="s">
         <v>226</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
@@ -11681,7 +11923,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>277</v>
       </c>
@@ -11691,7 +11933,7 @@
       <c r="C24" t="s">
         <v>255</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
@@ -11700,7 +11942,7 @@
       <c r="F24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
@@ -11719,7 +11961,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>279</v>
       </c>
@@ -11729,7 +11971,7 @@
       <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
@@ -11738,7 +11980,7 @@
       <c r="F25" t="s">
         <v>226</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
@@ -11757,7 +11999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>280</v>
       </c>
@@ -11767,7 +12009,7 @@
       <c r="C26" t="s">
         <v>224</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
@@ -11776,7 +12018,7 @@
       <c r="F26" t="s">
         <v>226</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
@@ -11795,7 +12037,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -11805,7 +12047,7 @@
       <c r="C27" t="s">
         <v>238</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
@@ -11814,7 +12056,7 @@
       <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
@@ -11833,7 +12075,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -11843,7 +12085,7 @@
       <c r="C28" t="s">
         <v>233</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
@@ -11852,7 +12094,7 @@
       <c r="F28" t="s">
         <v>226</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
@@ -11871,7 +12113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>285</v>
       </c>
@@ -11881,7 +12123,7 @@
       <c r="C29" t="s">
         <v>238</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
@@ -11890,7 +12132,7 @@
       <c r="F29" t="s">
         <v>226</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
@@ -11909,7 +12151,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>287</v>
       </c>
@@ -11919,7 +12161,7 @@
       <c r="C30" t="s">
         <v>233</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" t="s">
@@ -11928,7 +12170,7 @@
       <c r="F30" t="s">
         <v>226</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
@@ -11947,7 +12189,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>289</v>
       </c>
@@ -11957,7 +12199,7 @@
       <c r="C31" t="s">
         <v>238</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" t="s">
@@ -11966,7 +12208,7 @@
       <c r="F31" t="s">
         <v>226</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
@@ -11985,7 +12227,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -11995,7 +12237,7 @@
       <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2015</v>
       </c>
       <c r="E32" t="s">
@@ -12004,7 +12246,7 @@
       <c r="F32" t="s">
         <v>226</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
@@ -12023,7 +12265,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -12033,7 +12275,7 @@
       <c r="C33" t="s">
         <v>233</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
@@ -12042,7 +12284,7 @@
       <c r="F33" t="s">
         <v>226</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
@@ -12061,7 +12303,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>293</v>
       </c>
@@ -12071,7 +12313,7 @@
       <c r="C34" t="s">
         <v>238</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
@@ -12080,7 +12322,7 @@
       <c r="F34" t="s">
         <v>226</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
@@ -12099,7 +12341,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>295</v>
       </c>
@@ -12109,7 +12351,7 @@
       <c r="C35" t="s">
         <v>238</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>2016</v>
       </c>
       <c r="E35" t="s">
@@ -12118,7 +12360,7 @@
       <c r="F35" t="s">
         <v>226</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
@@ -12137,7 +12379,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -12147,7 +12389,7 @@
       <c r="C36" t="s">
         <v>233</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2014</v>
       </c>
       <c r="E36" t="s">
@@ -12156,7 +12398,7 @@
       <c r="F36" t="s">
         <v>297</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -12175,7 +12417,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>298</v>
       </c>
@@ -12185,7 +12427,7 @@
       <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2015</v>
       </c>
       <c r="E37" t="s">
@@ -12194,7 +12436,7 @@
       <c r="F37" t="s">
         <v>297</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
@@ -12213,7 +12455,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>299</v>
       </c>
@@ -12223,7 +12465,7 @@
       <c r="C38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
@@ -12232,7 +12474,7 @@
       <c r="F38" t="s">
         <v>297</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
@@ -12251,7 +12493,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -12261,7 +12503,7 @@
       <c r="C39" t="s">
         <v>255</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
@@ -12270,7 +12512,7 @@
       <c r="F39" t="s">
         <v>297</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
@@ -12289,7 +12531,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>302</v>
       </c>
@@ -12299,7 +12541,7 @@
       <c r="C40" t="s">
         <v>224</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
@@ -12308,7 +12550,7 @@
       <c r="F40" t="s">
         <v>297</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
@@ -12327,7 +12569,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>304</v>
       </c>
@@ -12337,7 +12579,7 @@
       <c r="C41" t="s">
         <v>238</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2017</v>
       </c>
       <c r="E41" t="s">
@@ -12346,7 +12588,7 @@
       <c r="F41" t="s">
         <v>297</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
@@ -12367,9 +12609,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -12617,8 +12617,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42ecaa076ba7b5f9f254444984003d50">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a8bc80ff444d7dab34ac23551786ca6b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="358320d33f278d9b7f7e34366ecf6985">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bd4b1f74759cbf81d0fcc62805ca8ba" ns2:_="" ns3:_="">
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <xsd:element name="properties">
@@ -12638,6 +12638,8 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12695,6 +12697,16 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -12845,7 +12857,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50AD18EC-FA73-407C-B1D4-537808E10F1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386BBDF2-D9B2-496B-AFE0-3EB20CA6D7A0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -9095,29 +9095,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038EC5152544FA941B2FCF6FC911C1211" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0a7b694108ffeb4d5e14fa8f2f5e4a2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f38ef60c-44b8-4b3e-b84e-3f774f47ec01" xmlns:ns4="77420ce7-ad61-40a5-b28d-42d2f2a680a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cc2d357fdf517c32b7ae6696f0078b7" ns3:_="" ns4:_="">
-    <xsd:import namespace="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
-    <xsd:import namespace="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="358320d33f278d9b7f7e34366ecf6985">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bd4b1f74759cbf81d0fcc62805ca8ba" ns2:_="" ns3:_="">
+    <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
+    <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9125,7 +9125,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f38ef60c-44b8-4b3e-b84e-3f774f47ec01" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1f3c66e0-7684-4412-85ae-938bcfc42664" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -9138,9 +9138,16 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
@@ -9148,45 +9155,43 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="17" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="77420ce7-ad61-40a5-b28d-42d2f2a680a0" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -9205,16 +9210,11 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9328,27 +9328,14 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E51EC21-F22B-490E-8776-BB08FE496BF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f38ef60c-44b8-4b3e-b84e-3f774f47ec01"/>
-    <ds:schemaRef ds:uri="77420ce7-ad61-40a5-b28d-42d2f2a680a0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A235746-D480-4DF7-B3BB-B7039D1A930F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ido Bar\OneDrive - Griffith University\Research\A_rabiei\Sophie_A_rabiei_WGS\A_rabiei_WGS_analysis\sample_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/GRDCA.rabieiTender2020/Shared Documents/General/Isolate collection/Genomics/A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B966DC0-5273-400F-ADEE-2C07B0093703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6276ADC3-215A-4D3B-92A3-78D1B923BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="317">
   <si>
     <t>Isolate</t>
   </si>
@@ -506,9 +506,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Duplicate of FT15030</t>
-  </si>
-  <si>
     <t>Coonalpyn</t>
   </si>
   <si>
@@ -1002,13 +999,28 @@
   </si>
   <si>
     <t>Group0</t>
+  </si>
+  <si>
+    <t>Duplicate of FT15030, DO NOT USE!</t>
+  </si>
+  <si>
+    <t>CloudStor_Folder</t>
+  </si>
+  <si>
+    <t>AGRF_CAGRF19461_HGMLMAFXY</t>
+  </si>
+  <si>
+    <t>AgVic_WGS2018</t>
+  </si>
+  <si>
+    <t>Macrogen_sequences_1702KHP-0164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,8 +1073,29 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,8 +1180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1308,11 +1347,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1477,11 +1528,96 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1872,36 +2008,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2785,41 +2891,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5572FCD-A755-4762-8393-7A04F393885C}" name="Table2" displayName="Table2" ref="A1:L41" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L41">
     <sortCondition descending="1" ref="J2:J41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="C2:C41"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{B4D2A589-505E-4080-B340-A922F5551E86}" name="Isolate" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1E8522FF-47CB-41CB-AEC2-04139993991D}" name="Site" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{74F0F75E-3122-43B0-92CD-B7DA10E13882}" name="State" dataDxfId="34"/>
     <tableColumn id="12" xr3:uid="{9F84C422-8790-42EE-8A7B-89FD537EF716}" name="Sequenced"/>
-    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{17413865-617C-4ED1-BDF1-5C2B05C22F0F}" name="Collection_Year" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{24DF00BE-59E7-4115-AA74-162DE658E041}" name="Host Cultivar" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{09C5A796-9CA2-4C3F-9CA4-4F214BCE9523}" name="ICC3996" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{D0D03B17-F57C-4DB1-BB40-36D57EC88EF4}" name="Genesis090" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{F4C28E67-F4E7-4D2B-B545-79507B6DC0B2}" name="HatTrick" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{9D7E32AB-0701-4980-97FF-69E517E2B623}" name="Rating" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{E7D666DB-F408-411A-8E5F-6DF06B0A97FB}" name="Pathogenicity" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{7C84594C-4BF0-4263-8CFF-59E09782F30F}" name="Haplotype" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:D64" totalsRowShown="0" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A1:D64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:D64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AA5A7274-40DF-49DD-96EA-F8EDB374FA68}" name="Table3" displayName="Table3" ref="A1:E64" totalsRowShown="0" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:E64" xr:uid="{DD96D66A-74A9-40FD-9BD1-BA6D4E069ABC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E64">
     <sortCondition ref="C1:C64"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="18"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{340154F9-D122-4547-B6EE-9AE760C7F7F6}" name="CloudStor_Folder" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2854,23 +2961,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3240,26 +3347,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="3" width="13.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.1328125" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3297,7 +3404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
@@ -3332,10 +3439,10 @@
         <v>11</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
@@ -3370,10 +3477,10 @@
         <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
@@ -3408,10 +3515,10 @@
         <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -3446,10 +3553,10 @@
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>92</v>
       </c>
@@ -3482,10 +3589,10 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>89</v>
       </c>
@@ -3518,10 +3625,10 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>91</v>
       </c>
@@ -3554,10 +3661,10 @@
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -3590,10 +3697,10 @@
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -3626,10 +3733,10 @@
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>72</v>
       </c>
@@ -3664,10 +3771,10 @@
         <v>11</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>23</v>
       </c>
@@ -3702,10 +3809,10 @@
         <v>11</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
@@ -3740,10 +3847,10 @@
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>25</v>
       </c>
@@ -3778,10 +3885,10 @@
         <v>26</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>38</v>
       </c>
@@ -3816,10 +3923,10 @@
         <v>11</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>78</v>
       </c>
@@ -3854,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
@@ -3892,10 +3999,10 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>97</v>
       </c>
@@ -3928,10 +4035,10 @@
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>77</v>
       </c>
@@ -3964,10 +4071,10 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>75</v>
       </c>
@@ -4002,10 +4109,10 @@
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>76</v>
       </c>
@@ -4040,10 +4147,10 @@
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>95</v>
       </c>
@@ -4076,10 +4183,10 @@
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>98</v>
       </c>
@@ -4112,10 +4219,10 @@
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>93</v>
       </c>
@@ -4148,10 +4255,10 @@
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>113</v>
       </c>
@@ -4184,10 +4291,10 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>71</v>
       </c>
@@ -4222,10 +4329,10 @@
         <v>11</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>74</v>
       </c>
@@ -4260,10 +4367,10 @@
         <v>11</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>101</v>
       </c>
@@ -4298,10 +4405,10 @@
         <v>11</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>99</v>
       </c>
@@ -4336,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>29</v>
       </c>
@@ -4374,10 +4481,10 @@
         <v>11</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>32</v>
       </c>
@@ -4412,10 +4519,10 @@
         <v>11</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>41</v>
       </c>
@@ -4450,10 +4557,10 @@
         <v>11</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>143</v>
       </c>
@@ -4486,10 +4593,10 @@
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>104</v>
       </c>
@@ -4524,10 +4631,10 @@
         <v>11</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>105</v>
       </c>
@@ -4562,10 +4669,10 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>34</v>
       </c>
@@ -4600,10 +4707,10 @@
         <v>11</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>35</v>
       </c>
@@ -4638,10 +4745,10 @@
         <v>11</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>109</v>
       </c>
@@ -4674,10 +4781,10 @@
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>114</v>
       </c>
@@ -4710,15 +4817,15 @@
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>8</v>
@@ -4746,10 +4853,10 @@
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -4782,7 +4889,7 @@
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4847,6 +4954,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -4867,7 +4984,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="23">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4877,8 +4996,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4890,16 +5007,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5052,21 +5159,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" customWidth="1"/>
-    <col min="4" max="4" width="43.86328125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>117</v>
       </c>
@@ -5076,365 +5183,460 @@
       <c r="C1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="32" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>92</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>113</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="27" t="s">
+      <c r="D26" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>142</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D28" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>95</v>
@@ -5442,47 +5644,59 @@
       <c r="C30" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="D30" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C32" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D32" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>84</v>
@@ -5490,401 +5704,495 @@
       <c r="C34" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D34" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D35" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D36" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="27"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="27"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D44" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="27"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D45" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D46" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D47" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="27"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E52" s="27"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="27"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="27"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>158</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" s="27"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{B5EBCCB6-5948-4A41-9895-88EB72FB170C}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{130FEEC9-A9D4-41DD-9C9C-CF8F4FA87F6B}"/>
+    <hyperlink ref="D4:D19" r:id="rId3" display="AGRF_CAGRF19461_HGMLMAFXY" xr:uid="{A88CB2E1-44FB-4E79-8E09-04EA93F2A33E}"/>
+    <hyperlink ref="D20" r:id="rId4" xr:uid="{AB213D7D-15EE-4C93-BDC3-88A108CEA38E}"/>
+    <hyperlink ref="D21:D43" r:id="rId5" display="AgVic_WGS2018" xr:uid="{485D7DF0-66E5-45BA-9D44-D8DD6D079231}"/>
+    <hyperlink ref="D44" r:id="rId6" xr:uid="{ABF8277F-6BF0-4715-9D64-9812273A0CD1}"/>
+    <hyperlink ref="D45:D64" r:id="rId7" display="Macrogen_sequences_1702KHP-0164" xr:uid="{725B3D1F-E4BA-4895-8E19-F1A754D8824D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5897,9 +6205,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>117</v>
       </c>
@@ -5940,7 +6248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
         <v>8</v>
       </c>
@@ -5963,7 +6271,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>13</v>
       </c>
@@ -6030,21 +6338,21 @@
       <selection sqref="A1:O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="13.265625" customWidth="1"/>
-    <col min="8" max="8" width="10.265625" customWidth="1"/>
-    <col min="10" max="11" width="15.265625" customWidth="1"/>
-    <col min="13" max="13" width="9.265625" customWidth="1"/>
-    <col min="14" max="15" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="10" max="11" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6079,19 +6387,19 @@
         <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -6123,22 +6431,22 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" t="s">
         <v>209</v>
       </c>
-      <c r="M2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -6170,22 +6478,22 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" t="s">
         <v>209</v>
       </c>
-      <c r="M3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -6217,22 +6525,22 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" t="s">
         <v>209</v>
       </c>
-      <c r="M4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -6264,22 +6572,22 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" t="s">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -6311,22 +6619,22 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -6358,22 +6666,22 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -6405,22 +6713,22 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6452,22 +6760,22 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6499,22 +6807,22 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6546,22 +6854,22 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6593,22 +6901,22 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -6640,22 +6948,22 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -6687,22 +6995,22 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -6734,22 +7042,22 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6781,22 +7089,22 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L16" t="s">
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -6828,22 +7136,22 @@
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s">
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -6875,22 +7183,22 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s">
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6922,22 +7230,22 @@
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6969,22 +7277,22 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
         <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -7016,22 +7324,22 @@
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
         <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -7063,22 +7371,22 @@
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -7110,22 +7418,22 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -7157,22 +7465,22 @@
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -7204,22 +7512,22 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -7251,22 +7559,22 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -7298,22 +7606,22 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s">
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -7345,22 +7653,22 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s">
         <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -7392,22 +7700,22 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -7439,22 +7747,22 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s">
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7486,22 +7794,22 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -7533,22 +7841,22 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s">
         <v>3</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -7580,22 +7888,22 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
         <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -7627,22 +7935,22 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
       </c>
       <c r="M34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7674,22 +7982,22 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s">
         <v>21</v>
       </c>
       <c r="M35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -7721,22 +8029,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -7768,27 +8076,27 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -7815,22 +8123,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s">
         <v>3</v>
       </c>
       <c r="M38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -7862,22 +8170,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s">
         <v>3</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -7909,22 +8217,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s">
         <v>3</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -7956,16 +8264,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s">
         <v>4</v>
       </c>
       <c r="M41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O41" t="s">
         <v>28</v>
@@ -7973,14 +8281,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:I41">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Moderate">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Moderate">
       <formula>NOT(ISERROR(SEARCH("Moderate",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J41">
@@ -8011,17 +8319,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>28</v>
@@ -8033,7 +8341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
@@ -8050,7 +8358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
@@ -8067,7 +8375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
@@ -8084,9 +8392,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="43">
         <v>0</v>
@@ -8115,22 +8423,22 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.265625" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="7.1328125" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="11.265625" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -8165,7 +8473,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -8200,7 +8508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -8231,7 +8539,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>74</v>
       </c>
@@ -8266,7 +8574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -8301,7 +8609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -8336,7 +8644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8371,7 +8679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -8406,7 +8714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -8441,7 +8749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -8474,7 +8782,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -8509,7 +8817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>76</v>
       </c>
@@ -8544,7 +8852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -8577,7 +8885,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -8610,7 +8918,7 @@
       </c>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -8645,7 +8953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
@@ -8680,7 +8988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
@@ -8715,7 +9023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -8746,7 +9054,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -8777,7 +9085,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -8812,7 +9120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
@@ -8843,7 +9151,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -8878,7 +9186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
@@ -8911,7 +9219,7 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
@@ -8946,7 +9254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -8981,7 +9289,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -9016,7 +9324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>78</v>
       </c>
@@ -9051,7 +9359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
@@ -9086,7 +9394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -9121,7 +9429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -9154,7 +9462,7 @@
       </c>
       <c r="K30" s="54"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
@@ -9189,7 +9497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -9222,7 +9530,7 @@
       </c>
       <c r="K32" s="54"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>61</v>
       </c>
@@ -9320,14 +9628,14 @@
       <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
@@ -9338,7 +9646,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>48</v>
       </c>
@@ -9349,7 +9657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>47</v>
       </c>
@@ -9360,7 +9668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
@@ -9371,12 +9679,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>12</v>
       </c>
@@ -9387,7 +9695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>22</v>
       </c>
@@ -9398,7 +9706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>45</v>
       </c>
@@ -9409,12 +9717,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
         <v>20</v>
       </c>
@@ -9425,7 +9733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
         <v>44</v>
       </c>
@@ -9436,7 +9744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>43</v>
       </c>
@@ -9447,7 +9755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>42</v>
       </c>
@@ -9458,12 +9766,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>14</v>
       </c>
@@ -9474,7 +9782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>17</v>
       </c>
@@ -9485,7 +9793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>41</v>
       </c>
@@ -9496,7 +9804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
         <v>40</v>
       </c>
@@ -9507,12 +9815,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
         <v>39</v>
       </c>
@@ -9523,7 +9831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
         <v>19</v>
       </c>
@@ -9534,7 +9842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
         <v>24</v>
       </c>
@@ -9545,12 +9853,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="59" t="s">
         <v>25</v>
       </c>
@@ -9561,7 +9869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>38</v>
       </c>
@@ -9572,7 +9880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="59" t="s">
         <v>37</v>
       </c>
@@ -9595,1441 +9903,1441 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>215</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>219</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>220</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>224</v>
       </c>
       <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
         <v>225</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="s">
         <v>227</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>228</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>229</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" t="s">
         <v>227</v>
       </c>
-      <c r="I3" t="s">
-        <v>228</v>
-      </c>
       <c r="J3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>235</v>
       </c>
-      <c r="K3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>237</v>
-      </c>
-      <c r="C4" t="s">
-        <v>238</v>
       </c>
       <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>226</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" t="s">
         <v>227</v>
       </c>
-      <c r="I4" t="s">
-        <v>228</v>
-      </c>
       <c r="J4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>240</v>
-      </c>
       <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
         <v>237</v>
-      </c>
-      <c r="C5" t="s">
-        <v>238</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
         <v>225</v>
-      </c>
-      <c r="F5" t="s">
-        <v>226</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
         <v>241</v>
       </c>
-      <c r="I5" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>242</v>
       </c>
-      <c r="K5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
       <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
       </c>
       <c r="D6">
         <v>2016</v>
       </c>
       <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
         <v>225</v>
-      </c>
-      <c r="F6" t="s">
-        <v>226</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" t="s">
         <v>244</v>
       </c>
-      <c r="I6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>245</v>
       </c>
-      <c r="K6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" t="s">
         <v>249</v>
       </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>252</v>
       </c>
-      <c r="J8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>253</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>254</v>
-      </c>
-      <c r="C9" t="s">
-        <v>255</v>
       </c>
       <c r="D9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" t="s">
         <v>244</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>256</v>
       </c>
-      <c r="J9" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>257</v>
       </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
         <v>225</v>
-      </c>
-      <c r="F10" t="s">
-        <v>226</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" t="s">
         <v>244</v>
       </c>
-      <c r="I10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" t="s">
-        <v>245</v>
-      </c>
       <c r="K10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
         <v>223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
         <v>225</v>
       </c>
-      <c r="F11" t="s">
-        <v>226</v>
-      </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
         <v>260</v>
       </c>
-      <c r="B12" t="s">
-        <v>261</v>
-      </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
         <v>225</v>
       </c>
-      <c r="F12" t="s">
-        <v>226</v>
-      </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" t="s">
         <v>244</v>
       </c>
-      <c r="I12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J12" t="s">
-        <v>245</v>
-      </c>
       <c r="K12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
         <v>225</v>
       </c>
-      <c r="F13" t="s">
-        <v>226</v>
-      </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" t="s">
         <v>244</v>
       </c>
-      <c r="I13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J13" t="s">
-        <v>245</v>
-      </c>
       <c r="K13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
         <v>263</v>
       </c>
-      <c r="B14" t="s">
-        <v>264</v>
-      </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
         <v>225</v>
       </c>
-      <c r="F14" t="s">
-        <v>226</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" t="s">
         <v>244</v>
       </c>
-      <c r="I14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" t="s">
-        <v>245</v>
-      </c>
       <c r="K14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
         <v>225</v>
       </c>
-      <c r="F15" t="s">
-        <v>226</v>
-      </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" t="s">
         <v>244</v>
       </c>
-      <c r="I15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J15" t="s">
-        <v>245</v>
-      </c>
       <c r="K15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" t="s">
         <v>225</v>
       </c>
-      <c r="F16" t="s">
-        <v>226</v>
-      </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
         <v>267</v>
       </c>
-      <c r="B17" t="s">
-        <v>268</v>
-      </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>269</v>
       </c>
-      <c r="F17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>270</v>
-      </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" t="s">
         <v>225</v>
       </c>
-      <c r="F18" t="s">
-        <v>226</v>
-      </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
         <v>225</v>
       </c>
-      <c r="F19" t="s">
-        <v>226</v>
-      </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" t="s">
         <v>244</v>
       </c>
-      <c r="I19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" t="s">
-        <v>245</v>
-      </c>
       <c r="K19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
         <v>237</v>
-      </c>
-      <c r="C20" t="s">
-        <v>238</v>
       </c>
       <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" t="s">
         <v>225</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
         <v>226</v>
       </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>227</v>
       </c>
-      <c r="I20" t="s">
-        <v>228</v>
-      </c>
       <c r="J20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" t="s">
-        <v>238</v>
       </c>
       <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" t="s">
         <v>225</v>
       </c>
-      <c r="F21" t="s">
-        <v>226</v>
-      </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
         <v>274</v>
       </c>
-      <c r="B22" t="s">
-        <v>275</v>
-      </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" t="s">
         <v>225</v>
-      </c>
-      <c r="F22" t="s">
-        <v>226</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" t="s">
         <v>244</v>
       </c>
-      <c r="I22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" t="s">
-        <v>245</v>
-      </c>
       <c r="K22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
         <v>248</v>
       </c>
-      <c r="F23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J23" t="s">
-        <v>249</v>
-      </c>
       <c r="K23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="B24" t="s">
-        <v>278</v>
-      </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" t="s">
         <v>244</v>
       </c>
-      <c r="I24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J24" t="s">
-        <v>245</v>
-      </c>
       <c r="K24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
         <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>238</v>
       </c>
       <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" t="s">
         <v>225</v>
       </c>
-      <c r="F25" t="s">
-        <v>226</v>
-      </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
         <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
       </c>
       <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
         <v>225</v>
-      </c>
-      <c r="F26" t="s">
-        <v>226</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>282</v>
-      </c>
       <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
         <v>237</v>
-      </c>
-      <c r="C27" t="s">
-        <v>238</v>
       </c>
       <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
         <v>225</v>
-      </c>
-      <c r="F27" t="s">
-        <v>226</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
         <v>244</v>
       </c>
-      <c r="I27" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" t="s">
-        <v>245</v>
-      </c>
       <c r="K27" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" t="s">
         <v>283</v>
       </c>
-      <c r="B28" t="s">
-        <v>284</v>
-      </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
         <v>237</v>
-      </c>
-      <c r="C29" t="s">
-        <v>238</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" t="s">
         <v>225</v>
-      </c>
-      <c r="F29" t="s">
-        <v>226</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>286</v>
       </c>
-      <c r="K29" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>287</v>
-      </c>
       <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
         <v>232</v>
-      </c>
-      <c r="C30" t="s">
-        <v>233</v>
       </c>
       <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" t="s">
         <v>227</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>228</v>
       </c>
-      <c r="J30" t="s">
-        <v>229</v>
-      </c>
       <c r="K30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>289</v>
-      </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
         <v>237</v>
-      </c>
-      <c r="C32" t="s">
-        <v>238</v>
       </c>
       <c r="D32">
         <v>2015</v>
       </c>
       <c r="E32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" t="s">
         <v>225</v>
-      </c>
-      <c r="F32" t="s">
-        <v>226</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" t="s">
         <v>227</v>
       </c>
-      <c r="I32" t="s">
-        <v>228</v>
-      </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s">
         <v>291</v>
       </c>
-      <c r="B33" t="s">
-        <v>292</v>
-      </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s">
         <v>293</v>
       </c>
-      <c r="B34" t="s">
-        <v>294</v>
-      </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
         <v>225</v>
-      </c>
-      <c r="F34" t="s">
-        <v>226</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35">
         <v>2016</v>
       </c>
       <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" t="s">
         <v>225</v>
-      </c>
-      <c r="F35" t="s">
-        <v>226</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
         <v>232</v>
-      </c>
-      <c r="C36" t="s">
-        <v>233</v>
       </c>
       <c r="D36">
         <v>2014</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>298</v>
-      </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37">
         <v>2015</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" t="s">
         <v>299</v>
       </c>
-      <c r="B38" t="s">
-        <v>300</v>
-      </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
         <v>244</v>
       </c>
-      <c r="I38" t="s">
-        <v>252</v>
-      </c>
-      <c r="J38" t="s">
-        <v>245</v>
-      </c>
       <c r="K38" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" t="s">
         <v>244</v>
       </c>
-      <c r="I39" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" t="s">
-        <v>245</v>
-      </c>
       <c r="K39" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s">
         <v>302</v>
       </c>
-      <c r="B40" t="s">
-        <v>303</v>
-      </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" t="s">
         <v>244</v>
       </c>
-      <c r="I40" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" t="s">
-        <v>245</v>
-      </c>
       <c r="K40" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
         <v>304</v>
       </c>
-      <c r="B41" t="s">
-        <v>305</v>
-      </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41">
         <v>2017</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" t="s">
+        <v>227</v>
+      </c>
+      <c r="J41" t="s">
         <v>244</v>
       </c>
-      <c r="I41" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" t="s">
-        <v>245</v>
-      </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -11045,1566 +11353,1566 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>215</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>219</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>220</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>221</v>
       </c>
-      <c r="L1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>223</v>
-      </c>
-      <c r="C2" t="s">
-        <v>224</v>
       </c>
       <c r="D2">
         <v>2013</v>
       </c>
       <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
         <v>225</v>
-      </c>
-      <c r="F2" t="s">
-        <v>226</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="s">
         <v>227</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>228</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>229</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>230</v>
       </c>
-      <c r="L2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>231</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" t="s">
         <v>227</v>
       </c>
-      <c r="I3" t="s">
-        <v>228</v>
-      </c>
       <c r="J3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>235</v>
       </c>
-      <c r="K3" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>237</v>
-      </c>
-      <c r="C4" t="s">
-        <v>238</v>
       </c>
       <c r="D4">
         <v>2015</v>
       </c>
       <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>226</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" t="s">
         <v>227</v>
       </c>
-      <c r="I4" t="s">
-        <v>228</v>
-      </c>
       <c r="J4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>240</v>
-      </c>
       <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
         <v>237</v>
-      </c>
-      <c r="C5" t="s">
-        <v>238</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
         <v>225</v>
-      </c>
-      <c r="F5" t="s">
-        <v>226</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
         <v>241</v>
       </c>
-      <c r="I5" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>242</v>
       </c>
-      <c r="K5" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
       <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>238</v>
       </c>
       <c r="D6">
         <v>2016</v>
       </c>
       <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
         <v>225</v>
-      </c>
-      <c r="F6" t="s">
-        <v>226</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" t="s">
         <v>244</v>
       </c>
-      <c r="I6" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>245</v>
       </c>
-      <c r="K6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>246</v>
       </c>
-      <c r="B7" t="s">
-        <v>247</v>
-      </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7">
         <v>2017</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" t="s">
         <v>249</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>250</v>
       </c>
-      <c r="L7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>251</v>
-      </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8">
         <v>2017</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>252</v>
       </c>
-      <c r="J8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K8" t="s">
-        <v>250</v>
-      </c>
-      <c r="L8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>253</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>254</v>
-      </c>
-      <c r="C9" t="s">
-        <v>255</v>
       </c>
       <c r="D9">
         <v>2017</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" t="s">
         <v>244</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>256</v>
       </c>
-      <c r="J9" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" t="s">
-        <v>250</v>
-      </c>
-      <c r="L9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>257</v>
       </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
         <v>225</v>
-      </c>
-      <c r="F10" t="s">
-        <v>226</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" t="s">
         <v>244</v>
       </c>
-      <c r="I10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" t="s">
-        <v>245</v>
-      </c>
       <c r="K10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
         <v>223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
         <v>225</v>
       </c>
-      <c r="F11" t="s">
-        <v>226</v>
-      </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
         <v>260</v>
       </c>
-      <c r="B12" t="s">
-        <v>261</v>
-      </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12">
         <v>2015</v>
       </c>
       <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
         <v>225</v>
       </c>
-      <c r="F12" t="s">
-        <v>226</v>
-      </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" t="s">
         <v>244</v>
       </c>
-      <c r="I12" t="s">
-        <v>228</v>
-      </c>
-      <c r="J12" t="s">
-        <v>245</v>
-      </c>
       <c r="K12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13">
         <v>2015</v>
       </c>
       <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
         <v>225</v>
       </c>
-      <c r="F13" t="s">
-        <v>226</v>
-      </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" t="s">
         <v>244</v>
       </c>
-      <c r="I13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J13" t="s">
-        <v>245</v>
-      </c>
       <c r="K13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
         <v>263</v>
       </c>
-      <c r="B14" t="s">
-        <v>264</v>
-      </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14">
         <v>2015</v>
       </c>
       <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" t="s">
         <v>225</v>
       </c>
-      <c r="F14" t="s">
-        <v>226</v>
-      </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" t="s">
         <v>244</v>
       </c>
-      <c r="I14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J14" t="s">
-        <v>245</v>
-      </c>
       <c r="K14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
         <v>225</v>
       </c>
-      <c r="F15" t="s">
-        <v>226</v>
-      </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" t="s">
+        <v>227</v>
+      </c>
+      <c r="J15" t="s">
         <v>244</v>
       </c>
-      <c r="I15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J15" t="s">
-        <v>245</v>
-      </c>
       <c r="K15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D16">
         <v>2015</v>
       </c>
       <c r="E16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" t="s">
         <v>225</v>
       </c>
-      <c r="F16" t="s">
-        <v>226</v>
-      </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" t="s">
         <v>267</v>
       </c>
-      <c r="B17" t="s">
-        <v>268</v>
-      </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17">
         <v>2015</v>
       </c>
       <c r="E17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J17" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>269</v>
       </c>
-      <c r="F17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>270</v>
-      </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" t="s">
         <v>225</v>
       </c>
-      <c r="F18" t="s">
-        <v>226</v>
-      </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" t="s">
         <v>225</v>
       </c>
-      <c r="F19" t="s">
-        <v>226</v>
-      </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" t="s">
         <v>244</v>
       </c>
-      <c r="I19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" t="s">
-        <v>245</v>
-      </c>
       <c r="K19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
         <v>237</v>
-      </c>
-      <c r="C20" t="s">
-        <v>238</v>
       </c>
       <c r="D20">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" t="s">
         <v>225</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
         <v>226</v>
       </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>227</v>
       </c>
-      <c r="I20" t="s">
-        <v>228</v>
-      </c>
       <c r="J20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" t="s">
-        <v>238</v>
       </c>
       <c r="D21">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" t="s">
         <v>225</v>
       </c>
-      <c r="F21" t="s">
-        <v>226</v>
-      </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
         <v>274</v>
       </c>
-      <c r="B22" t="s">
-        <v>275</v>
-      </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" t="s">
         <v>225</v>
-      </c>
-      <c r="F22" t="s">
-        <v>226</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" t="s">
         <v>244</v>
       </c>
-      <c r="I22" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" t="s">
-        <v>245</v>
-      </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23">
         <v>2017</v>
       </c>
       <c r="E23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
         <v>248</v>
       </c>
-      <c r="F23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J23" t="s">
-        <v>249</v>
-      </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="B24" t="s">
-        <v>278</v>
-      </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24">
         <v>2017</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
+        <v>243</v>
+      </c>
+      <c r="I24" t="s">
+        <v>251</v>
+      </c>
+      <c r="J24" t="s">
         <v>244</v>
       </c>
-      <c r="I24" t="s">
-        <v>252</v>
-      </c>
-      <c r="J24" t="s">
-        <v>245</v>
-      </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" t="s">
         <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>238</v>
       </c>
       <c r="D25">
         <v>2017</v>
       </c>
       <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" t="s">
         <v>225</v>
       </c>
-      <c r="F25" t="s">
-        <v>226</v>
-      </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
         <v>223</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
       </c>
       <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" t="s">
         <v>225</v>
-      </c>
-      <c r="F26" t="s">
-        <v>226</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
+        <v>280</v>
+      </c>
+      <c r="L26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>281</v>
       </c>
-      <c r="L26" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>282</v>
-      </c>
       <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
         <v>237</v>
-      </c>
-      <c r="C27" t="s">
-        <v>238</v>
       </c>
       <c r="D27">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
         <v>225</v>
-      </c>
-      <c r="F27" t="s">
-        <v>226</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
         <v>244</v>
       </c>
-      <c r="I27" t="s">
-        <v>228</v>
-      </c>
-      <c r="J27" t="s">
-        <v>245</v>
-      </c>
       <c r="K27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" t="s">
         <v>283</v>
       </c>
-      <c r="B28" t="s">
-        <v>284</v>
-      </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28">
         <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" t="s">
         <v>237</v>
-      </c>
-      <c r="C29" t="s">
-        <v>238</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" t="s">
         <v>225</v>
-      </c>
-      <c r="F29" t="s">
-        <v>226</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>286</v>
       </c>
-      <c r="K29" t="s">
-        <v>281</v>
-      </c>
-      <c r="L29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>287</v>
-      </c>
       <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
         <v>232</v>
-      </c>
-      <c r="C30" t="s">
-        <v>233</v>
       </c>
       <c r="D30">
         <v>2014</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" t="s">
         <v>227</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>228</v>
       </c>
-      <c r="J30" t="s">
-        <v>229</v>
-      </c>
       <c r="K30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>288</v>
       </c>
-      <c r="L30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>289</v>
-      </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31">
         <v>2014</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
         <v>237</v>
-      </c>
-      <c r="C32" t="s">
-        <v>238</v>
       </c>
       <c r="D32">
         <v>2015</v>
       </c>
       <c r="E32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" t="s">
         <v>225</v>
-      </c>
-      <c r="F32" t="s">
-        <v>226</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32" t="s">
         <v>227</v>
       </c>
-      <c r="I32" t="s">
-        <v>228</v>
-      </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s">
         <v>291</v>
       </c>
-      <c r="B33" t="s">
-        <v>292</v>
-      </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D33">
         <v>2016</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" t="s">
         <v>293</v>
       </c>
-      <c r="B34" t="s">
-        <v>294</v>
-      </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34">
         <v>2016</v>
       </c>
       <c r="E34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
         <v>225</v>
-      </c>
-      <c r="F34" t="s">
-        <v>226</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35">
         <v>2016</v>
       </c>
       <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" t="s">
         <v>225</v>
-      </c>
-      <c r="F35" t="s">
-        <v>226</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
         <v>232</v>
-      </c>
-      <c r="C36" t="s">
-        <v>233</v>
       </c>
       <c r="D36">
         <v>2014</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>297</v>
       </c>
-      <c r="L36" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>298</v>
-      </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37">
         <v>2015</v>
       </c>
       <c r="E37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B38" t="s">
         <v>299</v>
       </c>
-      <c r="B38" t="s">
-        <v>300</v>
-      </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38">
         <v>2017</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
         <v>244</v>
       </c>
-      <c r="I38" t="s">
-        <v>252</v>
-      </c>
-      <c r="J38" t="s">
-        <v>245</v>
-      </c>
       <c r="K38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39">
         <v>2017</v>
       </c>
       <c r="E39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" t="s">
         <v>244</v>
       </c>
-      <c r="I39" t="s">
-        <v>252</v>
-      </c>
-      <c r="J39" t="s">
-        <v>245</v>
-      </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" t="s">
         <v>302</v>
       </c>
-      <c r="B40" t="s">
-        <v>303</v>
-      </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40">
         <v>2017</v>
       </c>
       <c r="E40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
+        <v>243</v>
+      </c>
+      <c r="I40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" t="s">
         <v>244</v>
       </c>
-      <c r="I40" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" t="s">
-        <v>245</v>
-      </c>
       <c r="K40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
         <v>304</v>
       </c>
-      <c r="B41" t="s">
-        <v>305</v>
-      </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41">
         <v>2017</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
+        <v>243</v>
+      </c>
+      <c r="I41" t="s">
+        <v>227</v>
+      </c>
+      <c r="J41" t="s">
         <v>244</v>
       </c>
-      <c r="I41" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" t="s">
-        <v>245</v>
-      </c>
       <c r="K41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -12617,8 +12925,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="358320d33f278d9b7f7e34366ecf6985">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bd4b1f74759cbf81d0fcc62805ca8ba" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
+    <SharedWithUsers xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
+      <UserInfo>
+        <DisplayName>Niloofar Vaghefi</DisplayName>
+        <AccountId>75</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ido Bar</DisplayName>
+        <AccountId>6</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7a124c12a779a736f71215d7d4687bf">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2155876b7947a55992891bc9fceb70da" ns2:_="" ns3:_="">
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <xsd:element name="properties">
@@ -12640,6 +12981,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12709,6 +13052,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d7fcee89-5a73-4a7b-ac3d-7e05f09405fb" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -12738,6 +13088,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5b0dcb5e-3cf8-47e5-b6b0-eb9332a9b3dc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -12839,31 +13200,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386BBDF2-D9B2-496B-AFE0-3EB20CA6D7A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
+    <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F9A50B-FE35-4AF6-BA61-6994E837FD22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
+    <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/GRDCA.rabieiTender2020/Shared Documents/General/Isolate collection/Genomics/A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{6276ADC3-215A-4D3B-92A3-78D1B923BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D1C7DFCC-262D-4A5D-8AEA-D0AEE3B76F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
@@ -1554,72 +1554,6 @@
   <dxfs count="41">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2011,6 +1945,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2038,6 +2002,42 @@
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -2925,8 +2925,8 @@
     <tableColumn id="1" xr3:uid="{9D327445-B8AD-408B-860C-D230AF620F2A}" name="Submission_id" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{C68FDDA2-6D6D-46A4-9F4C-8AEF287AFCC3}" name="Isolate" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{358560ED-8842-4D42-B41E-D83DF3F9D166}" name="Sequencing_Centre" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{340154F9-D122-4547-B6EE-9AE760C7F7F6}" name="CloudStor_Folder" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{340154F9-D122-4547-B6EE-9AE760C7F7F6}" name="CloudStor_Folder" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{A846A1E7-9119-449E-B626-201497999850}" name="Comments" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2961,23 +2961,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3347,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -5161,7 +5161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D45" sqref="D45:D64"/>
     </sheetView>
   </sheetViews>
@@ -8281,13 +8281,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:I41">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Moderate">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Moderate">
       <formula>NOT(ISERROR(SEARCH("Moderate",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11353,7 +11353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -12944,6 +12944,8 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -12958,8 +12960,9 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7a124c12a779a736f71215d7d4687bf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2155876b7947a55992891bc9fceb70da" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a115b2da8a2eeee135fdd5733988381">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46fe6ebd3e8bf6d9df49fa3e9a691e0f" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <xsd:element name="properties">
@@ -12983,11 +12986,27 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="25" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1f3c66e0-7684-4412-85ae-938bcfc42664" elementFormDefault="qualified">
@@ -13207,6 +13226,7 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13220,12 +13240,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82F9A50B-FE35-4AF6-BA61-6994E837FD22}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7694355B-1680-442E-BD90-82A9B248101B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>

--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/GRDCA.rabieiTender2020/Shared Documents/General/Isolate collection/Genomics/A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D1C7DFCC-262D-4A5D-8AEA-D0AEE3B76F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C88978F9-C501-4160-99A0-61F4057A2920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1184,6 +1184,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -1363,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1546,6 +1558,21 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3347,7 +3374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -5161,8 +5188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5171,6 +5198,7 @@
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="48.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -5255,19 +5283,19 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="72" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5347,19 +5375,19 @@
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="72" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5462,19 +5490,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="76" t="s">
         <v>157</v>
       </c>
     </row>
@@ -12925,43 +12953,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
-    <SharedWithUsers xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
-      <UserInfo>
-        <DisplayName>Niloofar Vaghefi</DisplayName>
-        <AccountId>75</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ido Bar</DisplayName>
-        <AccountId>6</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a115b2da8a2eeee135fdd5733988381">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46fe6ebd3e8bf6d9df49fa3e9a691e0f" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="759527f59e11d69b52594aee1565f7b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfa3fb632320c027112c736c6f89e4dc" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
@@ -12988,6 +12981,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -13077,6 +13071,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="26" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
@@ -13219,28 +13218,43 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
-    <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
+    <SharedWithUsers xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
+      <UserInfo>
+        <DisplayName>Niloofar Vaghefi</DisplayName>
+        <AccountId>75</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ido Bar</DisplayName>
+        <AccountId>6</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7694355B-1680-442E-BD90-82A9B248101B}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{966FF025-0220-403C-9E72-08C59F4070C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -13257,4 +13271,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
+    <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{adaa4be3-f650-4692-881a-64ae220cbceb}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
+++ b/sample_info/A_rabiei_isolate_list_for_wgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/GRDCA.rabieiTender2020/Shared Documents/General/Isolate collection/Genomics/A_rabiei_WGS/A_rabiei_WGS_analysis/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C88978F9-C501-4160-99A0-61F4057A2920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{A3183006-2830-482C-965C-0583FE114C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequenced" sheetId="3" r:id="rId1"/>
@@ -1581,6 +1581,36 @@
   <dxfs count="41">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1969,36 +1999,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2988,23 +2988,23 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K33" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="A1:K33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K33">
     <sortCondition ref="A1:A33"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Isolate" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Site" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="State" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Host_Cultivar" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ICC3996" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Genesis090" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="HatTrick" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Rating" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pathogenicity" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Haplotype" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sequenced" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3052,9 +3052,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3092,9 +3092,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3127,26 +3127,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3179,26 +3162,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3374,7 +3340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -4920,42 +4886,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J9 J2:J6 J11:J12">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9 J11:J12 J14">
     <cfRule type="colorScale" priority="57">
       <colorScale>
@@ -4970,6 +4900,54 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9 J11:J12 J14:J15 J17 J19 J22 J24:J25 J27:J28 J30 J32 J35:J41">
     <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J33 J35:J41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J9 J2:J6 J11:J12">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5034,6 +5012,18 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5152,30 +5142,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J33 J35:J41">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J41">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
   <tableParts count="1">
@@ -5188,7 +5154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B33"/>
     </sheetView>
   </sheetViews>
@@ -6362,7 +6328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:O41"/>
     </sheetView>
   </sheetViews>
@@ -8309,13 +8275,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:I41">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Moderate">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Moderate">
       <formula>NOT(ISERROR(SEARCH("Moderate",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9602,6 +9568,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -9616,18 +9594,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I33">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11381,7 +11347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -12953,6 +12919,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
+    <SharedWithUsers xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
+      <UserInfo>
+        <DisplayName>Niloofar Vaghefi</DisplayName>
+        <AccountId>75</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ido Bar</DisplayName>
+        <AccountId>6</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="759527f59e11d69b52594aee1565f7b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfa3fb632320c027112c736c6f89e4dc" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13218,42 +13219,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
+    <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1f3c66e0-7684-4412-85ae-938bcfc42664">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" xsi:nil="true"/>
-    <SharedWithUsers xmlns="9c30d4e8-d9db-43d6-83e2-c08e4749ca29">
-      <UserInfo>
-        <DisplayName>Niloofar Vaghefi</DisplayName>
-        <AccountId>75</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ido Bar</DisplayName>
-        <AccountId>6</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{966FF025-0220-403C-9E72-08C59F4070C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13273,26 +13259,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F7F463-6762-49D5-871E-B6F1C6D819E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2302F3-E6D3-4C13-B335-E3D13BA616DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
-    <ds:schemaRef ds:uri="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{adaa4be3-f650-4692-881a-64ae220cbceb}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
